--- a/Fixed Income Attribution.xlsx
+++ b/Fixed Income Attribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kc111\Dev\CIPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFED076-3D38-4716-868C-C694F09F12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B97DA3E-E4A1-4A78-BC9F-7ADB770689DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{A0219E52-BC5C-483A-9CFD-680264FDC4D2}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
   <si>
     <t>Bond</t>
   </si>
@@ -160,6 +160,54 @@
   </si>
   <si>
     <t>Contribution</t>
+  </si>
+  <si>
+    <t>Yield Curve Decomposition - Duration Based</t>
+  </si>
+  <si>
+    <t>Worked Example</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Curvature</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Specific</t>
+  </si>
+  <si>
+    <t>Exhibit 39: Return Factors</t>
+  </si>
+  <si>
+    <t>Yield Variations</t>
+  </si>
+  <si>
+    <t>Exhibit 38: Yield Variations</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Return Factors</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Exhibit 42: Active Return Factor Contribution</t>
+  </si>
+  <si>
+    <t>Added Value</t>
   </si>
 </sst>
 </file>
@@ -170,7 +218,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="[$-409]mmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +248,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -296,7 +365,30 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,13 +726,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F012BF49-FE1B-4160-A766-CE0F833F361B}">
-  <dimension ref="A1:AW15"/>
+  <dimension ref="A1:CA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AV20" sqref="AV20"/>
+      <selection pane="bottomRight" activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -653,7 +745,7 @@
     <col min="6" max="6" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -686,1462 +778,2418 @@
     <col min="39" max="39" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8.88671875" style="1"/>
     <col min="41" max="41" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="49" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="16384" width="8.88671875" style="1"/>
+    <col min="42" max="49" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.88671875" style="1"/>
+    <col min="51" max="51" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.88671875" style="1"/>
+    <col min="56" max="56" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.88671875" style="1"/>
+    <col min="59" max="59" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.88671875" style="1"/>
+    <col min="65" max="65" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.88671875" style="1"/>
+    <col min="70" max="70" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.88671875" style="1"/>
+    <col min="76" max="76" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:79" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AY1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="29"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29"/>
+      <c r="CA1" s="29"/>
+    </row>
+    <row r="2" spans="1:79" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="30"/>
+      <c r="BK2" s="30"/>
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BO2" s="30"/>
+      <c r="BP2" s="30"/>
+      <c r="BQ2" s="30"/>
+      <c r="BR2" s="30"/>
+      <c r="BS2" s="30"/>
+      <c r="BT2" s="30"/>
+      <c r="BU2" s="30"/>
+      <c r="BV2" s="30"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="30"/>
+      <c r="CA2" s="30"/>
+    </row>
+    <row r="3" spans="1:79" s="35" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="R1" s="26" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="R3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="AA1" s="26" t="s">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="AA3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AO1" s="26" t="s">
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AO3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AY3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BG3" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH3" s="34"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="34"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="34"/>
+      <c r="BN3" s="34"/>
+      <c r="BO3" s="34"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="34"/>
+      <c r="BV3" s="34"/>
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="34"/>
+      <c r="CA3" s="34"/>
     </row>
-    <row r="2" spans="1:49" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="R2" s="3" t="s">
+    <row r="4" spans="1:79" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="R4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
-    <row r="3" spans="1:49" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="4">
+    <row r="5" spans="1:79" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="4">
         <v>41455</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
         <v>41639</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="3" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="6" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="6" t="s">
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="AB3" s="3" t="s">
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="AB5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3" t="s">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3" t="s">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AP3" s="3" t="s">
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AP5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3" t="s">
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AZ5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BG5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="5"/>
+      <c r="BS5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
     </row>
-    <row r="4" spans="1:49" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="6" spans="1:79" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="7" t="str" cm="1">
-        <f t="array" ref="AA4:AE7">_xlfn.PIVOTBY(B5:B11,F5:F11,R5:R11,_xleta.SUM,,,-1,,-1)</f>
+      <c r="AA6" s="7" t="str" cm="1">
+        <f t="array" ref="AA6:AE9">_xlfn.PIVOTBY(B7:B13,F7:F13,R7:R13,_xleta.SUM,,,-1,,-1)</f>
         <v/>
       </c>
-      <c r="AB4" s="7" t="str">
+      <c r="AB6" s="7" t="str">
         <v>Short</v>
       </c>
-      <c r="AC4" s="7" t="str">
+      <c r="AC6" s="7" t="str">
         <v>Mid</v>
       </c>
-      <c r="AD4" s="7" t="str">
+      <c r="AD6" s="7" t="str">
         <v>Long</v>
       </c>
-      <c r="AE4" s="7" t="str">
+      <c r="AE6" s="7" t="str">
         <v>Total</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AF6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AG6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AI6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AM6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7" t="s">
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AQ4" s="7" t="s">
+      <c r="AQ6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AR4" s="7" t="s">
+      <c r="AR6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="AS6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AT6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AU4" s="7" t="s">
+      <c r="AU6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AV4" s="7" t="s">
+      <c r="AV6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AW4" s="7" t="s">
+      <c r="AW6" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="AY6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG6" s="33"/>
+      <c r="BH6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="7"/>
+      <c r="BS6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BW6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BZ6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="CA6" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="str" cm="1">
-        <f t="array" ref="A5:A11">B5:B11&amp;" "&amp;TEXT(C5:C11,"0%")&amp;" "&amp;TEXT(D5:D11,"DD MMM YYYY")</f>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="str" cm="1">
+        <f t="array" ref="A7:A13">B7:B13&amp;" "&amp;TEXT(C7:C13,"0%")&amp;" "&amp;TEXT(D7:D13,"DD MMM YYYY")</f>
         <v>Government 5% 30 Jun 2018</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="12">
-        <v>43281</v>
-      </c>
-      <c r="E5" s="13" cm="1">
-        <f t="array" ref="E5:E11">(D5:D11-I3)/365</f>
-        <v>5.0027397260273974</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="10">
-        <v>4.42</v>
-      </c>
-      <c r="H5" s="10">
-        <v>22.99</v>
-      </c>
-      <c r="I5" s="10">
-        <v>3.78</v>
-      </c>
-      <c r="J5" s="14">
-        <v>105.5</v>
-      </c>
-      <c r="K5" s="15">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="L5" s="10">
-        <v>99.33</v>
-      </c>
-      <c r="M5" s="16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N5" s="17" cm="1">
-        <f t="array" ref="N5:N11">L5:L11/J5:J11-1</f>
-        <v>-5.8483412322274941E-2</v>
-      </c>
-      <c r="O5" s="17" cm="1">
-        <f t="array" ref="O5:O11">M5:M11*100/J5:J11</f>
-        <v>2.3696682464454975E-2</v>
-      </c>
-      <c r="P5" s="17" cm="1">
-        <f t="array" ref="P5:P11">_xlfn.ANCHORARRAY(N5)+_xlfn.ANCHORARRAY(O5)</f>
-        <v>-3.478672985781997E-2</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="S5" s="18" cm="1">
-        <f t="array" ref="S5:T11">R5:R11*G5:H11</f>
-        <v>0.442</v>
-      </c>
-      <c r="T5" s="18">
-        <v>2.2989999999999999</v>
-      </c>
-      <c r="U5" s="17" cm="1">
-        <f t="array" ref="U5:U11">R5:R11*P5:P11</f>
-        <v>-3.4786729857819972E-3</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="W5" s="18" cm="1">
-        <f t="array" ref="W5:X11">V5:V11*G5:H11</f>
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="X5" s="18">
-        <v>4.5979999999999999</v>
-      </c>
-      <c r="Y5" s="17" cm="1">
-        <f t="array" ref="Y5:Y11">V5:V11*P5:P11</f>
-        <v>-6.9573459715639944E-3</v>
-      </c>
-      <c r="AA5" s="1" t="str">
-        <v>Government</v>
-      </c>
-      <c r="AB5" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AC5" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AD5" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AE5" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="AF5" s="18" cm="1">
-        <f t="array" ref="AF5">SUM(IF(($B$5:$B$11=$AA5)*($F$5:$F$11=AB$4),$G$5:$G$11*$R$5:$R$11))</f>
-        <v>0.442</v>
-      </c>
-      <c r="AG5" s="18" cm="1">
-        <f t="array" ref="AG5">SUM(IF(($B$5:$B$11=$AA5)*($F$5:$F$11=AC$4),$G$5:$G$11*$R$5:$R$11))</f>
-        <v>0.747</v>
-      </c>
-      <c r="AH5" s="18" cm="1">
-        <f t="array" ref="AH5">SUM(IF(($B$5:$B$11=$AA5)*($F$5:$F$11=AD$4),$G$5:$G$11*$R$5:$R$11))</f>
-        <v>2.0420000000000003</v>
-      </c>
-      <c r="AI5" s="18" cm="1">
-        <f t="array" ref="AI5">SUM(IF($B$5:$B$11=$AA5,$G$5:$G$11*$R$5:$R$11))</f>
-        <v>3.2310000000000003</v>
-      </c>
-      <c r="AJ5" s="18" cm="1">
-        <f t="array" ref="AJ5:AM7">AF5:AI7/AB5:AE7</f>
-        <v>4.42</v>
-      </c>
-      <c r="AK5" s="18">
-        <v>7.47</v>
-      </c>
-      <c r="AL5" s="18">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="AM5" s="18">
-        <v>8.0775000000000006</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP5" s="17" cm="1">
-        <f t="array" ref="AP5">SUM(IF(($B$5:$B$11=$AO5)*($F$5:$F$11=AP$4),_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-3.4786729857819972E-3</v>
-      </c>
-      <c r="AQ5" s="17" cm="1">
-        <f t="array" ref="AQ5">SUM(IF(($B$5:$B$11=$AO5)*($F$5:$F$11=AQ$4),_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-5.1603330310774119E-3</v>
-      </c>
-      <c r="AR5" s="17" cm="1">
-        <f t="array" ref="AR5">SUM(IF(($B$5:$B$11=$AO5)*($F$5:$F$11=AR$4),_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-8.7481410200332382E-3</v>
-      </c>
-      <c r="AS5" s="17" cm="1">
-        <f t="array" ref="AS5">SUM(IF($B$5:$B$11=$AO5,_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-1.7387147036892647E-2</v>
-      </c>
-      <c r="AT5" s="17" cm="1">
-        <f t="array" ref="AT5:AW7">AP5:AS7/AB5:AE7</f>
-        <v>-3.478672985781997E-2</v>
-      </c>
-      <c r="AU5" s="17">
-        <v>-5.1603330310774118E-2</v>
-      </c>
-      <c r="AV5" s="17">
-        <v>-4.3740705100166186E-2</v>
-      </c>
-      <c r="AW5" s="17">
-        <v>-4.3467867592231618E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="str">
-        <v>Government 7% 30 Jun 2023</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D6" s="12">
-        <v>45107</v>
-      </c>
-      <c r="E6" s="13">
-        <v>10.005479452054795</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="10">
-        <v>7.47</v>
-      </c>
-      <c r="H6" s="10">
-        <v>69.31</v>
-      </c>
-      <c r="I6" s="10">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="J6" s="14">
-        <v>121.31</v>
-      </c>
-      <c r="K6" s="15">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="L6" s="10">
-        <v>111.55</v>
-      </c>
-      <c r="M6" s="16">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="N6" s="17">
-        <v>-8.0455032561206896E-2</v>
-      </c>
-      <c r="O6" s="17">
-        <v>2.8851702250432779E-2</v>
-      </c>
-      <c r="P6" s="17">
-        <v>-5.1603330310774118E-2</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="18">
-        <v>0.747</v>
-      </c>
-      <c r="T6" s="18">
-        <v>6.9310000000000009</v>
-      </c>
-      <c r="U6" s="17">
-        <v>-5.1603330310774119E-3</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="W6" s="18">
-        <v>1.494</v>
-      </c>
-      <c r="X6" s="18">
-        <v>13.862000000000002</v>
-      </c>
-      <c r="Y6" s="17">
-        <v>-1.0320666062154824E-2</v>
-      </c>
-      <c r="AA6" s="1" t="str">
-        <v>Corporate</v>
-      </c>
-      <c r="AB6" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AC6" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AD6" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="AE6" s="20">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="AF6" s="18" cm="1">
-        <f t="array" ref="AF6">SUM(IF(($B$5:$B$11=$AA6)*($F$5:$F$11=AB$4),$G$5:$G$11*$R$5:$R$11))</f>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="AG6" s="18" cm="1">
-        <f t="array" ref="AG6">SUM(IF(($B$5:$B$11=$AA6)*($F$5:$F$11=AC$4),$G$5:$G$11*$R$5:$R$11))</f>
-        <v>1.4800000000000002</v>
-      </c>
-      <c r="AH6" s="18" cm="1">
-        <f t="array" ref="AH6">SUM(IF(($B$5:$B$11=$AA6)*($F$5:$F$11=AD$4),$G$5:$G$11*$R$5:$R$11))</f>
-        <v>3.0180000000000002</v>
-      </c>
-      <c r="AI6" s="18" cm="1">
-        <f t="array" ref="AI6">SUM(IF($B$5:$B$11=$AA6,$G$5:$G$11*$R$5:$R$11))</f>
-        <v>4.9380000000000006</v>
-      </c>
-      <c r="AJ6" s="18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AK6" s="18">
-        <v>7.4</v>
-      </c>
-      <c r="AL6" s="18">
-        <v>10.06</v>
-      </c>
-      <c r="AM6" s="18">
-        <v>8.23</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP6" s="17" cm="1">
-        <f t="array" ref="AP6">SUM(IF(($B$5:$B$11=$AO6)*($F$5:$F$11=AP$4),_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-4.3313953488372126E-3</v>
-      </c>
-      <c r="AQ6" s="17" cm="1">
-        <f t="array" ref="AQ6">SUM(IF(($B$5:$B$11=$AO6)*($F$5:$F$11=AQ$4),_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-1.2282952698657069E-2</v>
-      </c>
-      <c r="AR6" s="17" cm="1">
-        <f t="array" ref="AR6">SUM(IF(($B$5:$B$11=$AO6)*($F$5:$F$11=AR$4),_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-1.624977009380172E-2</v>
-      </c>
-      <c r="AS6" s="17" cm="1">
-        <f t="array" ref="AS6">SUM(IF($B$5:$B$11=$AO6,_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-3.2864118141296E-2</v>
-      </c>
-      <c r="AT6" s="17">
-        <v>-4.3313953488372123E-2</v>
-      </c>
-      <c r="AU6" s="17">
-        <v>-6.1414763493285347E-2</v>
-      </c>
-      <c r="AV6" s="17">
-        <v>-5.4165900312672405E-2</v>
-      </c>
-      <c r="AW6" s="17">
-        <v>-5.4773530235493327E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="str">
-        <v>Government 6% 30 Jun 2028</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D7" s="12">
-        <v>46934</v>
-      </c>
-      <c r="E7" s="13">
-        <v>15.010958904109589</v>
+        <v>43281</v>
+      </c>
+      <c r="E7" s="13" cm="1">
+        <f t="array" ref="E7:E13">(D7:D13-I5)/365</f>
+        <v>5.0027397260273974</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="10">
+        <v>4.42</v>
+      </c>
+      <c r="H7" s="10">
+        <v>22.99</v>
+      </c>
+      <c r="I7" s="15">
+        <v>3.78E-2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>105.5</v>
+      </c>
+      <c r="K7" s="15">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="L7" s="10">
+        <v>99.33</v>
+      </c>
+      <c r="M7" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N7" s="17" cm="1">
+        <f t="array" ref="N7:N13">L7:L13/J7:J13-1</f>
+        <v>-5.8483412322274941E-2</v>
+      </c>
+      <c r="O7" s="17" cm="1">
+        <f t="array" ref="O7:O13">M7:M13*100/J7:J13</f>
+        <v>2.3696682464454975E-2</v>
+      </c>
+      <c r="P7" s="17" cm="1">
+        <f t="array" ref="P7:P13">_xlfn.ANCHORARRAY(N7)+_xlfn.ANCHORARRAY(O7)</f>
+        <v>-3.478672985781997E-2</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S7" s="18" cm="1">
+        <f t="array" ref="S7:T13">R7:R13*G7:H13</f>
+        <v>0.442</v>
+      </c>
+      <c r="T7" s="18">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="U7" s="17" cm="1">
+        <f t="array" ref="U7:U13">R7:R13*P7:P13</f>
+        <v>-3.4786729857819972E-3</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="W7" s="18" cm="1">
+        <f t="array" ref="W7:X13">V7:V13*G7:H13</f>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="X7" s="18">
+        <v>4.5979999999999999</v>
+      </c>
+      <c r="Y7" s="17" cm="1">
+        <f t="array" ref="Y7:Y13">V7:V13*P7:P13</f>
+        <v>-6.9573459715639944E-3</v>
+      </c>
+      <c r="AA7" s="1" t="str">
+        <v>Government</v>
+      </c>
+      <c r="AB7" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AD7" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="AF7" s="18" cm="1">
+        <f t="array" ref="AF7">SUM(IF(($B$7:$B$13=$AA7)*($F$7:$F$13=AB$6),$G$7:$G$13*$R$7:$R$13))</f>
+        <v>0.442</v>
+      </c>
+      <c r="AG7" s="18" cm="1">
+        <f t="array" ref="AG7">SUM(IF(($B$7:$B$13=$AA7)*($F$7:$F$13=AC$6),$G$7:$G$13*$R$7:$R$13))</f>
+        <v>0.747</v>
+      </c>
+      <c r="AH7" s="18" cm="1">
+        <f t="array" ref="AH7">SUM(IF(($B$7:$B$13=$AA7)*($F$7:$F$13=AD$6),$G$7:$G$13*$R$7:$R$13))</f>
+        <v>2.0420000000000003</v>
+      </c>
+      <c r="AI7" s="18" cm="1">
+        <f t="array" ref="AI7">SUM(IF($B$7:$B$13=$AA7,$G$7:$G$13*$R$7:$R$13))</f>
+        <v>3.2310000000000003</v>
+      </c>
+      <c r="AJ7" s="18" cm="1">
+        <f t="array" ref="AJ7:AM9">AF7:AI9/AB7:AE9</f>
+        <v>4.42</v>
+      </c>
+      <c r="AK7" s="18">
+        <v>7.47</v>
+      </c>
+      <c r="AL7" s="18">
         <v>10.210000000000001</v>
       </c>
-      <c r="H7" s="10">
-        <v>134.44</v>
-      </c>
-      <c r="I7" s="10">
-        <v>4.66</v>
-      </c>
-      <c r="J7" s="14">
-        <v>114.31</v>
-      </c>
-      <c r="K7" s="15">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="L7" s="10">
-        <v>106.31</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="N7" s="17">
-        <v>-6.9985128160265919E-2</v>
-      </c>
-      <c r="O7" s="17">
-        <v>2.6244423060099727E-2</v>
-      </c>
-      <c r="P7" s="17">
-        <v>-4.3740705100166193E-2</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="S7" s="18">
-        <v>2.0420000000000003</v>
-      </c>
-      <c r="T7" s="18">
-        <v>26.888000000000002</v>
-      </c>
-      <c r="U7" s="17">
+      <c r="AM7" s="18">
+        <v>8.0775000000000006</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP7" s="17" cm="1">
+        <f t="array" ref="AP7">SUM(IF(($B$7:$B$13=$AO7)*($F$7:$F$13=AP$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
+        <v>-3.4786729857819972E-3</v>
+      </c>
+      <c r="AQ7" s="17" cm="1">
+        <f t="array" ref="AQ7">SUM(IF(($B$7:$B$13=$AO7)*($F$7:$F$13=AQ$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
+        <v>-5.1603330310774119E-3</v>
+      </c>
+      <c r="AR7" s="17" cm="1">
+        <f t="array" ref="AR7">SUM(IF(($B$7:$B$13=$AO7)*($F$7:$F$13=AR$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-8.7481410200332382E-3</v>
       </c>
-      <c r="V7" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="W7" s="18">
-        <v>1.5315000000000001</v>
-      </c>
-      <c r="X7" s="18">
-        <v>20.166</v>
-      </c>
-      <c r="Y7" s="17">
-        <v>-6.5611057650249291E-3</v>
-      </c>
-      <c r="AA7" s="19" t="str">
-        <v>Total</v>
-      </c>
-      <c r="AB7" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="AC7" s="28">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="AE7" s="28">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="27" cm="1">
-        <f t="array" ref="AF7">SUM(IF($F$5:$F$11=AF$4,$G$5:$G$11*$R$5:$R$11))</f>
-        <v>0.88200000000000012</v>
-      </c>
-      <c r="AG7" s="27" cm="1">
-        <f t="array" ref="AG7">SUM(IF($F$5:$F$11=AG$4,$G$5:$G$11*$R$5:$R$11))</f>
-        <v>2.2270000000000003</v>
-      </c>
-      <c r="AH7" s="27" cm="1">
-        <f t="array" ref="AH7">SUM(IF($F$5:$F$11=AH$4,$G$5:$G$11*$R$5:$R$11))</f>
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="AI7" s="27">
-        <f>SUMPRODUCT($G$5:$G$11,$R$5:$R$11)</f>
-        <v>8.1690000000000005</v>
-      </c>
-      <c r="AJ7" s="27">
-        <v>4.41</v>
-      </c>
-      <c r="AK7" s="27">
-        <v>7.4233333333333329</v>
-      </c>
-      <c r="AL7" s="27">
-        <v>10.120000000000001</v>
-      </c>
-      <c r="AM7" s="27">
-        <v>8.1690000000000005</v>
-      </c>
-      <c r="AO7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP7" s="29" cm="1">
-        <f t="array" ref="AP7">SUM(IF($F$5:$F$11=AP$4,_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-7.8100683346192098E-3</v>
-      </c>
-      <c r="AQ7" s="29" cm="1">
-        <f t="array" ref="AQ7">SUM(IF($F$5:$F$11=AQ$4,_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-1.7443285729734481E-2</v>
-      </c>
-      <c r="AR7" s="29" cm="1">
-        <f t="array" ref="AR7">SUM(IF($F$5:$F$11=AR$4,_xlfn.ANCHORARRAY($P$5)*$R$5:$R$11))</f>
-        <v>-2.499791111383496E-2</v>
-      </c>
-      <c r="AS7" s="29">
-        <f>SUMPRODUCT(_xlfn.ANCHORARRAY($P$5),$R$5:$R$11)</f>
-        <v>-5.0251265178188648E-2</v>
-      </c>
-      <c r="AT7" s="29">
-        <v>-3.9050341673096046E-2</v>
-      </c>
-      <c r="AU7" s="29">
-        <v>-5.8144285765781595E-2</v>
-      </c>
-      <c r="AV7" s="29">
-        <v>-4.999582222766992E-2</v>
-      </c>
-      <c r="AW7" s="29">
-        <v>-5.0251265178188648E-2</v>
+      <c r="AS7" s="17" cm="1">
+        <f t="array" ref="AS7">SUM(IF($B$7:$B$13=$AO7,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
+        <v>-1.7387147036892647E-2</v>
+      </c>
+      <c r="AT7" s="17" cm="1">
+        <f t="array" ref="AT7:AW9">AP7:AS9/AB7:AE9</f>
+        <v>-3.478672985781997E-2</v>
+      </c>
+      <c r="AU7" s="17">
+        <v>-5.1603330310774118E-2</v>
+      </c>
+      <c r="AV7" s="17">
+        <v>-4.3740705100166186E-2</v>
+      </c>
+      <c r="AW7" s="17">
+        <v>-4.3467867592231618E-2</v>
+      </c>
+      <c r="AY7" s="1" t="str" cm="1">
+        <f t="array" ref="AY7:AY13">_xlfn.ANCHORARRAY(A7)</f>
+        <v>Government 5% 30 Jun 2018</v>
+      </c>
+      <c r="AZ7" s="32">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="BA7" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="BB7" s="32">
+        <v>2.3E-3</v>
+      </c>
+      <c r="BC7" s="32">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="BD7" s="32">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="32">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1" t="str" cm="1">
+        <f t="array" ref="BG7:BG13">_xlfn.ANCHORARRAY(A7)</f>
+        <v>Government 5% 30 Jun 2018</v>
+      </c>
+      <c r="BH7" s="17" cm="1">
+        <f t="array" ref="BH7:BH13">I7:I13*(DATE(2013,12,31)-DATE(2013,6,30))/365</f>
+        <v>1.9055342465753425E-2</v>
+      </c>
+      <c r="BI7" s="17" cm="1">
+        <f t="array" ref="BI7:BN13">-G7:G13*AZ7:BE13+0.5*H7:H13*AZ7:BE13^2</f>
+        <v>3.9873109499999997E-3</v>
+      </c>
+      <c r="BJ7" s="17">
+        <v>-4.3050500000000005E-2</v>
+      </c>
+      <c r="BK7" s="17">
+        <v>-1.010519145E-2</v>
+      </c>
+      <c r="BL7" s="17">
+        <v>-1.0978156250000001E-2</v>
+      </c>
+      <c r="BM7" s="17">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="17">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="17" cm="1">
+        <f t="array" ref="BO7:BO13">BP7:BP13-_xlfn.BYROW(BH7:BN13,_xleta.SUM)</f>
+        <v>6.304464426426612E-3</v>
+      </c>
+      <c r="BP7" s="17" cm="1">
+        <f t="array" ref="BP7:BP13">_xlfn.ANCHORARRAY(P7)</f>
+        <v>-3.478672985781997E-2</v>
+      </c>
+      <c r="BQ7" s="17"/>
+      <c r="BR7" s="1" t="str" cm="1">
+        <f t="array" ref="BR7:BR13">_xlfn.ANCHORARRAY(A7)</f>
+        <v>Government 5% 30 Jun 2018</v>
+      </c>
+      <c r="BS7" s="17" cm="1">
+        <f t="array" ref="BS7:CA13">(R7:R13-V7:V13)*BH7:BP13</f>
+        <v>-1.9055342465753426E-3</v>
+      </c>
+      <c r="BT7" s="17">
+        <v>-3.9873109499999999E-4</v>
+      </c>
+      <c r="BU7" s="17">
+        <v>4.3050500000000004E-3</v>
+      </c>
+      <c r="BV7" s="17">
+        <v>1.0105191450000002E-3</v>
+      </c>
+      <c r="BW7" s="17">
+        <v>1.0978156250000001E-3</v>
+      </c>
+      <c r="BX7" s="17">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="17">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="17">
+        <v>-6.3044644264266124E-4</v>
+      </c>
+      <c r="CA7" s="17">
+        <v>3.4786729857819972E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="str">
-        <v>Corporate 5% 30 Jun 2018</v>
+        <v>Government 7% 30 Jun 2023</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="11">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="12">
-        <v>43281</v>
+        <v>45107</v>
       </c>
       <c r="E8" s="13">
-        <v>5.0027397260273974</v>
+        <v>10.005479452054795</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="10">
-        <v>4.4000000000000004</v>
+        <v>7.47</v>
       </c>
       <c r="H8" s="10">
-        <v>22.84</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4.28</v>
+        <v>69.31</v>
+      </c>
+      <c r="I8" s="15">
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="J8" s="14">
-        <v>103.2</v>
+        <v>121.31</v>
       </c>
       <c r="K8" s="15">
-        <v>5.9700000000000003E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="L8" s="10">
-        <v>96.23</v>
+        <v>111.55</v>
       </c>
       <c r="M8" s="16">
-        <v>2.5000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="N8" s="17">
-        <v>-6.7538759689922512E-2</v>
+        <v>-8.0455032561206896E-2</v>
       </c>
       <c r="O8" s="17">
-        <v>2.4224806201550386E-2</v>
+        <v>2.8851702250432779E-2</v>
       </c>
       <c r="P8" s="17">
-        <v>-4.3313953488372123E-2</v>
+        <v>-5.1603330310774118E-2</v>
       </c>
       <c r="R8" s="11">
         <v>0.1</v>
       </c>
       <c r="S8" s="18">
+        <v>0.747</v>
+      </c>
+      <c r="T8" s="18">
+        <v>6.9310000000000009</v>
+      </c>
+      <c r="U8" s="17">
+        <v>-5.1603330310774119E-3</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="W8" s="18">
+        <v>1.494</v>
+      </c>
+      <c r="X8" s="18">
+        <v>13.862000000000002</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>-1.0320666062154824E-2</v>
+      </c>
+      <c r="AA8" s="1" t="str">
+        <v>Corporate</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="AD8" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AF8" s="18" cm="1">
+        <f t="array" ref="AF8">SUM(IF(($B$7:$B$13=$AA8)*($F$7:$F$13=AB$6),$G$7:$G$13*$R$7:$R$13))</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="T8" s="18">
-        <v>2.2840000000000003</v>
-      </c>
-      <c r="U8" s="17">
+      <c r="AG8" s="18" cm="1">
+        <f t="array" ref="AG8">SUM(IF(($B$7:$B$13=$AA8)*($F$7:$F$13=AC$6),$G$7:$G$13*$R$7:$R$13))</f>
+        <v>1.4800000000000002</v>
+      </c>
+      <c r="AH8" s="18" cm="1">
+        <f t="array" ref="AH8">SUM(IF(($B$7:$B$13=$AA8)*($F$7:$F$13=AD$6),$G$7:$G$13*$R$7:$R$13))</f>
+        <v>3.0180000000000002</v>
+      </c>
+      <c r="AI8" s="18" cm="1">
+        <f t="array" ref="AI8">SUM(IF($B$7:$B$13=$AA8,$G$7:$G$13*$R$7:$R$13))</f>
+        <v>4.9380000000000006</v>
+      </c>
+      <c r="AJ8" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AK8" s="18">
+        <v>7.4</v>
+      </c>
+      <c r="AL8" s="18">
+        <v>10.06</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>8.23</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP8" s="17" cm="1">
+        <f t="array" ref="AP8">SUM(IF(($B$7:$B$13=$AO8)*($F$7:$F$13=AP$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-4.3313953488372126E-3</v>
       </c>
-      <c r="V8" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="W8" s="18">
-        <v>0.66</v>
-      </c>
-      <c r="X8" s="18">
-        <v>3.4259999999999997</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>-6.4970930232558181E-3</v>
+      <c r="AQ8" s="17" cm="1">
+        <f t="array" ref="AQ8">SUM(IF(($B$7:$B$13=$AO8)*($F$7:$F$13=AQ$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
+        <v>-1.2282952698657069E-2</v>
+      </c>
+      <c r="AR8" s="17" cm="1">
+        <f t="array" ref="AR8">SUM(IF(($B$7:$B$13=$AO8)*($F$7:$F$13=AR$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
+        <v>-1.624977009380172E-2</v>
+      </c>
+      <c r="AS8" s="17" cm="1">
+        <f t="array" ref="AS8">SUM(IF($B$7:$B$13=$AO8,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
+        <v>-3.2864118141296E-2</v>
+      </c>
+      <c r="AT8" s="17">
+        <v>-4.3313953488372123E-2</v>
+      </c>
+      <c r="AU8" s="17">
+        <v>-6.1414763493285347E-2</v>
+      </c>
+      <c r="AV8" s="17">
+        <v>-5.4165900312672405E-2</v>
+      </c>
+      <c r="AW8" s="17">
+        <v>-5.4773530235493327E-2</v>
+      </c>
+      <c r="AY8" s="1" t="str">
+        <v>Government 7% 30 Jun 2023</v>
+      </c>
+      <c r="AZ8" s="32">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="BA8" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="BB8" s="32">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="BC8" s="32">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="BD8" s="32">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="32">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1" t="str">
+        <v>Government 7% 30 Jun 2023</v>
+      </c>
+      <c r="BH8" s="17">
+        <v>2.192876712328767E-2</v>
+      </c>
+      <c r="BI8" s="17">
+        <v>2.9935448000000002E-3</v>
+      </c>
+      <c r="BJ8" s="17">
+        <v>-7.1234500000000006E-2</v>
+      </c>
+      <c r="BK8" s="17">
+        <v>-4.4695242E-3</v>
+      </c>
+      <c r="BL8" s="17">
+        <v>-4.4695242E-3</v>
+      </c>
+      <c r="BM8" s="17">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="17">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="17">
+        <v>3.6479061659382139E-3</v>
+      </c>
+      <c r="BP8" s="17">
+        <v>-5.1603330310774118E-2</v>
+      </c>
+      <c r="BQ8" s="17"/>
+      <c r="BR8" s="1" t="str">
+        <v>Government 7% 30 Jun 2023</v>
+      </c>
+      <c r="BS8" s="17">
+        <v>-2.192876712328767E-3</v>
+      </c>
+      <c r="BT8" s="17">
+        <v>-2.9935448000000003E-4</v>
+      </c>
+      <c r="BU8" s="17">
+        <v>7.1234500000000008E-3</v>
+      </c>
+      <c r="BV8" s="17">
+        <v>4.4695242000000003E-4</v>
+      </c>
+      <c r="BW8" s="17">
+        <v>4.4695242000000003E-4</v>
+      </c>
+      <c r="BX8" s="17">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="17">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="17">
+        <v>-3.6479061659382139E-4</v>
+      </c>
+      <c r="CA8" s="17">
+        <v>5.1603330310774119E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="str">
-        <v>Corporate 7% 30 Jun 2023</v>
+        <v>Government 6% 30 Jun 2028</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D9" s="12">
-        <v>45107</v>
+        <v>46934</v>
       </c>
       <c r="E9" s="13">
-        <v>10.005479452054795</v>
+        <v>15.010958904109589</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10">
-        <v>7.4</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="H9" s="10">
-        <v>68.36</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4.8499999999999996</v>
+        <v>134.44</v>
+      </c>
+      <c r="I9" s="15">
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="J9" s="14">
-        <v>116.91</v>
+        <v>114.31</v>
       </c>
       <c r="K9" s="15">
-        <v>6.1199999999999997E-2</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="L9" s="10">
-        <v>106.23</v>
+        <v>106.31</v>
       </c>
       <c r="M9" s="16">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="N9" s="17">
-        <v>-9.1352322299204425E-2</v>
+        <v>-6.9985128160265919E-2</v>
       </c>
       <c r="O9" s="17">
-        <v>2.9937558805919088E-2</v>
+        <v>2.6244423060099727E-2</v>
       </c>
       <c r="P9" s="17">
-        <v>-6.141476349328534E-2</v>
+        <v>-4.3740705100166193E-2</v>
       </c>
       <c r="R9" s="11">
         <v>0.2</v>
       </c>
       <c r="S9" s="18">
-        <v>1.4800000000000002</v>
+        <v>2.0420000000000003</v>
       </c>
       <c r="T9" s="18">
-        <v>13.672000000000001</v>
+        <v>26.888000000000002</v>
       </c>
       <c r="U9" s="17">
-        <v>-1.2282952698657069E-2</v>
+        <v>-8.7481410200332382E-3</v>
       </c>
       <c r="V9" s="11">
         <v>0.15</v>
       </c>
       <c r="W9" s="18">
-        <v>1.1100000000000001</v>
+        <v>1.5315000000000001</v>
       </c>
       <c r="X9" s="18">
-        <v>10.254</v>
+        <v>20.166</v>
       </c>
       <c r="Y9" s="17">
-        <v>-9.2122145239928004E-3</v>
-      </c>
-      <c r="AA9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AO9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
+        <v>-6.5611057650249291E-3</v>
+      </c>
+      <c r="AA9" s="19" t="str">
+        <v>Total</v>
+      </c>
+      <c r="AB9" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="AC9" s="28">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AE9" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="27" cm="1">
+        <f t="array" ref="AF9">SUM(IF($F$7:$F$13=AF$6,$G$7:$G$13*$R$7:$R$13))</f>
+        <v>0.88200000000000012</v>
+      </c>
+      <c r="AG9" s="27" cm="1">
+        <f t="array" ref="AG9">SUM(IF($F$7:$F$13=AG$6,$G$7:$G$13*$R$7:$R$13))</f>
+        <v>2.2270000000000003</v>
+      </c>
+      <c r="AH9" s="27" cm="1">
+        <f t="array" ref="AH9">SUM(IF($F$7:$F$13=AH$6,$G$7:$G$13*$R$7:$R$13))</f>
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="AI9" s="27">
+        <f>SUMPRODUCT($G$7:$G$13,$R$7:$R$13)</f>
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="AJ9" s="27">
+        <v>4.41</v>
+      </c>
+      <c r="AK9" s="27">
+        <v>7.4233333333333329</v>
+      </c>
+      <c r="AL9" s="27">
+        <v>10.120000000000001</v>
+      </c>
+      <c r="AM9" s="27">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="AO9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP9" s="31" cm="1">
+        <f t="array" ref="AP9">SUM(IF($F$7:$F$13=AP$6,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
+        <v>-7.8100683346192098E-3</v>
+      </c>
+      <c r="AQ9" s="31" cm="1">
+        <f t="array" ref="AQ9">SUM(IF($F$7:$F$13=AQ$6,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
+        <v>-1.7443285729734481E-2</v>
+      </c>
+      <c r="AR9" s="31" cm="1">
+        <f t="array" ref="AR9">SUM(IF($F$7:$F$13=AR$6,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
+        <v>-2.499791111383496E-2</v>
+      </c>
+      <c r="AS9" s="31">
+        <f>SUMPRODUCT(_xlfn.ANCHORARRAY($P$7),$R$7:$R$13)</f>
+        <v>-5.0251265178188648E-2</v>
+      </c>
+      <c r="AT9" s="31">
+        <v>-3.9050341673096046E-2</v>
+      </c>
+      <c r="AU9" s="31">
+        <v>-5.8144285765781595E-2</v>
+      </c>
+      <c r="AV9" s="31">
+        <v>-4.999582222766992E-2</v>
+      </c>
+      <c r="AW9" s="31">
+        <v>-5.0251265178188648E-2</v>
+      </c>
+      <c r="AY9" s="1" t="str">
+        <v>Government 6% 30 Jun 2028</v>
+      </c>
+      <c r="AZ9" s="32">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="BA9" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="BB9" s="32">
+        <v>-1E-3</v>
+      </c>
+      <c r="BC9" s="32">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="BD9" s="32">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="32">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1" t="str">
+        <v>Government 6% 30 Jun 2028</v>
+      </c>
+      <c r="BH9" s="17">
+        <v>2.3491506849315072E-2</v>
+      </c>
+      <c r="BI9" s="17">
+        <v>2.0446888000000005E-3</v>
+      </c>
+      <c r="BJ9" s="17">
+        <v>-9.5378000000000004E-2</v>
+      </c>
+      <c r="BK9" s="17">
+        <v>1.027722E-2</v>
+      </c>
+      <c r="BL9" s="17">
+        <v>1.75512658E-2</v>
+      </c>
+      <c r="BM9" s="17">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="17">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="17">
+        <v>-1.7273865494812635E-3</v>
+      </c>
+      <c r="BP9" s="17">
+        <v>-4.3740705100166193E-2</v>
+      </c>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="1" t="str">
+        <v>Government 6% 30 Jun 2028</v>
+      </c>
+      <c r="BS9" s="17">
+        <v>1.1745753424657541E-3</v>
+      </c>
+      <c r="BT9" s="17">
+        <v>1.0223444000000006E-4</v>
+      </c>
+      <c r="BU9" s="17">
+        <v>-4.7689000000000021E-3</v>
+      </c>
+      <c r="BV9" s="17">
+        <v>5.1386100000000022E-4</v>
+      </c>
+      <c r="BW9" s="17">
+        <v>8.7756329000000029E-4</v>
+      </c>
+      <c r="BX9" s="17">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="17">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="17">
+        <v>-8.6369327474063206E-5</v>
+      </c>
+      <c r="CA9" s="17">
+        <v>-2.1870352550083104E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="str">
-        <v>Corporate 6% 30 Jun 2028</v>
+        <v>Corporate 5% 30 Jun 2018</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D10" s="12">
-        <v>46934</v>
+        <v>43281</v>
       </c>
       <c r="E10" s="13">
-        <v>15.010958904109589</v>
+        <v>5.0027397260273974</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="10">
-        <v>10.06</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H10" s="10">
-        <v>131.57</v>
-      </c>
-      <c r="I10" s="10">
-        <v>5.16</v>
+        <v>22.84</v>
+      </c>
+      <c r="I10" s="15">
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="J10" s="14">
-        <v>108.74</v>
+        <v>103.2</v>
       </c>
       <c r="K10" s="15">
-        <v>6.0699999999999997E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="L10" s="10">
-        <v>99.37</v>
+        <v>96.23</v>
       </c>
       <c r="M10" s="16">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N10" s="17">
-        <v>-8.6168843112010229E-2</v>
+        <v>-6.7538759689922512E-2</v>
       </c>
       <c r="O10" s="17">
-        <v>2.758874379253265E-2</v>
+        <v>2.4224806201550386E-2</v>
       </c>
       <c r="P10" s="17">
-        <v>-5.858009931947758E-2</v>
+        <v>-4.3313953488372123E-2</v>
       </c>
       <c r="R10" s="11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S10" s="18">
-        <v>0</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="T10" s="18">
-        <v>0</v>
+        <v>2.2840000000000003</v>
       </c>
       <c r="U10" s="17">
-        <v>0</v>
+        <v>-4.3313953488372126E-3</v>
       </c>
       <c r="V10" s="11">
         <v>0.15</v>
       </c>
       <c r="W10" s="18">
-        <v>1.5090000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="X10" s="18">
-        <v>19.735499999999998</v>
+        <v>3.4259999999999997</v>
       </c>
       <c r="Y10" s="17">
-        <v>-8.7870148979216373E-3</v>
+        <v>-6.4970930232558181E-3</v>
+      </c>
+      <c r="AY10" s="1" t="str">
+        <v>Corporate 5% 30 Jun 2018</v>
+      </c>
+      <c r="AZ10" s="32">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="BA10" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="BB10" s="32">
+        <v>2.3E-3</v>
+      </c>
+      <c r="BC10" s="32">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="BD10" s="32">
+        <v>2E-3</v>
+      </c>
+      <c r="BE10" s="32">
+        <v>1E-3</v>
+      </c>
+      <c r="BG10" s="1" t="str">
+        <v>Corporate 5% 30 Jun 2018</v>
+      </c>
+      <c r="BH10" s="17">
+        <v>2.1575890410958903E-2</v>
+      </c>
+      <c r="BI10" s="17">
+        <v>3.9692501999999998E-3</v>
+      </c>
+      <c r="BJ10" s="17">
+        <v>-4.2858000000000007E-2</v>
+      </c>
+      <c r="BK10" s="17">
+        <v>-1.00595882E-2</v>
+      </c>
+      <c r="BL10" s="17">
+        <v>-1.0928625000000001E-2</v>
+      </c>
+      <c r="BM10" s="17">
+        <v>-8.7543200000000012E-3</v>
+      </c>
+      <c r="BN10" s="17">
+        <v>-4.3885800000000004E-3</v>
+      </c>
+      <c r="BO10" s="17">
+        <v>8.1300191006689893E-3</v>
+      </c>
+      <c r="BP10" s="17">
+        <v>-4.3313953488372123E-2</v>
+      </c>
+      <c r="BQ10" s="17"/>
+      <c r="BR10" s="1" t="str">
+        <v>Corporate 5% 30 Jun 2018</v>
+      </c>
+      <c r="BS10" s="17">
+        <v>-1.0787945205479449E-3</v>
+      </c>
+      <c r="BT10" s="17">
+        <v>-1.9846250999999994E-4</v>
+      </c>
+      <c r="BU10" s="17">
+        <v>2.1429000000000001E-3</v>
+      </c>
+      <c r="BV10" s="17">
+        <v>5.0297940999999996E-4</v>
+      </c>
+      <c r="BW10" s="17">
+        <v>5.4643124999999987E-4</v>
+      </c>
+      <c r="BX10" s="17">
+        <v>4.3771599999999994E-4</v>
+      </c>
+      <c r="BY10" s="17">
+        <v>2.1942899999999996E-4</v>
+      </c>
+      <c r="BZ10" s="17">
+        <v>-4.0650095503344936E-4</v>
+      </c>
+      <c r="CA10" s="17">
+        <v>2.1656976744186054E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:79" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="str">
-        <v>Corporate 6% 30 Jun 2028</v>
+        <v>Corporate 7% 30 Jun 2023</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>45107</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10.005479452054795</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="H11" s="10">
+        <v>68.36</v>
+      </c>
+      <c r="I11" s="15">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>116.91</v>
+      </c>
+      <c r="K11" s="15">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="L11" s="10">
+        <v>106.23</v>
+      </c>
+      <c r="M11" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N11" s="17">
+        <v>-9.1352322299204425E-2</v>
+      </c>
+      <c r="O11" s="17">
+        <v>2.9937558805919088E-2</v>
+      </c>
+      <c r="P11" s="17">
+        <v>-6.141476349328534E-2</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="S11" s="18">
+        <v>1.4800000000000002</v>
+      </c>
+      <c r="T11" s="18">
+        <v>13.672000000000001</v>
+      </c>
+      <c r="U11" s="17">
+        <v>-1.2282952698657069E-2</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="W11" s="18">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X11" s="18">
+        <v>10.254</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>-9.2122145239928004E-3</v>
+      </c>
+      <c r="AA11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AO11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+      <c r="AY11" s="1" t="str">
+        <v>Corporate 7% 30 Jun 2023</v>
+      </c>
+      <c r="AZ11" s="32">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="BA11" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="BB11" s="32">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="BC11" s="32">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="BD11" s="32">
+        <v>2E-3</v>
+      </c>
+      <c r="BE11" s="32">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="1" t="str">
+        <v>Corporate 7% 30 Jun 2023</v>
+      </c>
+      <c r="BH11" s="17">
+        <v>2.4449315068493148E-2</v>
+      </c>
+      <c r="BI11" s="17">
+        <v>2.9654688000000005E-3</v>
+      </c>
+      <c r="BJ11" s="17">
+        <v>-7.0582000000000006E-2</v>
+      </c>
+      <c r="BK11" s="17">
+        <v>-4.4276951999999998E-3</v>
+      </c>
+      <c r="BL11" s="17">
+        <v>-4.4276951999999998E-3</v>
+      </c>
+      <c r="BM11" s="17">
+        <v>-1.4663280000000001E-2</v>
+      </c>
+      <c r="BN11" s="17">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="17">
+        <v>5.2711230382215118E-3</v>
+      </c>
+      <c r="BP11" s="17">
+        <v>-6.141476349328534E-2</v>
+      </c>
+      <c r="BQ11" s="17"/>
+      <c r="BR11" s="1" t="str">
+        <v>Corporate 7% 30 Jun 2023</v>
+      </c>
+      <c r="BS11" s="17">
+        <v>1.2224657534246578E-3</v>
+      </c>
+      <c r="BT11" s="17">
+        <v>1.4827344000000007E-4</v>
+      </c>
+      <c r="BU11" s="17">
+        <v>-3.5291000000000016E-3</v>
+      </c>
+      <c r="BV11" s="17">
+        <v>-2.2138476000000006E-4</v>
+      </c>
+      <c r="BW11" s="17">
+        <v>-2.2138476000000006E-4</v>
+      </c>
+      <c r="BX11" s="17">
+        <v>-7.3316400000000023E-4</v>
+      </c>
+      <c r="BY11" s="17">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="17">
+        <v>2.635561519110757E-4</v>
+      </c>
+      <c r="CA11" s="17">
+        <v>-3.0707381746642682E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11">
         <v>0.06</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>46934</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>15.010958904109589</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>10.06</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H12" s="10">
         <v>131.57</v>
       </c>
-      <c r="I11" s="10">
-        <v>5.16</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="I12" s="15">
+        <v>5.16E-2</v>
+      </c>
+      <c r="J12" s="14">
         <v>108.74</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K12" s="15">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="L12" s="10">
+        <v>99.37</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="N12" s="17">
+        <v>-8.6168843112010229E-2</v>
+      </c>
+      <c r="O12" s="17">
+        <v>2.758874379253265E-2</v>
+      </c>
+      <c r="P12" s="17">
+        <v>-5.858009931947758E-2</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0</v>
+      </c>
+      <c r="T12" s="18">
+        <v>0</v>
+      </c>
+      <c r="U12" s="17">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="W12" s="18">
+        <v>1.5090000000000001</v>
+      </c>
+      <c r="X12" s="18">
+        <v>19.735499999999998</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>-8.7870148979216373E-3</v>
+      </c>
+      <c r="AY12" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="AZ12" s="32">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="BA12" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="BB12" s="32">
+        <v>-1E-3</v>
+      </c>
+      <c r="BC12" s="32">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="BD12" s="32">
+        <v>2E-3</v>
+      </c>
+      <c r="BE12" s="32">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="BH12" s="17">
+        <v>2.601205479452055E-2</v>
+      </c>
+      <c r="BI12" s="17">
+        <v>2.0146314000000004E-3</v>
+      </c>
+      <c r="BJ12" s="17">
+        <v>-9.4021500000000008E-2</v>
+      </c>
+      <c r="BK12" s="17">
+        <v>1.0125785000000002E-2</v>
+      </c>
+      <c r="BL12" s="17">
+        <v>1.729211865E-2</v>
+      </c>
+      <c r="BM12" s="17">
+        <v>-1.9856860000000004E-2</v>
+      </c>
+      <c r="BN12" s="17">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="17">
+        <v>-1.463291639981143E-4</v>
+      </c>
+      <c r="BP12" s="17">
+        <v>-5.858009931947758E-2</v>
+      </c>
+      <c r="BQ12" s="17"/>
+      <c r="BR12" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="BS12" s="17">
+        <v>-3.9018082191780825E-3</v>
+      </c>
+      <c r="BT12" s="17">
+        <v>-3.0219471000000002E-4</v>
+      </c>
+      <c r="BU12" s="17">
+        <v>1.4103225E-2</v>
+      </c>
+      <c r="BV12" s="17">
+        <v>-1.5188677500000002E-3</v>
+      </c>
+      <c r="BW12" s="17">
+        <v>-2.5938177975000001E-3</v>
+      </c>
+      <c r="BX12" s="17">
+        <v>2.9785290000000006E-3</v>
+      </c>
+      <c r="BY12" s="17">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="17">
+        <v>2.1949374599717144E-5</v>
+      </c>
+      <c r="CA12" s="17">
+        <v>8.7870148979216373E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="12">
+        <v>46934</v>
+      </c>
+      <c r="E13" s="13">
+        <v>15.010958904109589</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="10">
+        <v>10.06</v>
+      </c>
+      <c r="H13" s="10">
+        <v>131.57</v>
+      </c>
+      <c r="I13" s="15">
+        <v>5.16E-2</v>
+      </c>
+      <c r="J13" s="14">
+        <v>108.74</v>
+      </c>
+      <c r="K13" s="15">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L13" s="10">
         <v>99.85</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M13" s="16">
         <v>0.03</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N13" s="17">
         <v>-8.1754644105205054E-2</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O13" s="17">
         <v>2.758874379253265E-2</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P13" s="17">
         <v>-5.4165900312672405E-2</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R13" s="11">
         <v>0.3</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S13" s="18">
         <v>3.0180000000000002</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T13" s="18">
         <v>39.470999999999997</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U13" s="17">
         <v>-1.624977009380172E-2</v>
       </c>
-      <c r="V11" s="11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="18">
-        <v>0</v>
-      </c>
-      <c r="X11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="3" t="s">
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="18">
+        <v>0</v>
+      </c>
+      <c r="X13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3" t="s">
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3" t="s">
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AP11" s="3" t="s">
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AP13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3" t="s">
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AY13" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="AZ13" s="32">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="BA13" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="BB13" s="32">
+        <v>-1E-3</v>
+      </c>
+      <c r="BC13" s="32">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="BD13" s="32">
+        <v>2E-3</v>
+      </c>
+      <c r="BE13" s="32">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="BG13" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="BH13" s="17">
+        <v>2.601205479452055E-2</v>
+      </c>
+      <c r="BI13" s="17">
+        <v>2.0146314000000004E-3</v>
+      </c>
+      <c r="BJ13" s="17">
+        <v>-9.4021500000000008E-2</v>
+      </c>
+      <c r="BK13" s="17">
+        <v>1.0125785000000002E-2</v>
+      </c>
+      <c r="BL13" s="17">
+        <v>1.729211865E-2</v>
+      </c>
+      <c r="BM13" s="17">
+        <v>-1.9856860000000004E-2</v>
+      </c>
+      <c r="BN13" s="17">
+        <v>5.0464462500000003E-3</v>
+      </c>
+      <c r="BO13" s="17">
+        <v>-7.7857640719294213E-4</v>
+      </c>
+      <c r="BP13" s="17">
+        <v>-5.4165900312672405E-2</v>
+      </c>
+      <c r="BQ13" s="17"/>
+      <c r="BR13" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="BS13" s="17">
+        <v>7.8036164383561649E-3</v>
+      </c>
+      <c r="BT13" s="17">
+        <v>6.0438942000000005E-4</v>
+      </c>
+      <c r="BU13" s="17">
+        <v>-2.8206450000000001E-2</v>
+      </c>
+      <c r="BV13" s="17">
+        <v>3.0377355000000003E-3</v>
+      </c>
+      <c r="BW13" s="17">
+        <v>5.1876355950000001E-3</v>
+      </c>
+      <c r="BX13" s="17">
+        <v>-5.9570580000000012E-3</v>
+      </c>
+      <c r="BY13" s="17">
+        <v>1.513933875E-3</v>
+      </c>
+      <c r="BZ13" s="17">
+        <v>-2.3357292215788264E-4</v>
+      </c>
+      <c r="CA13" s="17">
+        <v>-1.624977009380172E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R12" s="21" cm="1">
-        <f t="array" ref="R12:Y12">_xlfn.BYCOL(R5:Y11,_xleta.SUM)</f>
+    <row r="14" spans="1:79" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="21" cm="1">
+        <f t="array" ref="R14:Y14">_xlfn.BYCOL(R7:Y13,_xleta.SUM)</f>
         <v>1</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S14" s="22">
         <v>8.1690000000000005</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T14" s="22">
         <v>91.544999999999987</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U14" s="23">
         <v>-5.0251265178188648E-2</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V14" s="21">
         <v>1</v>
       </c>
-      <c r="W12" s="22">
+      <c r="W14" s="22">
         <v>7.1885000000000012</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X14" s="22">
         <v>72.041499999999999</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Y14" s="23">
         <v>-4.8335440243914007E-2</v>
       </c>
-      <c r="AA12" s="2" t="str" cm="1">
-        <f t="array" ref="AA12:AE15">_xlfn.PIVOTBY(B5:B11,F5:F11,V5:V11,_xleta.SUM,,,-1,,-1)</f>
+      <c r="AA14" s="2" t="str" cm="1">
+        <f t="array" ref="AA14:AE17">_xlfn.PIVOTBY(B7:B13,F7:F13,V7:V13,_xleta.SUM,,,-1,,-1)</f>
         <v/>
       </c>
-      <c r="AB12" s="7" t="str">
+      <c r="AB14" s="7" t="str">
         <v>Short</v>
       </c>
-      <c r="AC12" s="7" t="str">
+      <c r="AC14" s="7" t="str">
         <v>Mid</v>
       </c>
-      <c r="AD12" s="7" t="str">
+      <c r="AD14" s="7" t="str">
         <v>Long</v>
       </c>
-      <c r="AE12" s="7" t="str">
+      <c r="AE14" s="7" t="str">
         <v>Total</v>
       </c>
-      <c r="AF12" s="7" t="s">
+      <c r="AF14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AG12" s="7" t="s">
+      <c r="AG14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AH12" s="7" t="s">
+      <c r="AH14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AI12" s="7" t="s">
+      <c r="AI14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AJ12" s="7" t="s">
+      <c r="AJ14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AK12" s="7" t="s">
+      <c r="AK14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AL12" s="7" t="s">
+      <c r="AL14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AM12" s="7" t="s">
+      <c r="AM14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AP12" s="7" t="s">
+      <c r="AP14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AQ12" s="7" t="s">
+      <c r="AQ14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AR12" s="7" t="s">
+      <c r="AR14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AS12" s="7" t="s">
+      <c r="AS14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AT12" s="7" t="s">
+      <c r="AT14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AU12" s="7" t="s">
+      <c r="AU14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AV12" s="7" t="s">
+      <c r="AV14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AW12" s="7" t="s">
+      <c r="AW14" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="BR14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS14" s="31" cm="1">
+        <f t="array" ref="BS14:CA14">_xlfn.BYCOL(_xlfn.ANCHORARRAY(BS7),_xleta.SUM)</f>
+        <v>1.1216438356164401E-3</v>
+      </c>
+      <c r="BT14" s="31">
+        <v>-3.4384549499999982E-4</v>
+      </c>
+      <c r="BU14" s="31">
+        <v>-8.8298250000000029E-3</v>
+      </c>
+      <c r="BV14" s="31">
+        <v>3.7717949650000002E-3</v>
+      </c>
+      <c r="BW14" s="31">
+        <v>5.3411956225000003E-3</v>
+      </c>
+      <c r="BX14" s="31">
+        <v>-3.2739770000000008E-3</v>
+      </c>
+      <c r="BY14" s="31">
+        <v>1.733362875E-3</v>
+      </c>
+      <c r="BZ14" s="31">
+        <v>-1.4361747373910852E-3</v>
+      </c>
+      <c r="CA14" s="31">
+        <v>-1.9158249342746472E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="25" t="s">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Y13" s="24">
-        <f>U12-Y12</f>
+      <c r="Y15" s="24">
+        <f>U14-Y14</f>
         <v>-1.9158249342746403E-3</v>
       </c>
-      <c r="AA13" s="1" t="str">
+      <c r="AA15" s="1" t="str">
         <v>Government</v>
       </c>
-      <c r="AB13" s="20">
+      <c r="AB15" s="20">
         <v>0.2</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AC15" s="20">
         <v>0.2</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AD15" s="20">
         <v>0.15</v>
       </c>
-      <c r="AE13" s="20">
+      <c r="AE15" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AF13" s="18" cm="1">
-        <f t="array" ref="AF13">SUM(IF(($B$5:$B$11=$AA13)*($F$5:$F$11=AB$4),$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AF15" s="18" cm="1">
+        <f t="array" ref="AF15">SUM(IF(($B$7:$B$13=$AA15)*($F$7:$F$13=AB$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>0.88400000000000001</v>
       </c>
-      <c r="AG13" s="18" cm="1">
-        <f t="array" ref="AG13">SUM(IF(($B$5:$B$11=$AA13)*($F$5:$F$11=AC$4),$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AG15" s="18" cm="1">
+        <f t="array" ref="AG15">SUM(IF(($B$7:$B$13=$AA15)*($F$7:$F$13=AC$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.494</v>
       </c>
-      <c r="AH13" s="18" cm="1">
-        <f t="array" ref="AH13">SUM(IF(($B$5:$B$11=$AA13)*($F$5:$F$11=AD$4),$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AH15" s="18" cm="1">
+        <f t="array" ref="AH15">SUM(IF(($B$7:$B$13=$AA15)*($F$7:$F$13=AD$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.5315000000000001</v>
       </c>
-      <c r="AI13" s="1" cm="1">
-        <f t="array" ref="AI13">SUM(IF($B$5:$B$11=$AA13,$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AI15" s="1" cm="1">
+        <f t="array" ref="AI15">SUM(IF($B$7:$B$13=$AA15,$G$7:$G$13*$V$7:$V$13))</f>
         <v>3.9095000000000004</v>
       </c>
-      <c r="AJ13" s="18" cm="1">
-        <f t="array" ref="AJ13:AM15">AF13:AI15/AB13:AE15</f>
+      <c r="AJ15" s="18" cm="1">
+        <f t="array" ref="AJ15:AM17">AF15:AI17/AB15:AE17</f>
         <v>4.42</v>
       </c>
-      <c r="AK13" s="18">
+      <c r="AK15" s="18">
         <v>7.47</v>
       </c>
-      <c r="AL13" s="18">
+      <c r="AL15" s="18">
         <v>10.210000000000001</v>
       </c>
-      <c r="AM13" s="18">
+      <c r="AM15" s="18">
         <v>7.1081818181818184</v>
       </c>
-      <c r="AO13" s="1" t="s">
+      <c r="AO15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AP13" s="17" cm="1">
-        <f t="array" ref="AP13">SUM(IF(($B$5:$B$11=$AO13)*($F$5:$F$11=AP$4),_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AP15" s="17" cm="1">
+        <f t="array" ref="AP15">SUM(IF(($B$7:$B$13=$AO15)*($F$7:$F$13=AP$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-6.9573459715639944E-3</v>
       </c>
-      <c r="AQ13" s="17" cm="1">
-        <f t="array" ref="AQ13">SUM(IF(($B$5:$B$11=$AO13)*($F$5:$F$11=AQ$4),_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AQ15" s="17" cm="1">
+        <f t="array" ref="AQ15">SUM(IF(($B$7:$B$13=$AO15)*($F$7:$F$13=AQ$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-1.0320666062154824E-2</v>
       </c>
-      <c r="AR13" s="17" cm="1">
-        <f t="array" ref="AR13">SUM(IF(($B$5:$B$11=$AO13)*($F$5:$F$11=AR$4),_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AR15" s="17" cm="1">
+        <f t="array" ref="AR15">SUM(IF(($B$7:$B$13=$AO15)*($F$7:$F$13=AR$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-6.5611057650249291E-3</v>
       </c>
-      <c r="AS13" s="17" cm="1">
-        <f t="array" ref="AS13">SUM(IF($B$5:$B$11=$AO13,_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AS15" s="17" cm="1">
+        <f t="array" ref="AS15">SUM(IF($B$7:$B$13=$AO15,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-2.3839117798743748E-2</v>
       </c>
-      <c r="AT13" s="17" cm="1">
-        <f t="array" ref="AT13:AW15">AP13:AS15/AB13:AE15</f>
+      <c r="AT15" s="17" cm="1">
+        <f t="array" ref="AT15:AW17">AP15:AS17/AB15:AE17</f>
         <v>-3.478672985781997E-2</v>
       </c>
-      <c r="AU13" s="17">
+      <c r="AU15" s="17">
         <v>-5.1603330310774118E-2</v>
       </c>
-      <c r="AV13" s="17">
+      <c r="AV15" s="17">
         <v>-4.3740705100166193E-2</v>
       </c>
-      <c r="AW13" s="17">
+      <c r="AW15" s="17">
         <v>-4.3343850543170449E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="AA14" s="1" t="str">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="AA16" s="1" t="str">
         <v>Corporate</v>
       </c>
-      <c r="AB14" s="20">
+      <c r="AB16" s="20">
         <v>0.15</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AC16" s="20">
         <v>0.15</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AD16" s="20">
         <v>0.15</v>
       </c>
-      <c r="AE14" s="20">
+      <c r="AE16" s="20">
         <v>0.44999999999999996</v>
       </c>
-      <c r="AF14" s="18" cm="1">
-        <f t="array" ref="AF14">SUM(IF(($B$5:$B$11=$AA14)*($F$5:$F$11=AB$4),$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AF16" s="18" cm="1">
+        <f t="array" ref="AF16">SUM(IF(($B$7:$B$13=$AA16)*($F$7:$F$13=AB$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>0.66</v>
       </c>
-      <c r="AG14" s="18" cm="1">
-        <f t="array" ref="AG14">SUM(IF(($B$5:$B$11=$AA14)*($F$5:$F$11=AC$4),$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AG16" s="18" cm="1">
+        <f t="array" ref="AG16">SUM(IF(($B$7:$B$13=$AA16)*($F$7:$F$13=AC$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="AH14" s="18" cm="1">
-        <f t="array" ref="AH14">SUM(IF(($B$5:$B$11=$AA14)*($F$5:$F$11=AD$4),$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AH16" s="18" cm="1">
+        <f t="array" ref="AH16">SUM(IF(($B$7:$B$13=$AA16)*($F$7:$F$13=AD$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.5090000000000001</v>
       </c>
-      <c r="AI14" s="1" cm="1">
-        <f t="array" ref="AI14">SUM(IF($B$5:$B$11=$AA14,$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AI16" s="1" cm="1">
+        <f t="array" ref="AI16">SUM(IF($B$7:$B$13=$AA16,$G$7:$G$13*$V$7:$V$13))</f>
         <v>3.2789999999999999</v>
       </c>
-      <c r="AJ14" s="18">
+      <c r="AJ16" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AK14" s="18">
+      <c r="AK16" s="18">
         <v>7.4000000000000012</v>
       </c>
-      <c r="AL14" s="18">
+      <c r="AL16" s="18">
         <v>10.06</v>
       </c>
-      <c r="AM14" s="18">
+      <c r="AM16" s="18">
         <v>7.2866666666666671</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AO16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AP14" s="17" cm="1">
-        <f t="array" ref="AP14">SUM(IF(($B$5:$B$11=$AO14)*($F$5:$F$11=AP$4),_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AP16" s="17" cm="1">
+        <f t="array" ref="AP16">SUM(IF(($B$7:$B$13=$AO16)*($F$7:$F$13=AP$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-6.4970930232558181E-3</v>
       </c>
-      <c r="AQ14" s="17" cm="1">
-        <f t="array" ref="AQ14">SUM(IF(($B$5:$B$11=$AO14)*($F$5:$F$11=AQ$4),_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AQ16" s="17" cm="1">
+        <f t="array" ref="AQ16">SUM(IF(($B$7:$B$13=$AO16)*($F$7:$F$13=AQ$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-9.2122145239928004E-3</v>
       </c>
-      <c r="AR14" s="17" cm="1">
-        <f t="array" ref="AR14">SUM(IF(($B$5:$B$11=$AO14)*($F$5:$F$11=AR$4),_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AR16" s="17" cm="1">
+        <f t="array" ref="AR16">SUM(IF(($B$7:$B$13=$AO16)*($F$7:$F$13=AR$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-8.7870148979216373E-3</v>
       </c>
-      <c r="AS14" s="17" cm="1">
-        <f t="array" ref="AS14">SUM(IF($B$5:$B$11=$AO14,_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AS16" s="17" cm="1">
+        <f t="array" ref="AS16">SUM(IF($B$7:$B$13=$AO16,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-2.4496322445170256E-2</v>
       </c>
-      <c r="AT14" s="17">
+      <c r="AT16" s="17">
         <v>-4.3313953488372123E-2</v>
       </c>
-      <c r="AU14" s="17">
+      <c r="AU16" s="17">
         <v>-6.141476349328534E-2</v>
       </c>
-      <c r="AV14" s="17">
+      <c r="AV16" s="17">
         <v>-5.8580099319477587E-2</v>
       </c>
-      <c r="AW14" s="17">
+      <c r="AW16" s="17">
         <v>-5.4436272100378352E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AA15" s="19" t="str">
+      <c r="AA17" s="19" t="str">
         <v>Total</v>
       </c>
-      <c r="AB15" s="28">
+      <c r="AB17" s="28">
         <v>0.35</v>
       </c>
-      <c r="AC15" s="28">
+      <c r="AC17" s="28">
         <v>0.35</v>
       </c>
-      <c r="AD15" s="28">
+      <c r="AD17" s="28">
         <v>0.3</v>
       </c>
-      <c r="AE15" s="28">
+      <c r="AE17" s="28">
         <v>1</v>
       </c>
-      <c r="AF15" s="27" cm="1">
-        <f t="array" ref="AF15">SUM(IF($F$5:$F$11=AF$4,$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AF17" s="27" cm="1">
+        <f t="array" ref="AF17">SUM(IF($F$7:$F$13=AF$6,$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.544</v>
       </c>
-      <c r="AG15" s="27" cm="1">
-        <f t="array" ref="AG15">SUM(IF($F$5:$F$11=AG$4,$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AG17" s="27" cm="1">
+        <f t="array" ref="AG17">SUM(IF($F$7:$F$13=AG$6,$G$7:$G$13*$V$7:$V$13))</f>
         <v>2.6040000000000001</v>
       </c>
-      <c r="AH15" s="27" cm="1">
-        <f t="array" ref="AH15">SUM(IF($F$5:$F$11=AH$4,$G$5:$G$11*$V$5:$V$11))</f>
+      <c r="AH17" s="27" cm="1">
+        <f t="array" ref="AH17">SUM(IF($F$7:$F$13=AH$6,$G$7:$G$13*$V$7:$V$13))</f>
         <v>3.0405000000000002</v>
       </c>
-      <c r="AI15" s="27">
-        <f>SUMPRODUCT($G$5:$G$11,$V$5:$V$11)</f>
+      <c r="AI17" s="27">
+        <f>SUMPRODUCT($G$7:$G$13,$V$7:$V$13)</f>
         <v>7.1885000000000012</v>
       </c>
-      <c r="AJ15" s="27">
+      <c r="AJ17" s="27">
         <v>4.4114285714285719</v>
       </c>
-      <c r="AK15" s="27">
+      <c r="AK17" s="27">
         <v>7.44</v>
       </c>
-      <c r="AL15" s="27">
+      <c r="AL17" s="27">
         <v>10.135000000000002</v>
       </c>
-      <c r="AM15" s="27">
+      <c r="AM17" s="27">
         <v>7.1885000000000012</v>
       </c>
-      <c r="AO15" s="19" t="s">
+      <c r="AO17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AP15" s="29" cm="1">
-        <f t="array" ref="AP15">SUM(IF($F$5:$F$11=AP$4,_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AP17" s="31" cm="1">
+        <f t="array" ref="AP17">SUM(IF($F$7:$F$13=AP$6,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-1.3454438994819812E-2</v>
       </c>
-      <c r="AQ15" s="29" cm="1">
-        <f t="array" ref="AQ15">SUM(IF($F$5:$F$11=AQ$4,_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AQ17" s="31" cm="1">
+        <f t="array" ref="AQ17">SUM(IF($F$7:$F$13=AQ$6,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-1.9532880586147626E-2</v>
       </c>
-      <c r="AR15" s="29" cm="1">
-        <f t="array" ref="AR15">SUM(IF($F$5:$F$11=AR$4,_xlfn.ANCHORARRAY($P$5)*$V$5:$V$11))</f>
+      <c r="AR17" s="31" cm="1">
+        <f t="array" ref="AR17">SUM(IF($F$7:$F$13=AR$6,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-1.5348120662946566E-2</v>
       </c>
-      <c r="AS15" s="29">
-        <f>SUMPRODUCT(_xlfn.ANCHORARRAY($P$5),$V$5:$V$11)</f>
+      <c r="AS17" s="31">
+        <f>SUMPRODUCT(_xlfn.ANCHORARRAY($P$7),$V$7:$V$13)</f>
         <v>-4.8335440243914007E-2</v>
       </c>
-      <c r="AT15" s="29">
+      <c r="AT17" s="31">
         <v>-3.8441254270913751E-2</v>
       </c>
-      <c r="AU15" s="29">
+      <c r="AU17" s="31">
         <v>-5.5808230246136077E-2</v>
       </c>
-      <c r="AV15" s="29">
+      <c r="AV17" s="31">
         <v>-5.116040220982189E-2</v>
       </c>
-      <c r="AW15" s="29">
+      <c r="AW17" s="31">
         <v>-4.8335440243914007E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="AO9:AW9"/>
-    <mergeCell ref="AO1:AW1"/>
-    <mergeCell ref="AA1:AM1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="AA9:AM9"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="AT11:AW11"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AJ11:AM11"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
+  <mergeCells count="31">
+    <mergeCell ref="BS5:CA5"/>
+    <mergeCell ref="BG5:BP5"/>
+    <mergeCell ref="BR3:CA3"/>
+    <mergeCell ref="AY1:CA1"/>
+    <mergeCell ref="BG3:BP3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="AO11:AW11"/>
+    <mergeCell ref="AO3:AW3"/>
+    <mergeCell ref="A1:AW1"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="AA3:AM3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="AA11:AM11"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AT13:AW13"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AJ5:AM5"/>
+    <mergeCell ref="AJ13:AM13"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fixed Income Attribution.xlsx
+++ b/Fixed Income Attribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kc111\Dev\CIPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B97DA3E-E4A1-4A78-BC9F-7ADB770689DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5512610-856A-4804-9DC8-49F2038A8336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{A0219E52-BC5C-483A-9CFD-680264FDC4D2}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>Bond</t>
   </si>
@@ -208,6 +208,72 @@
   </si>
   <si>
     <t>Added Value</t>
+  </si>
+  <si>
+    <t>Yield Curve Decomposition - Full Repricing</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>6/30/132</t>
+  </si>
+  <si>
+    <t>Amortized</t>
+  </si>
+  <si>
+    <t>Sloped</t>
+  </si>
+  <si>
+    <t>Shifted</t>
+  </si>
+  <si>
+    <t>Systematic</t>
+  </si>
+  <si>
+    <t>Price Return</t>
+  </si>
+  <si>
+    <t>Coupon Return</t>
+  </si>
+  <si>
+    <t>Total Return</t>
+  </si>
+  <si>
+    <t>Passage of time</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>Roll down</t>
+  </si>
+  <si>
+    <t>Curve variation</t>
+  </si>
+  <si>
+    <t>Spread variations</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Exhibit 66: Single Bond Return Attribution</t>
+  </si>
+  <si>
+    <t>Begin (T)</t>
+  </si>
+  <si>
+    <t>End (T+1)</t>
+  </si>
+  <si>
+    <t>Systmatic spread</t>
+  </si>
+  <si>
+    <t>Exhibit 65: Summary of Price Return Factors</t>
   </si>
 </sst>
 </file>
@@ -264,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -388,6 +460,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,13 +811,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F012BF49-FE1B-4160-A766-CE0F833F361B}">
-  <dimension ref="A1:CA17"/>
+  <dimension ref="A1:CW18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="BF7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AY15" sqref="AY15"/>
+      <selection pane="bottomRight" activeCell="CC1" sqref="CC1:CW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -806,10 +891,24 @@
     <col min="77" max="77" width="7.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="8.88671875" style="1"/>
+    <col min="80" max="80" width="8.88671875" style="1"/>
+    <col min="81" max="81" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.88671875" style="1" customWidth="1"/>
+    <col min="85" max="85" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.88671875" style="1"/>
+    <col min="92" max="92" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="6.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:101" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>35</v>
       </c>
@@ -892,8 +991,31 @@
       <c r="BY1" s="29"/>
       <c r="BZ1" s="29"/>
       <c r="CA1" s="29"/>
+      <c r="CC1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
+      <c r="CJ1" s="29"/>
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="29"/>
+      <c r="CN1" s="29"/>
+      <c r="CO1" s="29"/>
+      <c r="CP1" s="29"/>
+      <c r="CQ1" s="29"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="29"/>
+      <c r="CT1" s="29"/>
+      <c r="CU1" s="29"/>
+      <c r="CV1" s="29"/>
+      <c r="CW1" s="29"/>
     </row>
-    <row r="2" spans="1:79" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:101" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -972,8 +1094,10 @@
       <c r="BY2" s="30"/>
       <c r="BZ2" s="30"/>
       <c r="CA2" s="30"/>
+      <c r="CL2" s="31"/>
+      <c r="CO2" s="31"/>
     </row>
-    <row r="3" spans="1:79" s="35" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:101" s="35" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -1062,8 +1186,25 @@
       <c r="BY3" s="34"/>
       <c r="BZ3" s="34"/>
       <c r="CA3" s="34"/>
+      <c r="CC3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="CD3" s="34"/>
+      <c r="CE3" s="34"/>
+      <c r="CF3" s="34"/>
+      <c r="CG3" s="34"/>
+      <c r="CH3" s="34"/>
+      <c r="CJ3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="CK3" s="45"/>
+      <c r="CL3" s="45"/>
+      <c r="CN3" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="CO3" s="45"/>
     </row>
-    <row r="4" spans="1:79" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:101" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1084,8 +1225,13 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
+      <c r="CJ4" s="45"/>
+      <c r="CK4" s="45"/>
+      <c r="CL4" s="45"/>
+      <c r="CN4" s="45"/>
+      <c r="CO4" s="45"/>
     </row>
-    <row r="5" spans="1:79" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:101" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I5" s="4">
         <v>41455</v>
       </c>
@@ -1174,8 +1320,18 @@
       <c r="BY5" s="3"/>
       <c r="BZ5" s="3"/>
       <c r="CA5" s="3"/>
+      <c r="CD5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="5"/>
+      <c r="CL5" s="40"/>
+      <c r="CO5" s="40"/>
     </row>
-    <row r="6" spans="1:79" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:101" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1547,34 @@
       <c r="CA6" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CC6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="CD6" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="CE6" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="CF6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="CG6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH6" s="39">
+        <v>41639</v>
+      </c>
+      <c r="CJ6" s="39"/>
+      <c r="CK6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="CO6" s="40"/>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="str" cm="1">
         <f t="array" ref="A7:A13">B7:B13&amp;" "&amp;TEXT(C7:C13,"0%")&amp;" "&amp;TEXT(D7:D13,"DD MMM YYYY")</f>
         <v>Government 5% 30 Jun 2018</v>
@@ -1407,8 +1589,8 @@
         <v>43281</v>
       </c>
       <c r="E7" s="13" cm="1">
-        <f t="array" ref="E7:E13">(D7:D13-I5)/365</f>
-        <v>5.0027397260273974</v>
+        <f t="array" ref="E7:E13">ROUND((D7:D13-I5)/365,0)</f>
+        <v>5</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>23</v>
@@ -1640,8 +1822,40 @@
       <c r="CA7" s="17">
         <v>3.4786729857819972E-3</v>
       </c>
+      <c r="CC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="15">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="CE7" s="32">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="CF7" s="32">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="CG7" s="32">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="CH7" s="32">
+        <v>3.85E-2</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="CK7" s="18" cm="1">
+        <f t="array" ref="CK7">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2)/($E$10*2))*100+$M$10*100)*(1+$CD$7:$CD$16/2)^-$CC$7:$CC$16)</f>
+        <v>103.19974147561445</v>
+      </c>
+      <c r="CN7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="CO7" s="44">
+        <f>SUM(CO8:CO10)</f>
+        <v>2.5171632906759854E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="str">
         <v>Government 7% 30 Jun 2023</v>
       </c>
@@ -1655,7 +1869,7 @@
         <v>45107</v>
       </c>
       <c r="E8" s="13">
-        <v>10.005479452054795</v>
+        <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>24</v>
@@ -1870,8 +2084,44 @@
       <c r="CA8" s="17">
         <v>5.1603330310774119E-3</v>
       </c>
+      <c r="CC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD8" s="15">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="CE8" s="32">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="CF8" s="32">
+        <v>4.2130000000000001E-2</v>
+      </c>
+      <c r="CG8" s="32">
+        <v>4.4130000000000003E-2</v>
+      </c>
+      <c r="CH8" s="32">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="CJ8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="CK8" s="18" cm="1">
+        <f t="array" ref="CK8">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+$CD$8:$CD$16/2)^-$CC$7:$CC$15)</f>
+        <v>102.85016958158496</v>
+      </c>
+      <c r="CL8" s="17">
+        <f>(CK8-CK7)/CK$7</f>
+        <v>-3.3873330400937367E-3</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO8" s="17">
+        <f>CL16</f>
+        <v>2.4224866886810338E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="str">
         <v>Government 6% 30 Jun 2028</v>
       </c>
@@ -1885,7 +2135,7 @@
         <v>46934</v>
       </c>
       <c r="E9" s="13">
-        <v>15.010958904109589</v>
+        <v>15</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>25</v>
@@ -2100,8 +2350,44 @@
       <c r="CA9" s="17">
         <v>-2.1870352550083104E-3</v>
       </c>
+      <c r="CC9" s="1">
+        <v>3</v>
+      </c>
+      <c r="CD9" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="CE9" s="32">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="CF9" s="32">
+        <v>4.607E-2</v>
+      </c>
+      <c r="CG9" s="32">
+        <v>4.8070000000000002E-2</v>
+      </c>
+      <c r="CH9" s="32">
+        <v>4.9100000000000005E-2</v>
+      </c>
+      <c r="CJ9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="CK9" s="18" cm="1">
+        <f t="array" ref="CK9">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+$CD$7:$CD$15/2)^-$CC$7:$CC$15)</f>
+        <v>103.29744748411113</v>
+      </c>
+      <c r="CL9" s="17">
+        <f t="shared" ref="CL9:CL14" si="0">(CK9-CK8)/CK$7</f>
+        <v>4.3340990600432535E-3</v>
+      </c>
+      <c r="CN9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CO9" s="17" cm="1">
+        <f t="array" ref="CO9:CO10">CL8:CL9</f>
+        <v>-3.3873330400937367E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="str">
         <v>Corporate 5% 30 Jun 2018</v>
       </c>
@@ -2115,7 +2401,7 @@
         <v>43281</v>
       </c>
       <c r="E10" s="13">
-        <v>5.0027397260273974</v>
+        <v>5</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>23</v>
@@ -2256,8 +2542,43 @@
       <c r="CA10" s="17">
         <v>2.1656976744186054E-3</v>
       </c>
+      <c r="CC10" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD10" s="15">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="CE10" s="32">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="CF10" s="32">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="CG10" s="32">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="CH10" s="32">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="CJ10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="CK10" s="18" cm="1">
+        <f t="array" ref="CK10">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CD$7:$CD$15+0.01)/2)^-$CC$7:$CC$15)</f>
+        <v>99.257256810076242</v>
+      </c>
+      <c r="CL10" s="17">
+        <f t="shared" si="0"/>
+        <v>-3.9149232510331096E-2</v>
+      </c>
+      <c r="CN10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CO10" s="17">
+        <v>4.3340990600432535E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:101" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="str">
         <v>Corporate 7% 30 Jun 2023</v>
       </c>
@@ -2271,7 +2592,7 @@
         <v>45107</v>
       </c>
       <c r="E11" s="13">
-        <v>10.005479452054795</v>
+        <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>24</v>
@@ -2438,8 +2759,44 @@
       <c r="CA11" s="17">
         <v>-3.0707381746642682E-3</v>
       </c>
+      <c r="CC11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD11" s="15">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="CE11" s="32">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="CF11" s="32">
+        <v>5.1130000000000002E-2</v>
+      </c>
+      <c r="CG11" s="32">
+        <v>5.3129999999999997E-2</v>
+      </c>
+      <c r="CH11" s="32">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="CJ11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK11" s="18" cm="1">
+        <f t="array" ref="CK11">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CE$7:$CE$15)/2)^-$CC$7:$CC$15)</f>
+        <v>98.368079092837689</v>
+      </c>
+      <c r="CL11" s="17">
+        <f t="shared" si="0"/>
+        <v>-8.616084735528733E-3</v>
+      </c>
+      <c r="CN11" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="CO11" s="44">
+        <f>SUM(_xlfn.ANCHORARRAY(CO12))</f>
+        <v>-5.7386512542221088E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
@@ -2453,7 +2810,7 @@
         <v>46934</v>
       </c>
       <c r="E12" s="13">
-        <v>15.010958904109589</v>
+        <v>15</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>25</v>
@@ -2594,8 +2951,44 @@
       <c r="CA12" s="17">
         <v>8.7870148979216373E-3</v>
       </c>
+      <c r="CC12" s="1">
+        <v>6</v>
+      </c>
+      <c r="CD12" s="15">
+        <v>3.85E-2</v>
+      </c>
+      <c r="CE12" s="32">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="CF12" s="32">
+        <v>5.2970000000000003E-2</v>
+      </c>
+      <c r="CG12" s="32">
+        <v>5.4969999999999998E-2</v>
+      </c>
+      <c r="CH12" s="32">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="CJ12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="CK12" s="18" cm="1">
+        <f t="array" ref="CK12">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CF$7:$CF$15)/2)^-$CC$7:$CC$15)</f>
+        <v>97.375174225566809</v>
+      </c>
+      <c r="CL12" s="17">
+        <f t="shared" si="0"/>
+        <v>-9.6211952963612644E-3</v>
+      </c>
+      <c r="CN12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CO12" s="17" cm="1">
+        <f t="array" ref="CO12:CO14">CL10:CL12</f>
+        <v>-3.9149232510331096E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
@@ -2609,7 +3002,7 @@
         <v>46934</v>
       </c>
       <c r="E13" s="13">
-        <v>15.010958904109589</v>
+        <v>15</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>25</v>
@@ -2780,8 +3173,43 @@
       <c r="CA13" s="17">
         <v>-1.624977009380172E-2</v>
       </c>
+      <c r="CC13" s="1">
+        <v>7</v>
+      </c>
+      <c r="CD13" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="CE13" s="32">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="CF13" s="32">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="CG13" s="32">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="CH13" s="32">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="CJ13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="CK13" s="18" cm="1">
+        <f t="array" ref="CK13">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CG$7:$CG$15)/2)^-$CC$7:$CC$15)</f>
+        <v>96.607434908839338</v>
+      </c>
+      <c r="CL13" s="17">
+        <f t="shared" si="0"/>
+        <v>-7.4393531005974879E-3</v>
+      </c>
+      <c r="CN13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CO13" s="17">
+        <v>-8.616084735528733E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R14" s="21" cm="1">
         <f t="array" ref="R14:Y14">_xlfn.BYCOL(R7:Y13,_xleta.SUM)</f>
         <v>1</v>
@@ -2902,8 +3330,43 @@
       <c r="CA14" s="31">
         <v>-1.9158249342746472E-3</v>
       </c>
+      <c r="CC14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD14" s="15">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="CE14" s="32">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="CF14" s="32">
+        <v>5.6030000000000003E-2</v>
+      </c>
+      <c r="CG14" s="32">
+        <v>5.8029999999999998E-2</v>
+      </c>
+      <c r="CH14" s="32">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="CJ14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK14" s="18" cm="1">
+        <f t="array" ref="CK14">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+$CH$7:$CH$15/2)^-$CC$7:$CC$15)</f>
+        <v>96.216149644010343</v>
+      </c>
+      <c r="CL14" s="17">
+        <f t="shared" si="0"/>
+        <v>-3.7915333821010862E-3</v>
+      </c>
+      <c r="CN14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CO14" s="17">
+        <v>-9.6211952963612644E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
@@ -2993,8 +3456,40 @@
       <c r="AW15" s="17">
         <v>-4.3343850543170449E-2</v>
       </c>
+      <c r="CC15" s="1">
+        <v>9</v>
+      </c>
+      <c r="CD15" s="15">
+        <v>4.24E-2</v>
+      </c>
+      <c r="CE15" s="32">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="CF15" s="32">
+        <v>5.7270000000000001E-2</v>
+      </c>
+      <c r="CG15" s="32">
+        <v>5.9270000000000003E-2</v>
+      </c>
+      <c r="CH15" s="32">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="CJ15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="CL15" s="31">
+        <f>SUM(CL8:CL14)</f>
+        <v>-6.7670633004970143E-2</v>
+      </c>
+      <c r="CN15" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="CO15" s="44">
+        <f>SUM(_xlfn.ANCHORARRAY(CO16))</f>
+        <v>-1.1230886482698575E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -3077,8 +3572,31 @@
       <c r="AW16" s="17">
         <v>-5.4436272100378352E-2</v>
       </c>
+      <c r="CC16" s="1">
+        <v>10</v>
+      </c>
+      <c r="CD16" s="15">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="CE16" s="42"/>
+      <c r="CF16" s="42"/>
+      <c r="CG16" s="42"/>
+      <c r="CJ16" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL16" s="31">
+        <f>$M$10*100/CK7</f>
+        <v>2.4224866886810338E-2</v>
+      </c>
+      <c r="CN16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CO16" s="17" cm="1">
+        <f t="array" ref="CO16:CO17">CL13:CL14</f>
+        <v>-7.4393531005974879E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3156,9 +3674,36 @@
       <c r="AW17" s="31">
         <v>-4.8335440243914007E-2</v>
       </c>
+      <c r="CJ17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="CL17" s="31">
+        <f>SUM(CL15:CL16)</f>
+        <v>-4.3445766118159805E-2</v>
+      </c>
+      <c r="CN17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CO17" s="17">
+        <v>-3.7915333821010862E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="CN18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO18" s="31">
+        <f>SUM(CO7,CO11,CO15)</f>
+        <v>-4.3445766118159812E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="36">
+    <mergeCell ref="CC1:CW1"/>
+    <mergeCell ref="CD5:CH5"/>
+    <mergeCell ref="CN3:CO4"/>
+    <mergeCell ref="CJ3:CL4"/>
+    <mergeCell ref="CC3:CH3"/>
     <mergeCell ref="BS5:CA5"/>
     <mergeCell ref="BG5:BP5"/>
     <mergeCell ref="BR3:CA3"/>
@@ -3192,5 +3737,6 @@
     <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fixed Income Attribution.xlsx
+++ b/Fixed Income Attribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kc111\Dev\CIPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5512610-856A-4804-9DC8-49F2038A8336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834CBD85-F05F-4FA9-B02F-DA2A2121174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{A0219E52-BC5C-483A-9CFD-680264FDC4D2}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="41544" windowHeight="16824" xr2:uid="{A0219E52-BC5C-483A-9CFD-680264FDC4D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Worked Example" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
   <si>
     <t>Bond</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Provided</t>
-  </si>
-  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Period</t>
   </si>
   <si>
-    <t>6/30/132</t>
-  </si>
-  <si>
     <t>Amortized</t>
   </si>
   <si>
@@ -274,6 +268,75 @@
   </si>
   <si>
     <t>Exhibit 65: Summary of Price Return Factors</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T+1</t>
+  </si>
+  <si>
+    <t>Inputs:</t>
+  </si>
+  <si>
+    <t>Weights (Portfolio, Benchmark)</t>
+  </si>
+  <si>
+    <t>Duration &amp; Convexity (Portfolio)</t>
+  </si>
+  <si>
+    <t>YTM (Portfolio)</t>
+  </si>
+  <si>
+    <t>Total Return (Portfolio)</t>
+  </si>
+  <si>
+    <t>Yield Variations (Government Curve, Spread[Systematic, Specific])</t>
+  </si>
+  <si>
+    <t>Exposure Decomposition - Duration Based</t>
+  </si>
+  <si>
+    <t>Duration Bucket</t>
+  </si>
+  <si>
+    <t>Duration Effect</t>
+  </si>
+  <si>
+    <t>Curve Effect</t>
+  </si>
+  <si>
+    <t>Total Interest Rate Allocation</t>
+  </si>
+  <si>
+    <t>Sector Allocation</t>
+  </si>
+  <si>
+    <t>Bond Selection</t>
+  </si>
+  <si>
+    <t>Exhibit 20: Final Exposure Decomposition Attribution</t>
+  </si>
+  <si>
+    <t>Reshape Data</t>
+  </si>
+  <si>
+    <t>Exhibit 7: Benchmark Returns</t>
+  </si>
+  <si>
+    <t>Duration Return</t>
+  </si>
+  <si>
+    <t>Source Data</t>
+  </si>
+  <si>
+    <t>Exhibit 70: Added Value (Attribution Effects)</t>
+  </si>
+  <si>
+    <t>Exhibit 67: Return Factors</t>
+  </si>
+  <si>
+    <t>Amort</t>
   </si>
 </sst>
 </file>
@@ -282,9 +345,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="[$-409]mmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +392,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -356,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -384,12 +460,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -398,26 +489,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -425,29 +509,16 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,21 +529,91 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,13 +952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F012BF49-FE1B-4160-A766-CE0F833F361B}">
-  <dimension ref="A1:CW18"/>
+  <dimension ref="A1:EE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="BF7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CC1" sqref="CC1:CW1"/>
+      <selection pane="bottomRight" sqref="A1:AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -864,2546 +1005,3629 @@
     <col min="40" max="40" width="8.88671875" style="1"/>
     <col min="41" max="41" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="49" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.88671875" style="1"/>
-    <col min="51" max="51" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.88671875" style="1"/>
-    <col min="56" max="56" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.88671875" style="1"/>
-    <col min="59" max="59" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.88671875" style="1"/>
-    <col min="65" max="65" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.88671875" style="1"/>
-    <col min="70" max="70" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="8.88671875" style="1"/>
+    <col min="52" max="52" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="9.88671875" style="60" customWidth="1"/>
+    <col min="61" max="61" width="8.88671875" style="1"/>
+    <col min="62" max="62" width="9.21875" style="1" customWidth="1"/>
+    <col min="63" max="63" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="9.21875" style="1" customWidth="1"/>
+    <col min="66" max="66" width="13.109375" style="1" customWidth="1"/>
+    <col min="67" max="69" width="9.21875" style="1" customWidth="1"/>
+    <col min="70" max="70" width="8.88671875" style="1"/>
+    <col min="71" max="71" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="8.88671875" style="1"/>
     <col min="76" max="76" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.88671875" style="1"/>
-    <col min="81" max="81" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.88671875" style="1" customWidth="1"/>
-    <col min="85" max="85" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.88671875" style="1"/>
-    <col min="92" max="92" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="6.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="8.88671875" style="1"/>
+    <col min="78" max="78" width="8.88671875" style="1"/>
+    <col min="79" max="79" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.88671875" style="1"/>
+    <col min="85" max="85" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="8.88671875" style="1"/>
+    <col min="90" max="90" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.88671875" style="1"/>
+    <col min="96" max="96" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="8.88671875" style="1"/>
+    <col min="101" max="101" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="8.88671875" style="1" customWidth="1"/>
+    <col min="105" max="105" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="6.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="8.88671875" style="1"/>
+    <col min="112" max="112" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="6.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.88671875" style="1"/>
+    <col min="115" max="115" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="125" width="8.88671875" style="1"/>
+    <col min="126" max="126" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="127" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AY1" s="29" t="s">
+    <row r="1" spans="1:135" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="29"/>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="29"/>
-      <c r="BS1" s="29"/>
-      <c r="BT1" s="29"/>
-      <c r="BU1" s="29"/>
-      <c r="BV1" s="29"/>
-      <c r="BW1" s="29"/>
-      <c r="BX1" s="29"/>
-      <c r="BY1" s="29"/>
-      <c r="BZ1" s="29"/>
-      <c r="CA1" s="29"/>
-      <c r="CC1" s="29" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AY1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
+      <c r="BO1" s="41"/>
+      <c r="BP1" s="41"/>
+      <c r="BQ1" s="41"/>
+      <c r="BS1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36"/>
+      <c r="CU1" s="36"/>
+      <c r="CW1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="36"/>
+      <c r="DN1" s="36"/>
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="36"/>
+      <c r="DS1" s="36"/>
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="23"/>
+    </row>
+    <row r="2" spans="1:135" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="29"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="23"/>
+      <c r="BY2" s="23"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="23"/>
+      <c r="CB2" s="23"/>
+      <c r="CC2" s="23"/>
+      <c r="CD2" s="23"/>
+      <c r="CE2" s="23"/>
+      <c r="CF2" s="23"/>
+      <c r="CG2" s="23"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="23"/>
+      <c r="CJ2" s="23"/>
+      <c r="CK2" s="23"/>
+      <c r="CL2" s="23"/>
+      <c r="CM2" s="23"/>
+      <c r="CN2" s="23"/>
+      <c r="CO2" s="23"/>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="23"/>
+      <c r="CU2" s="23"/>
+      <c r="DF2" s="24"/>
+      <c r="DI2" s="24"/>
+    </row>
+    <row r="3" spans="1:135" s="27" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="R3" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="AA3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AO3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+      <c r="AY3" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BJ3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK3" s="39"/>
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39"/>
+      <c r="BN3" s="39"/>
+      <c r="BO3" s="39"/>
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="39"/>
+      <c r="BS3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT3" s="39"/>
+      <c r="BU3" s="39"/>
+      <c r="BV3" s="39"/>
+      <c r="BW3" s="39"/>
+      <c r="BX3" s="39"/>
+      <c r="BY3" s="39"/>
+      <c r="CA3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="CB3" s="39"/>
+      <c r="CC3" s="39"/>
+      <c r="CD3" s="39"/>
+      <c r="CE3" s="39"/>
+      <c r="CF3" s="39"/>
+      <c r="CG3" s="39"/>
+      <c r="CH3" s="39"/>
+      <c r="CI3" s="39"/>
+      <c r="CJ3" s="39"/>
+      <c r="CK3" s="28"/>
+      <c r="CL3" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM3" s="39"/>
+      <c r="CN3" s="39"/>
+      <c r="CO3" s="39"/>
+      <c r="CP3" s="39"/>
+      <c r="CQ3" s="39"/>
+      <c r="CR3" s="39"/>
+      <c r="CS3" s="39"/>
+      <c r="CT3" s="39"/>
+      <c r="CU3" s="39"/>
+      <c r="CW3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
-      <c r="CJ1" s="29"/>
-      <c r="CK1" s="29"/>
-      <c r="CL1" s="29"/>
-      <c r="CM1" s="29"/>
-      <c r="CN1" s="29"/>
-      <c r="CO1" s="29"/>
-      <c r="CP1" s="29"/>
-      <c r="CQ1" s="29"/>
-      <c r="CR1" s="29"/>
-      <c r="CS1" s="29"/>
-      <c r="CT1" s="29"/>
-      <c r="CU1" s="29"/>
-      <c r="CV1" s="29"/>
-      <c r="CW1" s="29"/>
+      <c r="CX3" s="39"/>
+      <c r="CY3" s="39"/>
+      <c r="CZ3" s="39"/>
+      <c r="DA3" s="39"/>
+      <c r="DB3" s="39"/>
+      <c r="DD3" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="DE3" s="38"/>
+      <c r="DF3" s="38"/>
+      <c r="DH3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="DI3" s="38"/>
+      <c r="DK3" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL3" s="39"/>
+      <c r="DM3" s="39"/>
+      <c r="DN3" s="39"/>
+      <c r="DO3" s="39"/>
+      <c r="DP3" s="39"/>
+      <c r="DQ3" s="39"/>
+      <c r="DR3" s="39"/>
+      <c r="DS3" s="39"/>
+      <c r="DT3" s="39"/>
+      <c r="DU3" s="26"/>
+      <c r="DW3" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="DX3" s="39"/>
+      <c r="DY3" s="39"/>
+      <c r="DZ3" s="39"/>
+      <c r="EA3" s="39"/>
+      <c r="EB3" s="39"/>
+      <c r="EC3" s="39"/>
+      <c r="ED3" s="39"/>
+      <c r="EE3" s="39"/>
     </row>
-    <row r="2" spans="1:101" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="30"/>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CL2" s="31"/>
-      <c r="CO2" s="31"/>
+    <row r="4" spans="1:135" s="5" customFormat="1" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="R4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
     </row>
-    <row r="3" spans="1:101" s="35" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="R3" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="AA3" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AO3" s="34" t="s">
+    <row r="5" spans="1:135" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="42">
+        <v>41455</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42">
+        <v>41639</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="S5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="W5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="AB5" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AP5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AY3" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="34"/>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="34"/>
-      <c r="BG3" s="34" t="s">
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AY5" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA5" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH5" s="53"/>
+      <c r="BJ5" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL5" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM5" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN5" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO5" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP5" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="BH3" s="34"/>
-      <c r="BI3" s="34"/>
-      <c r="BJ3" s="34"/>
-      <c r="BK3" s="34"/>
-      <c r="BL3" s="34"/>
-      <c r="BM3" s="34"/>
-      <c r="BN3" s="34"/>
-      <c r="BO3" s="34"/>
-      <c r="BP3" s="34"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="34" t="s">
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="CA5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37"/>
+      <c r="CI5" s="37"/>
+      <c r="CJ5" s="37"/>
+      <c r="CM5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="BS3" s="34"/>
-      <c r="BT3" s="34"/>
-      <c r="BU3" s="34"/>
-      <c r="BV3" s="34"/>
-      <c r="BW3" s="34"/>
-      <c r="BX3" s="34"/>
-      <c r="BY3" s="34"/>
-      <c r="BZ3" s="34"/>
-      <c r="CA3" s="34"/>
-      <c r="CC3" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="CD3" s="34"/>
-      <c r="CE3" s="34"/>
-      <c r="CF3" s="34"/>
-      <c r="CG3" s="34"/>
-      <c r="CH3" s="34"/>
-      <c r="CJ3" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="CK3" s="45"/>
-      <c r="CL3" s="45"/>
-      <c r="CN3" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="CO3" s="45"/>
+      <c r="CN5" s="37"/>
+      <c r="CO5" s="37"/>
+      <c r="CP5" s="37"/>
+      <c r="CQ5" s="37"/>
+      <c r="CR5" s="37"/>
+      <c r="CS5" s="37"/>
+      <c r="CT5" s="37"/>
+      <c r="CU5" s="37"/>
+      <c r="CX5" s="42">
+        <v>41455</v>
+      </c>
+      <c r="CY5" s="42"/>
+      <c r="CZ5" s="42"/>
+      <c r="DA5" s="42"/>
+      <c r="DB5" s="30">
+        <v>41639</v>
+      </c>
+      <c r="DF5" s="31"/>
+      <c r="DI5" s="31"/>
     </row>
-    <row r="4" spans="1:101" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="R4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="CJ4" s="45"/>
-      <c r="CK4" s="45"/>
-      <c r="CL4" s="45"/>
-      <c r="CN4" s="45"/>
-      <c r="CO4" s="45"/>
-    </row>
-    <row r="5" spans="1:101" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I5" s="4">
-        <v>41455</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>41639</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="AB5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3" t="s">
+    <row r="6" spans="1:135" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AP5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AZ5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BG5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="5"/>
-      <c r="BS5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BT5" s="3"/>
-      <c r="BU5" s="3"/>
-      <c r="BV5" s="3"/>
-      <c r="BW5" s="3"/>
-      <c r="BX5" s="3"/>
-      <c r="BY5" s="3"/>
-      <c r="BZ5" s="3"/>
-      <c r="CA5" s="3"/>
-      <c r="CD5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="CE5" s="3"/>
-      <c r="CF5" s="3"/>
-      <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
-      <c r="CI5" s="5"/>
-      <c r="CL5" s="40"/>
-      <c r="CO5" s="40"/>
-    </row>
-    <row r="6" spans="1:101" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="V6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="X6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6" s="7" t="s">
+      <c r="Y6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA6" s="7" t="str" cm="1">
+      <c r="AA6" s="3" t="str" cm="1">
         <f t="array" ref="AA6:AE9">_xlfn.PIVOTBY(B7:B13,F7:F13,R7:R13,_xleta.SUM,,,-1,,-1)</f>
         <v/>
       </c>
-      <c r="AB6" s="7" t="str">
+      <c r="AB6" s="3" t="str">
         <v>Short</v>
       </c>
-      <c r="AC6" s="7" t="str">
+      <c r="AC6" s="3" t="str">
         <v>Mid</v>
       </c>
-      <c r="AD6" s="7" t="str">
+      <c r="AD6" s="3" t="str">
         <v>Long</v>
       </c>
-      <c r="AE6" s="7" t="str">
+      <c r="AE6" s="3" t="str">
         <v>Total</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AF6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AH6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI6" s="7" t="s">
+      <c r="AI6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="7" t="s">
+      <c r="AJ6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AK6" s="7" t="s">
+      <c r="AL6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AL6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM6" s="7" t="s">
+      <c r="AM6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7" t="s">
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AR6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AR6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS6" s="7" t="s">
+      <c r="AS6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AT6" s="7" t="s">
+      <c r="AT6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="7" t="s">
+      <c r="AV6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AV6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW6" s="7" t="s">
+      <c r="AW6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AY6" s="7" t="s">
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE6" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF6" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG6" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH6" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="46"/>
+      <c r="BM6" s="46"/>
+      <c r="BN6" s="46"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="46"/>
+      <c r="BQ6" s="46"/>
+      <c r="BS6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AZ6" s="7" t="s">
+      <c r="BT6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BA6" s="7" t="s">
+      <c r="BV6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BB6" s="7" t="s">
+      <c r="BW6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BC6" s="7" t="s">
+      <c r="BX6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="7" t="s">
+      <c r="BY6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BE6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI6" s="7" t="s">
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BJ6" s="7" t="s">
+      <c r="CE6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BK6" s="7" t="s">
+      <c r="CF6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BL6" s="7" t="s">
+      <c r="CG6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BM6" s="7" t="s">
+      <c r="CH6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BN6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BO6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BP6" s="7" t="s">
+      <c r="CI6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CJ6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BQ6" s="5"/>
-      <c r="BR6" s="7"/>
-      <c r="BS6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="BT6" s="7" t="s">
+      <c r="CL6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BU6" s="7" t="s">
+      <c r="CP6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BV6" s="7" t="s">
+      <c r="CQ6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BW6" s="7" t="s">
+      <c r="CR6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BX6" s="7" t="s">
+      <c r="CS6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BY6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BZ6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="CA6" s="7" t="s">
+      <c r="CT6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CU6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CC6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="CD6" s="39" t="s">
+      <c r="CW6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CX6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="CE6" s="39" t="s">
+      <c r="CZ6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DA6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="CF6" s="39" t="s">
+      <c r="DB6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="DD6" s="4"/>
+      <c r="DE6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="DI6" s="31"/>
+      <c r="DK6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="DM6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="DO6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="DQ6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="CG6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="CH6" s="39">
-        <v>41639</v>
-      </c>
-      <c r="CJ6" s="39"/>
-      <c r="CK6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="CL6" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="CO6" s="40"/>
+      <c r="DS6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="DT6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="DV6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="DX6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="DY6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="DZ6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EA6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="EB6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="EC6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="ED6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="EE6" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="str" cm="1">
+    <row r="7" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str" cm="1">
         <f t="array" ref="A7:A13">B7:B13&amp;" "&amp;TEXT(C7:C13,"0%")&amp;" "&amp;TEXT(D7:D13,"DD MMM YYYY")</f>
         <v>Government 5% 30 Jun 2018</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8">
         <v>0.05</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>43281</v>
       </c>
-      <c r="E7" s="13" cm="1">
+      <c r="E7" s="10" cm="1">
         <f t="array" ref="E7:E13">ROUND((D7:D13-I5)/365,0)</f>
         <v>5</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7">
         <v>4.42</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>22.99</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>3.78E-2</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>105.5</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="12">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="7">
         <v>99.33</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N7" s="17" cm="1">
+      <c r="N7" s="14" cm="1">
         <f t="array" ref="N7:N13">L7:L13/J7:J13-1</f>
         <v>-5.8483412322274941E-2</v>
       </c>
-      <c r="O7" s="17" cm="1">
+      <c r="O7" s="14" cm="1">
         <f t="array" ref="O7:O13">M7:M13*100/J7:J13</f>
         <v>2.3696682464454975E-2</v>
       </c>
-      <c r="P7" s="17" cm="1">
+      <c r="P7" s="14" cm="1">
         <f t="array" ref="P7:P13">_xlfn.ANCHORARRAY(N7)+_xlfn.ANCHORARRAY(O7)</f>
         <v>-3.478672985781997E-2</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="8">
         <v>0.1</v>
       </c>
-      <c r="S7" s="18" cm="1">
+      <c r="S7" s="15" cm="1">
         <f t="array" ref="S7:T13">R7:R13*G7:H13</f>
         <v>0.442</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="15">
         <v>2.2989999999999999</v>
       </c>
-      <c r="U7" s="17" cm="1">
+      <c r="U7" s="14" cm="1">
         <f t="array" ref="U7:U13">R7:R13*P7:P13</f>
         <v>-3.4786729857819972E-3</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="8">
         <v>0.2</v>
       </c>
-      <c r="W7" s="18" cm="1">
+      <c r="W7" s="15" cm="1">
         <f t="array" ref="W7:X13">V7:V13*G7:H13</f>
         <v>0.88400000000000001</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="15">
         <v>4.5979999999999999</v>
       </c>
-      <c r="Y7" s="17" cm="1">
+      <c r="Y7" s="14" cm="1">
         <f t="array" ref="Y7:Y13">V7:V13*P7:P13</f>
         <v>-6.9573459715639944E-3</v>
       </c>
       <c r="AA7" s="1" t="str">
         <v>Government</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="AB7" s="17">
         <v>0.1</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AC7" s="17">
         <v>0.1</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AD7" s="17">
         <v>0.2</v>
       </c>
-      <c r="AE7" s="20">
+      <c r="AE7" s="17">
         <v>0.4</v>
       </c>
-      <c r="AF7" s="18" cm="1">
+      <c r="AF7" s="15" cm="1">
         <f t="array" ref="AF7">SUM(IF(($B$7:$B$13=$AA7)*($F$7:$F$13=AB$6),$G$7:$G$13*$R$7:$R$13))</f>
         <v>0.442</v>
       </c>
-      <c r="AG7" s="18" cm="1">
+      <c r="AG7" s="15" cm="1">
         <f t="array" ref="AG7">SUM(IF(($B$7:$B$13=$AA7)*($F$7:$F$13=AC$6),$G$7:$G$13*$R$7:$R$13))</f>
         <v>0.747</v>
       </c>
-      <c r="AH7" s="18" cm="1">
+      <c r="AH7" s="15" cm="1">
         <f t="array" ref="AH7">SUM(IF(($B$7:$B$13=$AA7)*($F$7:$F$13=AD$6),$G$7:$G$13*$R$7:$R$13))</f>
         <v>2.0420000000000003</v>
       </c>
-      <c r="AI7" s="18" cm="1">
+      <c r="AI7" s="15" cm="1">
         <f t="array" ref="AI7">SUM(IF($B$7:$B$13=$AA7,$G$7:$G$13*$R$7:$R$13))</f>
         <v>3.2310000000000003</v>
       </c>
-      <c r="AJ7" s="18" cm="1">
+      <c r="AJ7" s="15" cm="1">
         <f t="array" ref="AJ7:AM9">AF7:AI9/AB7:AE9</f>
         <v>4.42</v>
       </c>
-      <c r="AK7" s="18">
+      <c r="AK7" s="15">
         <v>7.47</v>
       </c>
-      <c r="AL7" s="18">
+      <c r="AL7" s="15">
         <v>10.210000000000001</v>
       </c>
-      <c r="AM7" s="18">
+      <c r="AM7" s="15">
         <v>8.0775000000000006</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP7" s="17" cm="1">
+        <v>19</v>
+      </c>
+      <c r="AP7" s="14" cm="1">
         <f t="array" ref="AP7">SUM(IF(($B$7:$B$13=$AO7)*($F$7:$F$13=AP$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-3.4786729857819972E-3</v>
       </c>
-      <c r="AQ7" s="17" cm="1">
+      <c r="AQ7" s="14" cm="1">
         <f t="array" ref="AQ7">SUM(IF(($B$7:$B$13=$AO7)*($F$7:$F$13=AQ$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-5.1603330310774119E-3</v>
       </c>
-      <c r="AR7" s="17" cm="1">
+      <c r="AR7" s="14" cm="1">
         <f t="array" ref="AR7">SUM(IF(($B$7:$B$13=$AO7)*($F$7:$F$13=AR$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-8.7481410200332382E-3</v>
       </c>
-      <c r="AS7" s="17" cm="1">
+      <c r="AS7" s="14" cm="1">
         <f t="array" ref="AS7">SUM(IF($B$7:$B$13=$AO7,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-1.7387147036892647E-2</v>
       </c>
-      <c r="AT7" s="17" cm="1">
+      <c r="AT7" s="14" cm="1">
         <f t="array" ref="AT7:AW9">AP7:AS9/AB7:AE9</f>
         <v>-3.478672985781997E-2</v>
       </c>
-      <c r="AU7" s="17">
+      <c r="AU7" s="14">
         <v>-5.1603330310774118E-2</v>
       </c>
-      <c r="AV7" s="17">
+      <c r="AV7" s="14">
         <v>-4.3740705100166186E-2</v>
       </c>
-      <c r="AW7" s="17">
+      <c r="AW7" s="14">
         <v>-4.3467867592231618E-2</v>
       </c>
-      <c r="AY7" s="1" t="str" cm="1">
-        <f t="array" ref="AY7:AY13">_xlfn.ANCHORARRAY(A7)</f>
+      <c r="AY7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA7" s="17" cm="1">
+        <f t="array" ref="BA7">SUM(IF((($B$7:$B$13=$AZ7)+($AZ7="Total"))*(($F$7:$F$13=$AY7)+($AY7="Total")),$R$7:$R$13))</f>
+        <v>0.1</v>
+      </c>
+      <c r="BB7" s="17" cm="1">
+        <f t="array" ref="BB7">SUM(IF((($B$7:$B$13=$AZ7)+($AZ7="Total"))*(($F$7:$F$13=$AY7)+($AY7="Total")),$V$7:$V$13))</f>
+        <v>0.2</v>
+      </c>
+      <c r="BC7" s="14" cm="1">
+        <f t="array" ref="BC7:BC18">_xlfn.TOCOL(TRANSPOSE(_xlfn.ANCHORARRAY(AT7)))</f>
+        <v>-3.478672985781997E-2</v>
+      </c>
+      <c r="BD7" s="14" cm="1">
+        <f t="array" ref="BD7:BD18">_xlfn.TOCOL(TRANSPOSE(_xlfn.ANCHORARRAY(AT15)))</f>
+        <v>-3.478672985781997E-2</v>
+      </c>
+      <c r="BE7" s="61" cm="1">
+        <f t="array" ref="BE7:BE18">_xlfn.TOCOL(TRANSPOSE(_xlfn.ANCHORARRAY(AJ7)))</f>
+        <v>4.42</v>
+      </c>
+      <c r="BF7" s="56" cm="1">
+        <f t="array" ref="BF7:BF18">_xlfn.TOCOL(TRANSPOSE(_xlfn.ANCHORARRAY(AJ15)))</f>
+        <v>4.42</v>
+      </c>
+      <c r="BJ7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BP7" s="14">
+        <f>BA7*(BC7-BD7)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="14" cm="1">
+        <f t="array" ref="BQ7:BQ15">_xlfn.BYROW(BN7:BP15,_xleta.SUM)</f>
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1" t="str" cm="1">
+        <f t="array" ref="BS7:BS13">_xlfn.ANCHORARRAY(A7)</f>
         <v>Government 5% 30 Jun 2018</v>
       </c>
-      <c r="AZ7" s="32">
+      <c r="BT7" s="25">
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="BA7" s="32">
+      <c r="BU7" s="25">
         <v>0.01</v>
       </c>
-      <c r="BB7" s="32">
+      <c r="BV7" s="25">
         <v>2.3E-3</v>
       </c>
-      <c r="BC7" s="32">
+      <c r="BW7" s="25">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="BD7" s="32">
+      <c r="BX7" s="25">
         <v>0</v>
       </c>
-      <c r="BE7" s="32">
+      <c r="BY7" s="25">
         <v>0</v>
       </c>
-      <c r="BG7" s="1" t="str" cm="1">
-        <f t="array" ref="BG7:BG13">_xlfn.ANCHORARRAY(A7)</f>
+      <c r="CA7" s="1" t="str" cm="1">
+        <f t="array" ref="CA7:CA13">_xlfn.ANCHORARRAY(A7)</f>
         <v>Government 5% 30 Jun 2018</v>
       </c>
-      <c r="BH7" s="17" cm="1">
-        <f t="array" ref="BH7:BH13">I7:I13*(DATE(2013,12,31)-DATE(2013,6,30))/365</f>
+      <c r="CB7" s="14" cm="1">
+        <f t="array" ref="CB7:CB13">I7:I13*(DATE(2013,12,31)-DATE(2013,6,30))/365</f>
         <v>1.9055342465753425E-2</v>
       </c>
-      <c r="BI7" s="17" cm="1">
-        <f t="array" ref="BI7:BN13">-G7:G13*AZ7:BE13+0.5*H7:H13*AZ7:BE13^2</f>
+      <c r="CC7" s="14" cm="1">
+        <f t="array" ref="CC7:CH13">-G7:G13*BT7:BY13+0.5*H7:H13*BT7:BY13^2</f>
         <v>3.9873109499999997E-3</v>
       </c>
-      <c r="BJ7" s="17">
+      <c r="CD7" s="14">
         <v>-4.3050500000000005E-2</v>
       </c>
-      <c r="BK7" s="17">
+      <c r="CE7" s="14">
         <v>-1.010519145E-2</v>
       </c>
-      <c r="BL7" s="17">
+      <c r="CF7" s="14">
         <v>-1.0978156250000001E-2</v>
       </c>
-      <c r="BM7" s="17">
+      <c r="CG7" s="14">
         <v>0</v>
       </c>
-      <c r="BN7" s="17">
+      <c r="CH7" s="14">
         <v>0</v>
       </c>
-      <c r="BO7" s="17" cm="1">
-        <f t="array" ref="BO7:BO13">BP7:BP13-_xlfn.BYROW(BH7:BN13,_xleta.SUM)</f>
+      <c r="CI7" s="14" cm="1">
+        <f t="array" ref="CI7:CI13">CJ7:CJ13-_xlfn.BYROW(CB7:CH13,_xleta.SUM)</f>
         <v>6.304464426426612E-3</v>
       </c>
-      <c r="BP7" s="17" cm="1">
-        <f t="array" ref="BP7:BP13">_xlfn.ANCHORARRAY(P7)</f>
+      <c r="CJ7" s="14" cm="1">
+        <f t="array" ref="CJ7:CJ13">_xlfn.ANCHORARRAY(P7)</f>
         <v>-3.478672985781997E-2</v>
       </c>
-      <c r="BQ7" s="17"/>
-      <c r="BR7" s="1" t="str" cm="1">
-        <f t="array" ref="BR7:BR13">_xlfn.ANCHORARRAY(A7)</f>
+      <c r="CK7" s="14"/>
+      <c r="CL7" s="1" t="str" cm="1">
+        <f t="array" ref="CL7:CL13">_xlfn.ANCHORARRAY(A7)</f>
         <v>Government 5% 30 Jun 2018</v>
       </c>
-      <c r="BS7" s="17" cm="1">
-        <f t="array" ref="BS7:CA13">(R7:R13-V7:V13)*BH7:BP13</f>
+      <c r="CM7" s="14" cm="1">
+        <f t="array" ref="CM7:CU13">(R7:R13-V7:V13)*CB7:CJ13</f>
         <v>-1.9055342465753426E-3</v>
       </c>
-      <c r="BT7" s="17">
+      <c r="CN7" s="14">
         <v>-3.9873109499999999E-4</v>
       </c>
-      <c r="BU7" s="17">
+      <c r="CO7" s="14">
         <v>4.3050500000000004E-3</v>
       </c>
-      <c r="BV7" s="17">
+      <c r="CP7" s="14">
         <v>1.0105191450000002E-3</v>
       </c>
-      <c r="BW7" s="17">
+      <c r="CQ7" s="14">
         <v>1.0978156250000001E-3</v>
       </c>
-      <c r="BX7" s="17">
+      <c r="CR7" s="14">
         <v>0</v>
       </c>
-      <c r="BY7" s="17">
+      <c r="CS7" s="14">
         <v>0</v>
       </c>
-      <c r="BZ7" s="17">
+      <c r="CT7" s="14">
         <v>-6.3044644264266124E-4</v>
       </c>
-      <c r="CA7" s="17">
+      <c r="CU7" s="14">
         <v>3.4786729857819972E-3</v>
       </c>
-      <c r="CC7" s="1">
+      <c r="CW7" s="1">
         <v>1</v>
       </c>
-      <c r="CD7" s="15">
+      <c r="CX7" s="12">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="CE7" s="32">
+      <c r="CY7" s="25">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="CF7" s="32">
+      <c r="CZ7" s="25">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="CG7" s="32">
+      <c r="DA7" s="25">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="CH7" s="32">
+      <c r="DB7" s="25">
         <v>3.85E-2</v>
       </c>
-      <c r="CJ7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CK7" s="18" cm="1">
-        <f t="array" ref="CK7">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2)/($E$10*2))*100+$M$10*100)*(1+$CD$7:$CD$16/2)^-$CC$7:$CC$16)</f>
+      <c r="DD7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DE7" s="15" cm="1">
+        <f t="array" ref="DE7">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2)/($E$10*2))*100+$M$10*100)*(1+$CX$7:$CX$16/2)^-$CW$7:$CW$16)</f>
         <v>103.19974147561445</v>
       </c>
-      <c r="CN7" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="CO7" s="44">
-        <f>SUM(CO8:CO10)</f>
+      <c r="DH7" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="DI7" s="35">
+        <f>SUM(DI8:DI10)</f>
         <v>2.5171632906759854E-2</v>
       </c>
+      <c r="DK7" s="1" t="str" cm="1">
+        <f t="array" ref="DK7:DK13">_xlfn.ANCHORARRAY(A7)</f>
+        <v>Government 5% 30 Jun 2018</v>
+      </c>
+      <c r="DL7" s="65">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="DM7" s="65">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="DN7" s="65">
+        <v>4.3E-3</v>
+      </c>
+      <c r="DO7" s="65">
+        <v>-3.9199999999999999E-2</v>
+      </c>
+      <c r="DP7" s="65">
+        <v>-8.6E-3</v>
+      </c>
+      <c r="DQ7" s="65">
+        <v>-9.5999999999999992E-3</v>
+      </c>
+      <c r="DR7" s="65"/>
+      <c r="DS7" s="65"/>
+      <c r="DT7" s="64" cm="1">
+        <f t="array" ref="DT7:DT13">_xlfn.BYROW(DL7:DS13,_xleta.SUM)</f>
+        <v>-3.4700000000000002E-2</v>
+      </c>
+      <c r="DU7" s="64"/>
+      <c r="DV7" s="1" t="str" cm="1">
+        <f t="array" ref="DV7:DV13">_xlfn.ANCHORARRAY(A7)</f>
+        <v>Government 5% 30 Jun 2018</v>
+      </c>
+      <c r="DW7" s="14" cm="1">
+        <f t="array" ref="DW7:EE13">(R7:R13-V7:V13)*DL7:DT13</f>
+        <v>-2.3700000000000001E-3</v>
+      </c>
+      <c r="DX7" s="14">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="DY7" s="14">
+        <v>-4.3000000000000004E-4</v>
+      </c>
+      <c r="DZ7" s="14">
+        <v>3.9199999999999999E-3</v>
+      </c>
+      <c r="EA7" s="14">
+        <v>8.6000000000000009E-4</v>
+      </c>
+      <c r="EB7" s="14">
+        <v>9.5999999999999992E-4</v>
+      </c>
+      <c r="EC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="14">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="14">
+        <v>3.4700000000000004E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="str">
+    <row r="8" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
         <v>Government 7% 30 Jun 2023</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>45107</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7">
         <v>7.47</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>69.31</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="12">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="11">
         <v>121.31</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="12">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="7">
         <v>111.55</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="14">
         <v>-8.0455032561206896E-2</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="14">
         <v>2.8851702250432779E-2</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="14">
         <v>-5.1603330310774118E-2</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="8">
         <v>0.1</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="15">
         <v>0.747</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="15">
         <v>6.9310000000000009</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="14">
         <v>-5.1603330310774119E-3</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="8">
         <v>0.2</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="15">
         <v>1.494</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="15">
         <v>13.862000000000002</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="14">
         <v>-1.0320666062154824E-2</v>
       </c>
       <c r="AA8" s="1" t="str">
         <v>Corporate</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="17">
         <v>0.1</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AC8" s="17">
         <v>0.2</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AD8" s="17">
         <v>0.3</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="AE8" s="17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="AF8" s="18" cm="1">
+      <c r="AF8" s="15" cm="1">
         <f t="array" ref="AF8">SUM(IF(($B$7:$B$13=$AA8)*($F$7:$F$13=AB$6),$G$7:$G$13*$R$7:$R$13))</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="AG8" s="18" cm="1">
+      <c r="AG8" s="15" cm="1">
         <f t="array" ref="AG8">SUM(IF(($B$7:$B$13=$AA8)*($F$7:$F$13=AC$6),$G$7:$G$13*$R$7:$R$13))</f>
         <v>1.4800000000000002</v>
       </c>
-      <c r="AH8" s="18" cm="1">
+      <c r="AH8" s="15" cm="1">
         <f t="array" ref="AH8">SUM(IF(($B$7:$B$13=$AA8)*($F$7:$F$13=AD$6),$G$7:$G$13*$R$7:$R$13))</f>
         <v>3.0180000000000002</v>
       </c>
-      <c r="AI8" s="18" cm="1">
+      <c r="AI8" s="15" cm="1">
         <f t="array" ref="AI8">SUM(IF($B$7:$B$13=$AA8,$G$7:$G$13*$R$7:$R$13))</f>
         <v>4.9380000000000006</v>
       </c>
-      <c r="AJ8" s="18">
+      <c r="AJ8" s="15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AK8" s="18">
+      <c r="AK8" s="15">
         <v>7.4</v>
       </c>
-      <c r="AL8" s="18">
+      <c r="AL8" s="15">
         <v>10.06</v>
       </c>
-      <c r="AM8" s="18">
+      <c r="AM8" s="15">
         <v>8.23</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP8" s="17" cm="1">
+        <v>20</v>
+      </c>
+      <c r="AP8" s="14" cm="1">
         <f t="array" ref="AP8">SUM(IF(($B$7:$B$13=$AO8)*($F$7:$F$13=AP$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-4.3313953488372126E-3</v>
       </c>
-      <c r="AQ8" s="17" cm="1">
+      <c r="AQ8" s="14" cm="1">
         <f t="array" ref="AQ8">SUM(IF(($B$7:$B$13=$AO8)*($F$7:$F$13=AQ$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-1.2282952698657069E-2</v>
       </c>
-      <c r="AR8" s="17" cm="1">
+      <c r="AR8" s="14" cm="1">
         <f t="array" ref="AR8">SUM(IF(($B$7:$B$13=$AO8)*($F$7:$F$13=AR$6),_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-1.624977009380172E-2</v>
       </c>
-      <c r="AS8" s="17" cm="1">
+      <c r="AS8" s="14" cm="1">
         <f t="array" ref="AS8">SUM(IF($B$7:$B$13=$AO8,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-3.2864118141296E-2</v>
       </c>
-      <c r="AT8" s="17">
+      <c r="AT8" s="14">
         <v>-4.3313953488372123E-2</v>
       </c>
-      <c r="AU8" s="17">
+      <c r="AU8" s="14">
         <v>-6.1414763493285347E-2</v>
       </c>
-      <c r="AV8" s="17">
+      <c r="AV8" s="14">
         <v>-5.4165900312672405E-2</v>
       </c>
-      <c r="AW8" s="17">
+      <c r="AW8" s="14">
         <v>-5.4773530235493327E-2</v>
       </c>
-      <c r="AY8" s="1" t="str">
+      <c r="AY8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA8" s="17" cm="1">
+        <f t="array" ref="BA8">SUM(IF((($B$7:$B$13=$AZ8)+($AZ8="Total"))*(($F$7:$F$13=$AY8)+($AY8="Total")),$R$7:$R$13))</f>
+        <v>0.1</v>
+      </c>
+      <c r="BB8" s="17" cm="1">
+        <f t="array" ref="BB8">SUM(IF((($B$7:$B$13=$AZ8)+($AZ8="Total"))*(($F$7:$F$13=$AY8)+($AY8="Total")),$V$7:$V$13))</f>
+        <v>0.15</v>
+      </c>
+      <c r="BC8" s="14">
+        <v>-4.3313953488372123E-2</v>
+      </c>
+      <c r="BD8" s="14">
+        <v>-4.3313953488372123E-2</v>
+      </c>
+      <c r="BE8" s="61">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BF8" s="61">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14">
+        <f>(BA8-BB8)*(BD8-BD7)</f>
+        <v>4.2636118152760755E-4</v>
+      </c>
+      <c r="BP8" s="14">
+        <f>BA8*(BC8-BD8)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="14">
+        <v>4.2636118152760755E-4</v>
+      </c>
+      <c r="BS8" s="1" t="str">
         <v>Government 7% 30 Jun 2023</v>
       </c>
-      <c r="AZ8" s="32">
+      <c r="BT8" s="25">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="BA8" s="32">
+      <c r="BU8" s="25">
         <v>0.01</v>
       </c>
-      <c r="BB8" s="32">
+      <c r="BV8" s="25">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="BC8" s="32">
+      <c r="BW8" s="25">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="BD8" s="32">
+      <c r="BX8" s="25">
         <v>0</v>
       </c>
-      <c r="BE8" s="32">
+      <c r="BY8" s="25">
         <v>0</v>
       </c>
-      <c r="BG8" s="1" t="str">
+      <c r="CA8" s="1" t="str">
         <v>Government 7% 30 Jun 2023</v>
       </c>
-      <c r="BH8" s="17">
+      <c r="CB8" s="14">
         <v>2.192876712328767E-2</v>
       </c>
-      <c r="BI8" s="17">
+      <c r="CC8" s="14">
         <v>2.9935448000000002E-3</v>
       </c>
-      <c r="BJ8" s="17">
+      <c r="CD8" s="14">
         <v>-7.1234500000000006E-2</v>
       </c>
-      <c r="BK8" s="17">
+      <c r="CE8" s="14">
         <v>-4.4695242E-3</v>
       </c>
-      <c r="BL8" s="17">
+      <c r="CF8" s="14">
         <v>-4.4695242E-3</v>
       </c>
-      <c r="BM8" s="17">
+      <c r="CG8" s="14">
         <v>0</v>
       </c>
-      <c r="BN8" s="17">
+      <c r="CH8" s="14">
         <v>0</v>
       </c>
-      <c r="BO8" s="17">
+      <c r="CI8" s="14">
         <v>3.6479061659382139E-3</v>
       </c>
-      <c r="BP8" s="17">
+      <c r="CJ8" s="14">
         <v>-5.1603330310774118E-2</v>
       </c>
-      <c r="BQ8" s="17"/>
-      <c r="BR8" s="1" t="str">
+      <c r="CK8" s="14"/>
+      <c r="CL8" s="1" t="str">
         <v>Government 7% 30 Jun 2023</v>
       </c>
-      <c r="BS8" s="17">
+      <c r="CM8" s="14">
         <v>-2.192876712328767E-3</v>
       </c>
-      <c r="BT8" s="17">
+      <c r="CN8" s="14">
         <v>-2.9935448000000003E-4</v>
       </c>
-      <c r="BU8" s="17">
+      <c r="CO8" s="14">
         <v>7.1234500000000008E-3</v>
       </c>
-      <c r="BV8" s="17">
+      <c r="CP8" s="14">
         <v>4.4695242000000003E-4</v>
       </c>
-      <c r="BW8" s="17">
+      <c r="CQ8" s="14">
         <v>4.4695242000000003E-4</v>
       </c>
-      <c r="BX8" s="17">
+      <c r="CR8" s="14">
         <v>0</v>
       </c>
-      <c r="BY8" s="17">
+      <c r="CS8" s="14">
         <v>0</v>
       </c>
-      <c r="BZ8" s="17">
+      <c r="CT8" s="14">
         <v>-3.6479061659382139E-4</v>
       </c>
-      <c r="CA8" s="17">
+      <c r="CU8" s="14">
         <v>5.1603330310774119E-3</v>
       </c>
-      <c r="CC8" s="1">
+      <c r="CW8" s="1">
         <v>2</v>
       </c>
-      <c r="CD8" s="15">
+      <c r="CX8" s="12">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="CE8" s="32">
+      <c r="CY8" s="25">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="CF8" s="32">
+      <c r="CZ8" s="25">
         <v>4.2130000000000001E-2</v>
       </c>
-      <c r="CG8" s="32">
+      <c r="DA8" s="25">
         <v>4.4130000000000003E-2</v>
       </c>
-      <c r="CH8" s="32">
+      <c r="DB8" s="25">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="CJ8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="CK8" s="18" cm="1">
-        <f t="array" ref="CK8">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+$CD$8:$CD$16/2)^-$CC$7:$CC$15)</f>
+      <c r="DD8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="DE8" s="15" cm="1">
+        <f t="array" ref="DE8">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+$CX$8:$CX$16/2)^-$CW$7:$CW$15)</f>
         <v>102.85016958158496</v>
       </c>
-      <c r="CL8" s="17">
-        <f>(CK8-CK7)/CK$7</f>
+      <c r="DF8" s="14">
+        <f>(DE8-DE7)/DE$7</f>
         <v>-3.3873330400937367E-3</v>
       </c>
-      <c r="CN8" s="1" t="s">
+      <c r="DH8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CO8" s="17">
-        <f>CL16</f>
+      <c r="DI8" s="14">
+        <f>DF16</f>
         <v>2.4224866886810338E-2</v>
       </c>
+      <c r="DK8" s="1" t="str">
+        <v>Government 7% 30 Jun 2023</v>
+      </c>
+      <c r="DL8" s="65">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="DM8" s="65">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="DN8" s="65">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="DO8" s="65">
+        <v>-6.8099999999999994E-2</v>
+      </c>
+      <c r="DP8" s="65">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="DQ8" s="65">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="DR8" s="65"/>
+      <c r="DS8" s="65"/>
+      <c r="DT8" s="64">
+        <v>-5.1499999999999997E-2</v>
+      </c>
+      <c r="DU8" s="64"/>
+      <c r="DV8" s="1" t="str">
+        <v>Government 7% 30 Jun 2023</v>
+      </c>
+      <c r="DW8" s="14">
+        <v>-2.8900000000000002E-3</v>
+      </c>
+      <c r="DX8" s="14">
+        <v>8.5000000000000006E-4</v>
+      </c>
+      <c r="DY8" s="14">
+        <v>-4.4999999999999999E-4</v>
+      </c>
+      <c r="DZ8" s="14">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="EA8" s="14">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="EB8" s="14">
+        <v>4.4000000000000007E-4</v>
+      </c>
+      <c r="EC8" s="14">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="14">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="14">
+        <v>5.1500000000000001E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="str">
+    <row r="9" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
         <v>Government 6% 30 Jun 2028</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8">
         <v>0.06</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>46934</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>15</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="7">
         <v>10.210000000000001</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>134.44</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>114.31</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="12">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="7">
         <v>106.31</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="13">
         <v>0.03</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="14">
         <v>-6.9985128160265919E-2</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="14">
         <v>2.6244423060099727E-2</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="14">
         <v>-4.3740705100166193E-2</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="8">
         <v>0.2</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="15">
         <v>2.0420000000000003</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="15">
         <v>26.888000000000002</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="14">
         <v>-8.7481410200332382E-3</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="8">
         <v>0.15</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="15">
         <v>1.5315000000000001</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="15">
         <v>20.166</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="14">
         <v>-6.5611057650249291E-3</v>
       </c>
-      <c r="AA9" s="19" t="str">
+      <c r="AA9" s="16" t="str">
         <v>Total</v>
       </c>
-      <c r="AB9" s="28">
+      <c r="AB9" s="22">
         <v>0.2</v>
       </c>
-      <c r="AC9" s="28">
+      <c r="AC9" s="22">
         <v>0.30000000000000004</v>
       </c>
-      <c r="AD9" s="28">
+      <c r="AD9" s="22">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="28">
+      <c r="AE9" s="22">
         <v>1</v>
       </c>
-      <c r="AF9" s="27" cm="1">
+      <c r="AF9" s="19" cm="1">
         <f t="array" ref="AF9">SUM(IF($F$7:$F$13=AF$6,$G$7:$G$13*$R$7:$R$13))</f>
         <v>0.88200000000000012</v>
       </c>
-      <c r="AG9" s="27" cm="1">
+      <c r="AG9" s="19" cm="1">
         <f t="array" ref="AG9">SUM(IF($F$7:$F$13=AG$6,$G$7:$G$13*$R$7:$R$13))</f>
         <v>2.2270000000000003</v>
       </c>
-      <c r="AH9" s="27" cm="1">
+      <c r="AH9" s="19" cm="1">
         <f t="array" ref="AH9">SUM(IF($F$7:$F$13=AH$6,$G$7:$G$13*$R$7:$R$13))</f>
         <v>5.0600000000000005</v>
       </c>
-      <c r="AI9" s="27">
+      <c r="AI9" s="19">
         <f>SUMPRODUCT($G$7:$G$13,$R$7:$R$13)</f>
         <v>8.1690000000000005</v>
       </c>
-      <c r="AJ9" s="27">
+      <c r="AJ9" s="19">
         <v>4.41</v>
       </c>
-      <c r="AK9" s="27">
+      <c r="AK9" s="19">
         <v>7.4233333333333329</v>
       </c>
-      <c r="AL9" s="27">
+      <c r="AL9" s="19">
         <v>10.120000000000001</v>
       </c>
-      <c r="AM9" s="27">
+      <c r="AM9" s="19">
         <v>8.1690000000000005</v>
       </c>
-      <c r="AO9" s="19" t="s">
+      <c r="AO9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AP9" s="31" cm="1">
+      <c r="AP9" s="24" cm="1">
         <f t="array" ref="AP9">SUM(IF($F$7:$F$13=AP$6,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-7.8100683346192098E-3</v>
       </c>
-      <c r="AQ9" s="31" cm="1">
+      <c r="AQ9" s="24" cm="1">
         <f t="array" ref="AQ9">SUM(IF($F$7:$F$13=AQ$6,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-1.7443285729734481E-2</v>
       </c>
-      <c r="AR9" s="31" cm="1">
+      <c r="AR9" s="24" cm="1">
         <f t="array" ref="AR9">SUM(IF($F$7:$F$13=AR$6,_xlfn.ANCHORARRAY($P$7)*$R$7:$R$13))</f>
         <v>-2.499791111383496E-2</v>
       </c>
-      <c r="AS9" s="31">
+      <c r="AS9" s="24">
         <f>SUMPRODUCT(_xlfn.ANCHORARRAY($P$7),$R$7:$R$13)</f>
         <v>-5.0251265178188648E-2</v>
       </c>
-      <c r="AT9" s="31">
+      <c r="AT9" s="24">
         <v>-3.9050341673096046E-2</v>
       </c>
-      <c r="AU9" s="31">
+      <c r="AU9" s="24">
         <v>-5.8144285765781595E-2</v>
       </c>
-      <c r="AV9" s="31">
+      <c r="AV9" s="24">
         <v>-4.999582222766992E-2</v>
       </c>
-      <c r="AW9" s="31">
+      <c r="AW9" s="24">
         <v>-5.0251265178188648E-2</v>
       </c>
-      <c r="AY9" s="1" t="str">
+      <c r="AY9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA9" s="17" cm="1">
+        <f t="array" ref="BA9">SUM(IF((($B$7:$B$13=$AZ9)+($AZ9="Total"))*(($F$7:$F$13=$AY9)+($AY9="Total")),$R$7:$R$13))</f>
+        <v>0.2</v>
+      </c>
+      <c r="BB9" s="17" cm="1">
+        <f t="array" ref="BB9">SUM(IF((($B$7:$B$13=$AZ9)+($AZ9="Total"))*(($F$7:$F$13=$AY9)+($AY9="Total")),$V$7:$V$13))</f>
+        <v>0.35</v>
+      </c>
+      <c r="BC9" s="14">
+        <v>-3.9050341673096046E-2</v>
+      </c>
+      <c r="BD9" s="14">
+        <v>-3.8441254270913751E-2</v>
+      </c>
+      <c r="BE9" s="61">
+        <v>4.41</v>
+      </c>
+      <c r="BF9" s="61">
+        <v>4.4114285714285719</v>
+      </c>
+      <c r="BG9" s="60">
+        <f>($BD$16-0.15%)/$BF$16*$BE9+0.15%</f>
+        <v>-2.6321654813265104E-2</v>
+      </c>
+      <c r="BH9" s="60">
+        <f>($BD$16-0.15%)/$BF$16*$BF9+0.15%</f>
+        <v>-2.6330667335070505E-2</v>
+      </c>
+      <c r="BJ9" s="24"/>
+      <c r="BK9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL9" s="14">
+        <f>BA9*BG9-BB9*BH9</f>
+        <v>3.9514026046216545E-3</v>
+      </c>
+      <c r="BM9" s="14">
+        <f>BN9-BL9</f>
+        <v>1.26660687405134E-3</v>
+      </c>
+      <c r="BN9" s="14">
+        <f>(BA9-BB9)*BD7</f>
+        <v>5.2180094786729945E-3</v>
+      </c>
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="14">
+        <v>5.2180094786729945E-3</v>
+      </c>
+      <c r="BS9" s="1" t="str">
         <v>Government 6% 30 Jun 2028</v>
       </c>
-      <c r="AZ9" s="32">
+      <c r="BT9" s="25">
         <v>-2.0000000000000001E-4</v>
       </c>
-      <c r="BA9" s="32">
+      <c r="BU9" s="25">
         <v>0.01</v>
       </c>
-      <c r="BB9" s="32">
+      <c r="BV9" s="25">
         <v>-1E-3</v>
       </c>
-      <c r="BC9" s="32">
+      <c r="BW9" s="25">
         <v>-1.6999999999999999E-3</v>
       </c>
-      <c r="BD9" s="32">
+      <c r="BX9" s="25">
         <v>0</v>
       </c>
-      <c r="BE9" s="32">
+      <c r="BY9" s="25">
         <v>0</v>
       </c>
-      <c r="BG9" s="1" t="str">
+      <c r="CA9" s="1" t="str">
         <v>Government 6% 30 Jun 2028</v>
       </c>
-      <c r="BH9" s="17">
+      <c r="CB9" s="14">
         <v>2.3491506849315072E-2</v>
       </c>
-      <c r="BI9" s="17">
+      <c r="CC9" s="14">
         <v>2.0446888000000005E-3</v>
       </c>
-      <c r="BJ9" s="17">
+      <c r="CD9" s="14">
         <v>-9.5378000000000004E-2</v>
       </c>
-      <c r="BK9" s="17">
+      <c r="CE9" s="14">
         <v>1.027722E-2</v>
       </c>
-      <c r="BL9" s="17">
+      <c r="CF9" s="14">
         <v>1.75512658E-2</v>
       </c>
-      <c r="BM9" s="17">
+      <c r="CG9" s="14">
         <v>0</v>
       </c>
-      <c r="BN9" s="17">
+      <c r="CH9" s="14">
         <v>0</v>
       </c>
-      <c r="BO9" s="17">
+      <c r="CI9" s="14">
         <v>-1.7273865494812635E-3</v>
       </c>
-      <c r="BP9" s="17">
+      <c r="CJ9" s="14">
         <v>-4.3740705100166193E-2</v>
       </c>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="1" t="str">
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="1" t="str">
         <v>Government 6% 30 Jun 2028</v>
       </c>
-      <c r="BS9" s="17">
+      <c r="CM9" s="14">
         <v>1.1745753424657541E-3</v>
       </c>
-      <c r="BT9" s="17">
+      <c r="CN9" s="14">
         <v>1.0223444000000006E-4</v>
       </c>
-      <c r="BU9" s="17">
+      <c r="CO9" s="14">
         <v>-4.7689000000000021E-3</v>
       </c>
-      <c r="BV9" s="17">
+      <c r="CP9" s="14">
         <v>5.1386100000000022E-4</v>
       </c>
-      <c r="BW9" s="17">
+      <c r="CQ9" s="14">
         <v>8.7756329000000029E-4</v>
       </c>
-      <c r="BX9" s="17">
+      <c r="CR9" s="14">
         <v>0</v>
       </c>
-      <c r="BY9" s="17">
+      <c r="CS9" s="14">
         <v>0</v>
       </c>
-      <c r="BZ9" s="17">
+      <c r="CT9" s="14">
         <v>-8.6369327474063206E-5</v>
       </c>
-      <c r="CA9" s="17">
+      <c r="CU9" s="14">
         <v>-2.1870352550083104E-3</v>
       </c>
-      <c r="CC9" s="1">
+      <c r="CW9" s="1">
         <v>3</v>
       </c>
-      <c r="CD9" s="15">
+      <c r="CX9" s="12">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="CE9" s="32">
+      <c r="CY9" s="25">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="CF9" s="32">
+      <c r="CZ9" s="25">
         <v>4.607E-2</v>
       </c>
-      <c r="CG9" s="32">
+      <c r="DA9" s="25">
         <v>4.8070000000000002E-2</v>
       </c>
-      <c r="CH9" s="32">
+      <c r="DB9" s="25">
         <v>4.9100000000000005E-2</v>
       </c>
-      <c r="CJ9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="CK9" s="18" cm="1">
-        <f t="array" ref="CK9">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+$CD$7:$CD$15/2)^-$CC$7:$CC$15)</f>
+      <c r="DD9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE9" s="15" cm="1">
+        <f t="array" ref="DE9">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+$CX$7:$CX$15/2)^-$CW$7:$CW$15)</f>
         <v>103.29744748411113</v>
       </c>
-      <c r="CL9" s="17">
-        <f t="shared" ref="CL9:CL14" si="0">(CK9-CK8)/CK$7</f>
+      <c r="DF9" s="14">
+        <f t="shared" ref="DF9:DF14" si="0">(DE9-DE8)/DE$7</f>
         <v>4.3340990600432535E-3</v>
       </c>
-      <c r="CN9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CO9" s="17" cm="1">
-        <f t="array" ref="CO9:CO10">CL8:CL9</f>
+      <c r="DH9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="DI9" s="14" cm="1">
+        <f t="array" ref="DI9:DI10">DF8:DF9</f>
         <v>-3.3873330400937367E-3</v>
       </c>
+      <c r="DK9" s="1" t="str">
+        <v>Government 6% 30 Jun 2028</v>
+      </c>
+      <c r="DL9" s="65">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="DM9" s="65">
+        <v>-4.7999999999999996E-3</v>
+      </c>
+      <c r="DN9" s="65">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="DO9" s="65">
+        <v>-9.2499999999999999E-2</v>
+      </c>
+      <c r="DP9" s="65">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="DQ9" s="65">
+        <v>1.46E-2</v>
+      </c>
+      <c r="DR9" s="65"/>
+      <c r="DS9" s="65"/>
+      <c r="DT9" s="64">
+        <v>-4.3799999999999999E-2</v>
+      </c>
+      <c r="DU9" s="64"/>
+      <c r="DV9" s="1" t="str">
+        <v>Government 6% 30 Jun 2028</v>
+      </c>
+      <c r="DW9" s="14">
+        <v>1.3100000000000004E-3</v>
+      </c>
+      <c r="DX9" s="14">
+        <v>-2.4000000000000006E-4</v>
+      </c>
+      <c r="DY9" s="14">
+        <v>2.1000000000000006E-4</v>
+      </c>
+      <c r="DZ9" s="14">
+        <v>-4.6250000000000015E-3</v>
+      </c>
+      <c r="EA9" s="14">
+        <v>4.2500000000000019E-4</v>
+      </c>
+      <c r="EB9" s="14">
+        <v>7.3000000000000029E-4</v>
+      </c>
+      <c r="EC9" s="14">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="14">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="14">
+        <v>-2.1900000000000005E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="str">
+    <row r="10" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
         <v>Corporate 5% 30 Jun 2018</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8">
         <v>0.05</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>43281</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>5</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H10" s="7">
+        <v>22.84</v>
+      </c>
+      <c r="I10" s="12">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>103.2</v>
+      </c>
+      <c r="K10" s="12">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>96.23</v>
+      </c>
+      <c r="M10" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N10" s="14">
+        <v>-6.7538759689922512E-2</v>
+      </c>
+      <c r="O10" s="14">
+        <v>2.4224806201550386E-2</v>
+      </c>
+      <c r="P10" s="14">
+        <v>-4.3313953488372123E-2</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="T10" s="15">
+        <v>2.2840000000000003</v>
+      </c>
+      <c r="U10" s="14">
+        <v>-4.3313953488372126E-3</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0.66</v>
+      </c>
+      <c r="X10" s="15">
+        <v>3.4259999999999997</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>-6.4970930232558181E-3</v>
+      </c>
+      <c r="AY10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H10" s="10">
-        <v>22.84</v>
-      </c>
-      <c r="I10" s="15">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="J10" s="14">
-        <v>103.2</v>
-      </c>
-      <c r="K10" s="15">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="L10" s="10">
-        <v>96.23</v>
-      </c>
-      <c r="M10" s="16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N10" s="17">
-        <v>-6.7538759689922512E-2</v>
-      </c>
-      <c r="O10" s="17">
-        <v>2.4224806201550386E-2</v>
-      </c>
-      <c r="P10" s="17">
+      <c r="AZ10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA10" s="17" cm="1">
+        <f t="array" ref="BA10">SUM(IF((($B$7:$B$13=$AZ10)+($AZ10="Total"))*(($F$7:$F$13=$AY10)+($AY10="Total")),$R$7:$R$13))</f>
+        <v>0.1</v>
+      </c>
+      <c r="BB10" s="17" cm="1">
+        <f t="array" ref="BB10">SUM(IF((($B$7:$B$13=$AZ10)+($AZ10="Total"))*(($F$7:$F$13=$AY10)+($AY10="Total")),$V$7:$V$13))</f>
+        <v>0.2</v>
+      </c>
+      <c r="BC10" s="14">
+        <v>-5.1603330310774118E-2</v>
+      </c>
+      <c r="BD10" s="14">
+        <v>-5.1603330310774118E-2</v>
+      </c>
+      <c r="BE10" s="61">
+        <v>7.47</v>
+      </c>
+      <c r="BF10" s="56">
+        <v>7.47</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP10" s="14">
+        <f>BA10*(BC10-BD10)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="14">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="1" t="str">
+        <v>Corporate 5% 30 Jun 2018</v>
+      </c>
+      <c r="BT10" s="25">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="BU10" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="BV10" s="25">
+        <v>2.3E-3</v>
+      </c>
+      <c r="BW10" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="BX10" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="BY10" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="CA10" s="1" t="str">
+        <v>Corporate 5% 30 Jun 2018</v>
+      </c>
+      <c r="CB10" s="14">
+        <v>2.1575890410958903E-2</v>
+      </c>
+      <c r="CC10" s="14">
+        <v>3.9692501999999998E-3</v>
+      </c>
+      <c r="CD10" s="14">
+        <v>-4.2858000000000007E-2</v>
+      </c>
+      <c r="CE10" s="14">
+        <v>-1.00595882E-2</v>
+      </c>
+      <c r="CF10" s="14">
+        <v>-1.0928625000000001E-2</v>
+      </c>
+      <c r="CG10" s="14">
+        <v>-8.7543200000000012E-3</v>
+      </c>
+      <c r="CH10" s="14">
+        <v>-4.3885800000000004E-3</v>
+      </c>
+      <c r="CI10" s="14">
+        <v>8.1300191006689893E-3</v>
+      </c>
+      <c r="CJ10" s="14">
         <v>-4.3313953488372123E-2</v>
       </c>
-      <c r="R10" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="S10" s="18">
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="T10" s="18">
-        <v>2.2840000000000003</v>
-      </c>
-      <c r="U10" s="17">
-        <v>-4.3313953488372126E-3</v>
-      </c>
-      <c r="V10" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="W10" s="18">
-        <v>0.66</v>
-      </c>
-      <c r="X10" s="18">
-        <v>3.4259999999999997</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>-6.4970930232558181E-3</v>
-      </c>
-      <c r="AY10" s="1" t="str">
+      <c r="CK10" s="14"/>
+      <c r="CL10" s="1" t="str">
         <v>Corporate 5% 30 Jun 2018</v>
       </c>
-      <c r="AZ10" s="32">
-        <v>-8.9999999999999998E-4</v>
-      </c>
-      <c r="BA10" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="BB10" s="32">
-        <v>2.3E-3</v>
-      </c>
-      <c r="BC10" s="32">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="BD10" s="32">
-        <v>2E-3</v>
-      </c>
-      <c r="BE10" s="32">
-        <v>1E-3</v>
-      </c>
-      <c r="BG10" s="1" t="str">
-        <v>Corporate 5% 30 Jun 2018</v>
-      </c>
-      <c r="BH10" s="17">
-        <v>2.1575890410958903E-2</v>
-      </c>
-      <c r="BI10" s="17">
-        <v>3.9692501999999998E-3</v>
-      </c>
-      <c r="BJ10" s="17">
-        <v>-4.2858000000000007E-2</v>
-      </c>
-      <c r="BK10" s="17">
-        <v>-1.00595882E-2</v>
-      </c>
-      <c r="BL10" s="17">
-        <v>-1.0928625000000001E-2</v>
-      </c>
-      <c r="BM10" s="17">
-        <v>-8.7543200000000012E-3</v>
-      </c>
-      <c r="BN10" s="17">
-        <v>-4.3885800000000004E-3</v>
-      </c>
-      <c r="BO10" s="17">
-        <v>8.1300191006689893E-3</v>
-      </c>
-      <c r="BP10" s="17">
-        <v>-4.3313953488372123E-2</v>
-      </c>
-      <c r="BQ10" s="17"/>
-      <c r="BR10" s="1" t="str">
-        <v>Corporate 5% 30 Jun 2018</v>
-      </c>
-      <c r="BS10" s="17">
+      <c r="CM10" s="14">
         <v>-1.0787945205479449E-3</v>
       </c>
-      <c r="BT10" s="17">
+      <c r="CN10" s="14">
         <v>-1.9846250999999994E-4</v>
       </c>
-      <c r="BU10" s="17">
+      <c r="CO10" s="14">
         <v>2.1429000000000001E-3</v>
       </c>
-      <c r="BV10" s="17">
+      <c r="CP10" s="14">
         <v>5.0297940999999996E-4</v>
       </c>
-      <c r="BW10" s="17">
+      <c r="CQ10" s="14">
         <v>5.4643124999999987E-4</v>
       </c>
-      <c r="BX10" s="17">
+      <c r="CR10" s="14">
         <v>4.3771599999999994E-4</v>
       </c>
-      <c r="BY10" s="17">
+      <c r="CS10" s="14">
         <v>2.1942899999999996E-4</v>
       </c>
-      <c r="BZ10" s="17">
+      <c r="CT10" s="14">
         <v>-4.0650095503344936E-4</v>
       </c>
-      <c r="CA10" s="17">
+      <c r="CU10" s="14">
         <v>2.1656976744186054E-3</v>
       </c>
-      <c r="CC10" s="1">
+      <c r="CW10" s="1">
         <v>4</v>
       </c>
-      <c r="CD10" s="15">
+      <c r="CX10" s="12">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="CE10" s="32">
+      <c r="CY10" s="25">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="CF10" s="32">
+      <c r="CZ10" s="25">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="CG10" s="32">
+      <c r="DA10" s="25">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="CH10" s="32">
+      <c r="DB10" s="25">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="CJ10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="CK10" s="18" cm="1">
-        <f t="array" ref="CK10">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CD$7:$CD$15+0.01)/2)^-$CC$7:$CC$15)</f>
+      <c r="DD10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="DE10" s="15" cm="1">
+        <f t="array" ref="DE10">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CX$7:$CX$15+0.01)/2)^-$CW$7:$CW$15)</f>
         <v>99.257256810076242</v>
       </c>
-      <c r="CL10" s="17">
+      <c r="DF10" s="14">
         <f t="shared" si="0"/>
         <v>-3.9149232510331096E-2</v>
       </c>
-      <c r="CN10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="CO10" s="17">
+      <c r="DH10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI10" s="14">
         <v>4.3340990600432535E-3</v>
       </c>
+      <c r="DK10" s="1" t="str">
+        <v>Corporate 5% 30 Jun 2018</v>
+      </c>
+      <c r="DL10" s="64">
+        <f>DF16</f>
+        <v>2.4224866886810338E-2</v>
+      </c>
+      <c r="DM10" s="64" cm="1">
+        <f t="array" ref="DM10:DS10">TRANSPOSE(DF8:DF14)</f>
+        <v>-3.3873330400937367E-3</v>
+      </c>
+      <c r="DN10" s="64">
+        <v>4.3340990600432535E-3</v>
+      </c>
+      <c r="DO10" s="64">
+        <v>-3.9149232510331096E-2</v>
+      </c>
+      <c r="DP10" s="64">
+        <v>-8.616084735528733E-3</v>
+      </c>
+      <c r="DQ10" s="64">
+        <v>-9.6211952963612644E-3</v>
+      </c>
+      <c r="DR10" s="64">
+        <v>-7.4393531005974879E-3</v>
+      </c>
+      <c r="DS10" s="64">
+        <v>-3.7915333821010862E-3</v>
+      </c>
+      <c r="DT10" s="64">
+        <v>-4.3445766118159812E-2</v>
+      </c>
+      <c r="DU10" s="64"/>
+      <c r="DV10" s="1" t="str">
+        <v>Corporate 5% 30 Jun 2018</v>
+      </c>
+      <c r="DW10" s="14">
+        <v>-1.2112433443405167E-3</v>
+      </c>
+      <c r="DX10" s="14">
+        <v>1.6936665200468679E-4</v>
+      </c>
+      <c r="DY10" s="14">
+        <v>-2.1670495300216264E-4</v>
+      </c>
+      <c r="DZ10" s="14">
+        <v>1.9574616255165545E-3</v>
+      </c>
+      <c r="EA10" s="14">
+        <v>4.3080423677643653E-4</v>
+      </c>
+      <c r="EB10" s="14">
+        <v>4.8105976481806309E-4</v>
+      </c>
+      <c r="EC10" s="14">
+        <v>3.7196765502987432E-4</v>
+      </c>
+      <c r="ED10" s="14">
+        <v>1.8957666910505427E-4</v>
+      </c>
+      <c r="EE10" s="14">
+        <v>2.17228830590799E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:101" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="str">
+    <row r="11" spans="1:135" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
         <v>Corporate 7% 30 Jun 2023</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>45107</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>10</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7">
         <v>7.4</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>68.36</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="12">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="11">
         <v>116.91</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="12">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="7">
         <v>106.23</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="14">
         <v>-9.1352322299204425E-2</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="14">
         <v>2.9937558805919088E-2</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="14">
         <v>-6.141476349328534E-2</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="8">
         <v>0.2</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="15">
         <v>1.4800000000000002</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="15">
         <v>13.672000000000001</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="14">
         <v>-1.2282952698657069E-2</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="8">
         <v>0.15</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="15">
         <v>1.1100000000000001</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="15">
         <v>10.254</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="14">
         <v>-9.2122145239928004E-3</v>
       </c>
-      <c r="AA11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AO11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AY11" s="1" t="str">
+      <c r="AA11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AO11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AY11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA11" s="17" cm="1">
+        <f t="array" ref="BA11">SUM(IF((($B$7:$B$13=$AZ11)+($AZ11="Total"))*(($F$7:$F$13=$AY11)+($AY11="Total")),$R$7:$R$13))</f>
+        <v>0.2</v>
+      </c>
+      <c r="BB11" s="17" cm="1">
+        <f t="array" ref="BB11">SUM(IF((($B$7:$B$13=$AZ11)+($AZ11="Total"))*(($F$7:$F$13=$AY11)+($AY11="Total")),$V$7:$V$13))</f>
+        <v>0.15</v>
+      </c>
+      <c r="BC11" s="14">
+        <v>-6.1414763493285347E-2</v>
+      </c>
+      <c r="BD11" s="14">
+        <v>-6.141476349328534E-2</v>
+      </c>
+      <c r="BE11" s="61">
+        <v>7.4</v>
+      </c>
+      <c r="BF11" s="61">
+        <v>7.4000000000000012</v>
+      </c>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="14">
+        <f>(BA11-BB11)*(BD11-BD10)</f>
+        <v>-4.9057165912556129E-4</v>
+      </c>
+      <c r="BP11" s="14">
+        <f>BA11*(BC11-BD11)</f>
+        <v>-1.3877787807814458E-18</v>
+      </c>
+      <c r="BQ11" s="14">
+        <v>-4.905716591255627E-4</v>
+      </c>
+      <c r="BS11" s="1" t="str">
         <v>Corporate 7% 30 Jun 2023</v>
       </c>
-      <c r="AZ11" s="32">
+      <c r="BT11" s="25">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="BA11" s="32">
+      <c r="BU11" s="25">
         <v>0.01</v>
       </c>
-      <c r="BB11" s="32">
+      <c r="BV11" s="25">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="BC11" s="32">
+      <c r="BW11" s="25">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="BD11" s="32">
+      <c r="BX11" s="25">
         <v>2E-3</v>
       </c>
-      <c r="BE11" s="32">
+      <c r="BY11" s="25">
         <v>0</v>
       </c>
-      <c r="BG11" s="1" t="str">
+      <c r="CA11" s="1" t="str">
         <v>Corporate 7% 30 Jun 2023</v>
       </c>
-      <c r="BH11" s="17">
+      <c r="CB11" s="14">
         <v>2.4449315068493148E-2</v>
       </c>
-      <c r="BI11" s="17">
+      <c r="CC11" s="14">
         <v>2.9654688000000005E-3</v>
       </c>
-      <c r="BJ11" s="17">
+      <c r="CD11" s="14">
         <v>-7.0582000000000006E-2</v>
       </c>
-      <c r="BK11" s="17">
+      <c r="CE11" s="14">
         <v>-4.4276951999999998E-3</v>
       </c>
-      <c r="BL11" s="17">
+      <c r="CF11" s="14">
         <v>-4.4276951999999998E-3</v>
       </c>
-      <c r="BM11" s="17">
+      <c r="CG11" s="14">
         <v>-1.4663280000000001E-2</v>
       </c>
-      <c r="BN11" s="17">
+      <c r="CH11" s="14">
         <v>0</v>
       </c>
-      <c r="BO11" s="17">
+      <c r="CI11" s="14">
         <v>5.2711230382215118E-3</v>
       </c>
-      <c r="BP11" s="17">
+      <c r="CJ11" s="14">
         <v>-6.141476349328534E-2</v>
       </c>
-      <c r="BQ11" s="17"/>
-      <c r="BR11" s="1" t="str">
+      <c r="CK11" s="14"/>
+      <c r="CL11" s="1" t="str">
         <v>Corporate 7% 30 Jun 2023</v>
       </c>
-      <c r="BS11" s="17">
+      <c r="CM11" s="14">
         <v>1.2224657534246578E-3</v>
       </c>
-      <c r="BT11" s="17">
+      <c r="CN11" s="14">
         <v>1.4827344000000007E-4</v>
       </c>
-      <c r="BU11" s="17">
+      <c r="CO11" s="14">
         <v>-3.5291000000000016E-3</v>
       </c>
-      <c r="BV11" s="17">
+      <c r="CP11" s="14">
         <v>-2.2138476000000006E-4</v>
       </c>
-      <c r="BW11" s="17">
+      <c r="CQ11" s="14">
         <v>-2.2138476000000006E-4</v>
       </c>
-      <c r="BX11" s="17">
+      <c r="CR11" s="14">
         <v>-7.3316400000000023E-4</v>
       </c>
-      <c r="BY11" s="17">
+      <c r="CS11" s="14">
         <v>0</v>
       </c>
-      <c r="BZ11" s="17">
+      <c r="CT11" s="14">
         <v>2.635561519110757E-4</v>
       </c>
-      <c r="CA11" s="17">
+      <c r="CU11" s="14">
         <v>-3.0707381746642682E-3</v>
       </c>
-      <c r="CC11" s="1">
+      <c r="CW11" s="1">
         <v>5</v>
       </c>
-      <c r="CD11" s="15">
+      <c r="CX11" s="12">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="CE11" s="32">
+      <c r="CY11" s="25">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="CF11" s="32">
+      <c r="CZ11" s="25">
         <v>5.1130000000000002E-2</v>
       </c>
-      <c r="CG11" s="32">
+      <c r="DA11" s="25">
         <v>5.3129999999999997E-2</v>
       </c>
-      <c r="CH11" s="32">
+      <c r="DB11" s="25">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="CJ11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="CK11" s="18" cm="1">
-        <f t="array" ref="CK11">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CE$7:$CE$15)/2)^-$CC$7:$CC$15)</f>
+      <c r="DD11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="DE11" s="15" cm="1">
+        <f t="array" ref="DE11">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CY$7:$CY$15)/2)^-$CW$7:$CW$15)</f>
         <v>98.368079092837689</v>
       </c>
-      <c r="CL11" s="17">
+      <c r="DF11" s="14">
         <f t="shared" si="0"/>
         <v>-8.616084735528733E-3</v>
       </c>
-      <c r="CN11" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="CO11" s="44">
-        <f>SUM(_xlfn.ANCHORARRAY(CO12))</f>
+      <c r="DH11" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="DI11" s="35">
+        <f>SUM(_xlfn.ANCHORARRAY(DI12))</f>
         <v>-5.7386512542221088E-2</v>
       </c>
+      <c r="DK11" s="1" t="str">
+        <v>Corporate 7% 30 Jun 2023</v>
+      </c>
+      <c r="DL11" s="65">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="DM11" s="65">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="DN11" s="65">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="DO11" s="65">
+        <v>-6.7599999999999993E-2</v>
+      </c>
+      <c r="DP11" s="65">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="DQ11" s="65">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="DR11" s="65">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+      <c r="DS11" s="65">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="64">
+        <v>-6.1499999999999999E-2</v>
+      </c>
+      <c r="DU11" s="64"/>
+      <c r="DV11" s="1" t="str">
+        <v>Corporate 7% 30 Jun 2023</v>
+      </c>
+      <c r="DW11" s="14">
+        <v>1.4950000000000005E-3</v>
+      </c>
+      <c r="DX11" s="14">
+        <v>-3.6000000000000013E-4</v>
+      </c>
+      <c r="DY11" s="14">
+        <v>2.2000000000000009E-4</v>
+      </c>
+      <c r="DZ11" s="14">
+        <v>-3.3800000000000006E-3</v>
+      </c>
+      <c r="EA11" s="14">
+        <v>-1.9500000000000005E-4</v>
+      </c>
+      <c r="EB11" s="14">
+        <v>-2.2000000000000009E-4</v>
+      </c>
+      <c r="EC11" s="14">
+        <v>-6.3500000000000015E-4</v>
+      </c>
+      <c r="ED11" s="14">
+        <v>0</v>
+      </c>
+      <c r="EE11" s="14">
+        <v>-3.0750000000000009E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="str">
+    <row r="12" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
         <v>0.06</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>46934</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>15</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7">
         <v>10.06</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>131.57</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>5.16E-2</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="11">
         <v>108.74</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="12">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="7">
         <v>99.37</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="13">
         <v>0.03</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="14">
         <v>-8.6168843112010229E-2</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="14">
         <v>2.758874379253265E-2</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="14">
         <v>-5.858009931947758E-2</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="8">
         <v>0</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="15">
         <v>0</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="15">
         <v>0</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="14">
         <v>0</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="8">
         <v>0.15</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="15">
         <v>1.5090000000000001</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="15">
         <v>19.735499999999998</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="14">
         <v>-8.7870148979216373E-3</v>
       </c>
-      <c r="AY12" s="1" t="str">
+      <c r="AY12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA12" s="17" cm="1">
+        <f t="array" ref="BA12">SUM(IF((($B$7:$B$13=$AZ12)+($AZ12="Total"))*(($F$7:$F$13=$AY12)+($AY12="Total")),$R$7:$R$13))</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="BB12" s="17" cm="1">
+        <f t="array" ref="BB12">SUM(IF((($B$7:$B$13=$AZ12)+($AZ12="Total"))*(($F$7:$F$13=$AY12)+($AY12="Total")),$V$7:$V$13))</f>
+        <v>0.35</v>
+      </c>
+      <c r="BC12" s="14">
+        <v>-5.8144285765781595E-2</v>
+      </c>
+      <c r="BD12" s="14">
+        <v>-5.5808230246136077E-2</v>
+      </c>
+      <c r="BE12" s="61">
+        <v>7.4233333333333329</v>
+      </c>
+      <c r="BF12" s="61">
+        <v>7.44</v>
+      </c>
+      <c r="BG12" s="60">
+        <f>($BD$16-0.15%)/$BF$16*$BE12+0.15%</f>
+        <v>-4.5332067474785624E-2</v>
+      </c>
+      <c r="BH12" s="60">
+        <f>($BD$16-0.15%)/$BF$16*$BF12+0.15%</f>
+        <v>-4.5437213562515281E-2</v>
+      </c>
+      <c r="BK12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL12" s="14">
+        <f>BA12*BG12-BB12*BH12</f>
+        <v>2.3034045044446581E-3</v>
+      </c>
+      <c r="BM12" s="14">
+        <f>BN12-BL12</f>
+        <v>2.7676201109404436E-4</v>
+      </c>
+      <c r="BN12" s="14">
+        <f>(BA12-BB12)*BD10</f>
+        <v>2.5801665155387025E-3</v>
+      </c>
+      <c r="BQ12" s="14">
+        <v>2.5801665155387025E-3</v>
+      </c>
+      <c r="BS12" s="1" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
-      <c r="AZ12" s="32">
+      <c r="BT12" s="25">
         <v>-2.0000000000000001E-4</v>
       </c>
-      <c r="BA12" s="32">
+      <c r="BU12" s="25">
         <v>0.01</v>
       </c>
-      <c r="BB12" s="32">
+      <c r="BV12" s="25">
         <v>-1E-3</v>
       </c>
-      <c r="BC12" s="32">
+      <c r="BW12" s="25">
         <v>-1.6999999999999999E-3</v>
       </c>
-      <c r="BD12" s="32">
+      <c r="BX12" s="25">
         <v>2E-3</v>
       </c>
-      <c r="BE12" s="32">
+      <c r="BY12" s="25">
         <v>0</v>
       </c>
-      <c r="BG12" s="1" t="str">
+      <c r="CA12" s="1" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
-      <c r="BH12" s="17">
+      <c r="CB12" s="14">
         <v>2.601205479452055E-2</v>
       </c>
-      <c r="BI12" s="17">
+      <c r="CC12" s="14">
         <v>2.0146314000000004E-3</v>
       </c>
-      <c r="BJ12" s="17">
+      <c r="CD12" s="14">
         <v>-9.4021500000000008E-2</v>
       </c>
-      <c r="BK12" s="17">
+      <c r="CE12" s="14">
         <v>1.0125785000000002E-2</v>
       </c>
-      <c r="BL12" s="17">
+      <c r="CF12" s="14">
         <v>1.729211865E-2</v>
       </c>
-      <c r="BM12" s="17">
+      <c r="CG12" s="14">
         <v>-1.9856860000000004E-2</v>
       </c>
-      <c r="BN12" s="17">
+      <c r="CH12" s="14">
         <v>0</v>
       </c>
-      <c r="BO12" s="17">
+      <c r="CI12" s="14">
         <v>-1.463291639981143E-4</v>
       </c>
-      <c r="BP12" s="17">
+      <c r="CJ12" s="14">
         <v>-5.858009931947758E-2</v>
       </c>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="1" t="str">
+      <c r="CK12" s="14"/>
+      <c r="CL12" s="1" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
-      <c r="BS12" s="17">
+      <c r="CM12" s="14">
         <v>-3.9018082191780825E-3</v>
       </c>
-      <c r="BT12" s="17">
+      <c r="CN12" s="14">
         <v>-3.0219471000000002E-4</v>
       </c>
-      <c r="BU12" s="17">
+      <c r="CO12" s="14">
         <v>1.4103225E-2</v>
       </c>
-      <c r="BV12" s="17">
+      <c r="CP12" s="14">
         <v>-1.5188677500000002E-3</v>
       </c>
-      <c r="BW12" s="17">
+      <c r="CQ12" s="14">
         <v>-2.5938177975000001E-3</v>
       </c>
-      <c r="BX12" s="17">
+      <c r="CR12" s="14">
         <v>2.9785290000000006E-3</v>
       </c>
-      <c r="BY12" s="17">
+      <c r="CS12" s="14">
         <v>0</v>
       </c>
-      <c r="BZ12" s="17">
+      <c r="CT12" s="14">
         <v>2.1949374599717144E-5</v>
       </c>
-      <c r="CA12" s="17">
+      <c r="CU12" s="14">
         <v>8.7870148979216373E-3</v>
       </c>
-      <c r="CC12" s="1">
+      <c r="CW12" s="1">
         <v>6</v>
       </c>
-      <c r="CD12" s="15">
+      <c r="CX12" s="12">
         <v>3.85E-2</v>
       </c>
-      <c r="CE12" s="32">
+      <c r="CY12" s="25">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="CF12" s="32">
+      <c r="CZ12" s="25">
         <v>5.2970000000000003E-2</v>
       </c>
-      <c r="CG12" s="32">
+      <c r="DA12" s="25">
         <v>5.4969999999999998E-2</v>
       </c>
-      <c r="CH12" s="32">
+      <c r="DB12" s="25">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="CJ12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK12" s="18" cm="1">
-        <f t="array" ref="CK12">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CF$7:$CF$15)/2)^-$CC$7:$CC$15)</f>
+      <c r="DD12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="DE12" s="15" cm="1">
+        <f t="array" ref="DE12">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CZ$7:$CZ$15)/2)^-$CW$7:$CW$15)</f>
         <v>97.375174225566809</v>
       </c>
-      <c r="CL12" s="17">
+      <c r="DF12" s="14">
         <f t="shared" si="0"/>
         <v>-9.6211952963612644E-3</v>
       </c>
-      <c r="CN12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CO12" s="17" cm="1">
-        <f t="array" ref="CO12:CO14">CL10:CL12</f>
+      <c r="DH12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI12" s="14" cm="1">
+        <f t="array" ref="DI12:DI14">DF10:DF12</f>
         <v>-3.9149232510331096E-2</v>
       </c>
+      <c r="DK12" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="DL12" s="65">
+        <v>2.76E-2</v>
+      </c>
+      <c r="DM12" s="65">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="DN12" s="65">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="DO12" s="65">
+        <v>-9.1300000000000006E-2</v>
+      </c>
+      <c r="DP12" s="65">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="DQ12" s="65">
+        <v>1.41E-2</v>
+      </c>
+      <c r="DR12" s="65">
+        <v>-1.77E-2</v>
+      </c>
+      <c r="DS12" s="65">
+        <v>0</v>
+      </c>
+      <c r="DT12" s="64">
+        <v>-5.8700000000000009E-2</v>
+      </c>
+      <c r="DU12" s="64"/>
+      <c r="DV12" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="DW12" s="14">
+        <v>-4.1399999999999996E-3</v>
+      </c>
+      <c r="DX12" s="14">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="DY12" s="14">
+        <v>-6.2999999999999992E-4</v>
+      </c>
+      <c r="DZ12" s="14">
+        <v>1.3695000000000001E-2</v>
+      </c>
+      <c r="EA12" s="14">
+        <v>-1.23E-3</v>
+      </c>
+      <c r="EB12" s="14">
+        <v>-2.1149999999999997E-3</v>
+      </c>
+      <c r="EC12" s="14">
+        <v>2.6549999999999998E-3</v>
+      </c>
+      <c r="ED12" s="14">
+        <v>0</v>
+      </c>
+      <c r="EE12" s="14">
+        <v>8.8050000000000003E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="str">
+    <row r="13" spans="1:135" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8">
         <v>0.06</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>46934</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>15</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7">
         <v>10.06</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>131.57</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>5.16E-2</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="11">
         <v>108.74</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="12">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="7">
         <v>99.85</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="13">
         <v>0.03</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="14">
         <v>-8.1754644105205054E-2</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="14">
         <v>2.758874379253265E-2</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="14">
         <v>-5.4165900312672405E-2</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="8">
         <v>0.3</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="15">
         <v>3.0180000000000002</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="15">
         <v>39.470999999999997</v>
       </c>
-      <c r="U13" s="17">
+      <c r="U13" s="14">
         <v>-1.624977009380172E-2</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="8">
         <v>0</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="15">
         <v>0</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="15">
         <v>0</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="14">
         <v>0</v>
       </c>
-      <c r="AB13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3" t="s">
+      <c r="AB13" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AP13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3" t="s">
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AP13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="37"/>
+      <c r="AT13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AY13" s="1" t="str">
+      <c r="AU13" s="37"/>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="37"/>
+      <c r="AY13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA13" s="17" cm="1">
+        <f t="array" ref="BA13">SUM(IF((($B$7:$B$13=$AZ13)+($AZ13="Total"))*(($F$7:$F$13=$AY13)+($AY13="Total")),$R$7:$R$13))</f>
+        <v>0.2</v>
+      </c>
+      <c r="BB13" s="17" cm="1">
+        <f t="array" ref="BB13">SUM(IF((($B$7:$B$13=$AZ13)+($AZ13="Total"))*(($F$7:$F$13=$AY13)+($AY13="Total")),$V$7:$V$13))</f>
+        <v>0.15</v>
+      </c>
+      <c r="BC13" s="14">
+        <v>-4.3740705100166186E-2</v>
+      </c>
+      <c r="BD13" s="14">
+        <v>-4.3740705100166193E-2</v>
+      </c>
+      <c r="BE13" s="61">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="BF13" s="56">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL13" s="44"/>
+      <c r="BM13" s="44"/>
+      <c r="BN13" s="44"/>
+      <c r="BO13" s="44"/>
+      <c r="BP13" s="14">
+        <f>BA13*(BC13-BD13)</f>
+        <v>1.3877787807814458E-18</v>
+      </c>
+      <c r="BQ13" s="14">
+        <v>1.3877787807814458E-18</v>
+      </c>
+      <c r="BS13" s="1" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
-      <c r="AZ13" s="32">
+      <c r="BT13" s="25">
         <v>-2.0000000000000001E-4</v>
       </c>
-      <c r="BA13" s="32">
+      <c r="BU13" s="25">
         <v>0.01</v>
       </c>
-      <c r="BB13" s="32">
+      <c r="BV13" s="25">
         <v>-1E-3</v>
       </c>
-      <c r="BC13" s="32">
+      <c r="BW13" s="25">
         <v>-1.6999999999999999E-3</v>
       </c>
-      <c r="BD13" s="32">
+      <c r="BX13" s="25">
         <v>2E-3</v>
       </c>
-      <c r="BE13" s="32">
+      <c r="BY13" s="25">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="BG13" s="1" t="str">
+      <c r="CA13" s="1" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
-      <c r="BH13" s="17">
+      <c r="CB13" s="14">
         <v>2.601205479452055E-2</v>
       </c>
-      <c r="BI13" s="17">
+      <c r="CC13" s="14">
         <v>2.0146314000000004E-3</v>
       </c>
-      <c r="BJ13" s="17">
+      <c r="CD13" s="14">
         <v>-9.4021500000000008E-2</v>
       </c>
-      <c r="BK13" s="17">
+      <c r="CE13" s="14">
         <v>1.0125785000000002E-2</v>
       </c>
-      <c r="BL13" s="17">
+      <c r="CF13" s="14">
         <v>1.729211865E-2</v>
       </c>
-      <c r="BM13" s="17">
+      <c r="CG13" s="14">
         <v>-1.9856860000000004E-2</v>
       </c>
-      <c r="BN13" s="17">
+      <c r="CH13" s="14">
         <v>5.0464462500000003E-3</v>
       </c>
-      <c r="BO13" s="17">
+      <c r="CI13" s="14">
         <v>-7.7857640719294213E-4</v>
       </c>
-      <c r="BP13" s="17">
+      <c r="CJ13" s="14">
         <v>-5.4165900312672405E-2</v>
       </c>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="1" t="str">
+      <c r="CK13" s="14"/>
+      <c r="CL13" s="1" t="str">
         <v>Corporate 6% 30 Jun 2028</v>
       </c>
-      <c r="BS13" s="17">
+      <c r="CM13" s="14">
         <v>7.8036164383561649E-3</v>
       </c>
-      <c r="BT13" s="17">
+      <c r="CN13" s="14">
         <v>6.0438942000000005E-4</v>
       </c>
-      <c r="BU13" s="17">
+      <c r="CO13" s="14">
         <v>-2.8206450000000001E-2</v>
       </c>
-      <c r="BV13" s="17">
+      <c r="CP13" s="14">
         <v>3.0377355000000003E-3</v>
       </c>
-      <c r="BW13" s="17">
+      <c r="CQ13" s="14">
         <v>5.1876355950000001E-3</v>
       </c>
-      <c r="BX13" s="17">
+      <c r="CR13" s="14">
         <v>-5.9570580000000012E-3</v>
       </c>
-      <c r="BY13" s="17">
+      <c r="CS13" s="14">
         <v>1.513933875E-3</v>
       </c>
-      <c r="BZ13" s="17">
+      <c r="CT13" s="14">
         <v>-2.3357292215788264E-4</v>
       </c>
-      <c r="CA13" s="17">
+      <c r="CU13" s="14">
         <v>-1.624977009380172E-2</v>
       </c>
-      <c r="CC13" s="1">
+      <c r="CW13" s="1">
         <v>7</v>
       </c>
-      <c r="CD13" s="15">
+      <c r="CX13" s="12">
         <v>0.04</v>
       </c>
-      <c r="CE13" s="32">
+      <c r="CY13" s="25">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="CF13" s="32">
+      <c r="CZ13" s="25">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="CG13" s="32">
+      <c r="DA13" s="25">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="CH13" s="32">
+      <c r="DB13" s="25">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="CJ13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="CK13" s="18" cm="1">
-        <f t="array" ref="CK13">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($CG$7:$CG$15)/2)^-$CC$7:$CC$15)</f>
+      <c r="DD13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="DE13" s="15" cm="1">
+        <f t="array" ref="DE13">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+($DA$7:$DA$15)/2)^-$CW$7:$CW$15)</f>
         <v>96.607434908839338</v>
       </c>
-      <c r="CL13" s="17">
+      <c r="DF13" s="14">
         <f t="shared" si="0"/>
         <v>-7.4393531005974879E-3</v>
       </c>
-      <c r="CN13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="CO13" s="17">
+      <c r="DH13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="DI13" s="14">
         <v>-8.616084735528733E-3</v>
       </c>
+      <c r="DK13" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="DL13" s="65">
+        <v>2.76E-2</v>
+      </c>
+      <c r="DM13" s="65">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="DN13" s="65">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="DO13" s="65">
+        <v>-9.1300000000000006E-2</v>
+      </c>
+      <c r="DP13" s="65">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="DQ13" s="65">
+        <v>1.41E-2</v>
+      </c>
+      <c r="DR13" s="65">
+        <v>-1.77E-2</v>
+      </c>
+      <c r="DS13" s="65">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="DT13" s="64">
+        <v>-5.4300000000000008E-2</v>
+      </c>
+      <c r="DU13" s="64"/>
+      <c r="DV13" s="1" t="str">
+        <v>Corporate 6% 30 Jun 2028</v>
+      </c>
+      <c r="DW13" s="14">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="DX13" s="14">
+        <v>-1.14E-3</v>
+      </c>
+      <c r="DY13" s="14">
+        <v>1.2599999999999998E-3</v>
+      </c>
+      <c r="DZ13" s="14">
+        <v>-2.7390000000000001E-2</v>
+      </c>
+      <c r="EA13" s="14">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="EB13" s="14">
+        <v>4.2299999999999994E-3</v>
+      </c>
+      <c r="EC13" s="14">
+        <v>-5.3099999999999996E-3</v>
+      </c>
+      <c r="ED13" s="14">
+        <v>1.32E-3</v>
+      </c>
+      <c r="EE13" s="14">
+        <v>-1.6290000000000002E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R14" s="21" cm="1">
+    <row r="14" spans="1:135" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="18" cm="1">
         <f t="array" ref="R14:Y14">_xlfn.BYCOL(R7:Y13,_xleta.SUM)</f>
         <v>1</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="19">
         <v>8.1690000000000005</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="19">
         <v>91.544999999999987</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="20">
         <v>-5.0251265178188648E-2</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="18">
         <v>1</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="19">
         <v>7.1885000000000012</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="19">
         <v>72.041499999999999</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14" s="20">
         <v>-4.8335440243914007E-2</v>
       </c>
       <c r="AA14" s="2" t="str" cm="1">
         <f t="array" ref="AA14:AE17">_xlfn.PIVOTBY(B7:B13,F7:F13,V7:V13,_xleta.SUM,,,-1,,-1)</f>
         <v/>
       </c>
-      <c r="AB14" s="7" t="str">
+      <c r="AB14" s="3" t="str">
         <v>Short</v>
       </c>
-      <c r="AC14" s="7" t="str">
+      <c r="AC14" s="3" t="str">
         <v>Mid</v>
       </c>
-      <c r="AD14" s="7" t="str">
+      <c r="AD14" s="3" t="str">
         <v>Long</v>
       </c>
-      <c r="AE14" s="7" t="str">
+      <c r="AE14" s="3" t="str">
         <v>Total</v>
       </c>
-      <c r="AF14" s="7" t="s">
+      <c r="AF14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG14" s="7" t="s">
+      <c r="AH14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AH14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI14" s="7" t="s">
+      <c r="AI14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AJ14" s="7" t="s">
+      <c r="AJ14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AK14" s="7" t="s">
+      <c r="AL14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AL14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM14" s="7" t="s">
+      <c r="AM14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AP14" s="7" t="s">
+      <c r="AP14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AQ14" s="7" t="s">
+      <c r="AR14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AR14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS14" s="7" t="s">
+      <c r="AS14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AT14" s="7" t="s">
+      <c r="AT14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AU14" s="7" t="s">
+      <c r="AV14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AV14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW14" s="7" t="s">
+      <c r="AW14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BR14" s="19" t="s">
+      <c r="AY14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA14" s="17" cm="1">
+        <f t="array" ref="BA14">SUM(IF((($B$7:$B$13=$AZ14)+($AZ14="Total"))*(($F$7:$F$13=$AY14)+($AY14="Total")),$R$7:$R$13))</f>
+        <v>0.3</v>
+      </c>
+      <c r="BB14" s="17" cm="1">
+        <f t="array" ref="BB14">SUM(IF((($B$7:$B$13=$AZ14)+($AZ14="Total"))*(($F$7:$F$13=$AY14)+($AY14="Total")),$V$7:$V$13))</f>
+        <v>0.15</v>
+      </c>
+      <c r="BC14" s="14">
+        <v>-5.4165900312672405E-2</v>
+      </c>
+      <c r="BD14" s="14">
+        <v>-5.8580099319477587E-2</v>
+      </c>
+      <c r="BE14" s="61">
+        <v>10.06</v>
+      </c>
+      <c r="BF14" s="61">
+        <v>10.06</v>
+      </c>
+      <c r="BJ14" s="44"/>
+      <c r="BK14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL14" s="44"/>
+      <c r="BM14" s="44"/>
+      <c r="BN14" s="44"/>
+      <c r="BO14" s="14">
+        <f>(BA14-BB14)*(BD14-BD13)</f>
+        <v>-2.2259091328967091E-3</v>
+      </c>
+      <c r="BP14" s="14">
+        <f>BA14*(BC14-BD14)</f>
+        <v>1.3242597020415546E-3</v>
+      </c>
+      <c r="BQ14" s="14">
+        <v>-9.0164943085515453E-4</v>
+      </c>
+      <c r="CL14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="BS14" s="31" cm="1">
-        <f t="array" ref="BS14:CA14">_xlfn.BYCOL(_xlfn.ANCHORARRAY(BS7),_xleta.SUM)</f>
+      <c r="CM14" s="24" cm="1">
+        <f t="array" ref="CM14:CU14">_xlfn.BYCOL(_xlfn.ANCHORARRAY(CM7),_xleta.SUM)</f>
         <v>1.1216438356164401E-3</v>
       </c>
-      <c r="BT14" s="31">
+      <c r="CN14" s="24">
         <v>-3.4384549499999982E-4</v>
       </c>
-      <c r="BU14" s="31">
+      <c r="CO14" s="24">
         <v>-8.8298250000000029E-3</v>
       </c>
-      <c r="BV14" s="31">
+      <c r="CP14" s="24">
         <v>3.7717949650000002E-3</v>
       </c>
-      <c r="BW14" s="31">
+      <c r="CQ14" s="24">
         <v>5.3411956225000003E-3</v>
       </c>
-      <c r="BX14" s="31">
+      <c r="CR14" s="24">
         <v>-3.2739770000000008E-3</v>
       </c>
-      <c r="BY14" s="31">
+      <c r="CS14" s="24">
         <v>1.733362875E-3</v>
       </c>
-      <c r="BZ14" s="31">
+      <c r="CT14" s="24">
         <v>-1.4361747373910852E-3</v>
       </c>
-      <c r="CA14" s="31">
+      <c r="CU14" s="62">
         <v>-1.9158249342746472E-3</v>
       </c>
-      <c r="CC14" s="1">
+      <c r="CW14" s="1">
         <v>8</v>
       </c>
-      <c r="CD14" s="15">
+      <c r="CX14" s="12">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="CE14" s="32">
+      <c r="CY14" s="25">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="CF14" s="32">
+      <c r="CZ14" s="25">
         <v>5.6030000000000003E-2</v>
       </c>
-      <c r="CG14" s="32">
+      <c r="DA14" s="25">
         <v>5.8029999999999998E-2</v>
       </c>
-      <c r="CH14" s="32">
+      <c r="DB14" s="25">
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="CJ14" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="CK14" s="18" cm="1">
-        <f t="array" ref="CK14">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+$CH$7:$CH$15/2)^-$CC$7:$CC$15)</f>
+      <c r="DD14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="DE14" s="15" cm="1">
+        <f t="array" ref="DE14">SUM((_xlfn.FLOOR.MATH(_xlfn.SEQUENCE($E$10*2-1)/($E$10*2-1))*100+$M$10*100)*(1+$DB$7:$DB$15/2)^-$CW$7:$CW$15)</f>
         <v>96.216149644010343</v>
       </c>
-      <c r="CL14" s="17">
+      <c r="DF14" s="14">
         <f t="shared" si="0"/>
         <v>-3.7915333821010862E-3</v>
       </c>
-      <c r="CN14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="CO14" s="17">
+      <c r="DH14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DI14" s="14">
         <v>-9.6211952963612644E-3</v>
       </c>
+      <c r="DL14" s="63"/>
+      <c r="DM14" s="63"/>
+      <c r="DN14" s="63"/>
+      <c r="DO14" s="63"/>
+      <c r="DP14" s="63"/>
+      <c r="DQ14" s="63"/>
+      <c r="DR14" s="63"/>
+      <c r="DS14" s="63"/>
+      <c r="DT14" s="63"/>
+      <c r="DU14" s="63"/>
+      <c r="DV14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="DW14" s="24" cm="1">
+        <f t="array" ref="DW14:EE14">_xlfn.BYCOL(DW7:EE13,_xleta.SUM)</f>
+        <v>4.7375665565948296E-4</v>
+      </c>
+      <c r="DX14" s="24">
+        <v>3.7936665200468691E-4</v>
+      </c>
+      <c r="DY14" s="24">
+        <v>-3.6704953002162678E-5</v>
+      </c>
+      <c r="DZ14" s="24">
+        <v>-9.0125383744834482E-3</v>
+      </c>
+      <c r="EA14" s="24">
+        <v>3.1408042367764366E-3</v>
+      </c>
+      <c r="EB14" s="24">
+        <v>4.5060597648180628E-3</v>
+      </c>
+      <c r="EC14" s="24">
+        <v>-2.9180323449701255E-3</v>
+      </c>
+      <c r="ED14" s="24">
+        <v>1.5095766691050542E-3</v>
+      </c>
+      <c r="EE14" s="62">
+        <v>-1.9577116940920139E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y15" s="24">
+    <row r="15" spans="1:135" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y15" s="21">
         <f>U14-Y14</f>
         <v>-1.9158249342746403E-3</v>
       </c>
       <c r="AA15" s="1" t="str">
         <v>Government</v>
       </c>
-      <c r="AB15" s="20">
+      <c r="AB15" s="17">
         <v>0.2</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AC15" s="17">
         <v>0.2</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AD15" s="17">
         <v>0.15</v>
       </c>
-      <c r="AE15" s="20">
+      <c r="AE15" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AF15" s="18" cm="1">
+      <c r="AF15" s="15" cm="1">
         <f t="array" ref="AF15">SUM(IF(($B$7:$B$13=$AA15)*($F$7:$F$13=AB$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>0.88400000000000001</v>
       </c>
-      <c r="AG15" s="18" cm="1">
+      <c r="AG15" s="15" cm="1">
         <f t="array" ref="AG15">SUM(IF(($B$7:$B$13=$AA15)*($F$7:$F$13=AC$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.494</v>
       </c>
-      <c r="AH15" s="18" cm="1">
+      <c r="AH15" s="15" cm="1">
         <f t="array" ref="AH15">SUM(IF(($B$7:$B$13=$AA15)*($F$7:$F$13=AD$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.5315000000000001</v>
       </c>
@@ -3411,117 +4635,167 @@
         <f t="array" ref="AI15">SUM(IF($B$7:$B$13=$AA15,$G$7:$G$13*$V$7:$V$13))</f>
         <v>3.9095000000000004</v>
       </c>
-      <c r="AJ15" s="18" cm="1">
+      <c r="AJ15" s="15" cm="1">
         <f t="array" ref="AJ15:AM17">AF15:AI17/AB15:AE17</f>
         <v>4.42</v>
       </c>
-      <c r="AK15" s="18">
+      <c r="AK15" s="15">
         <v>7.47</v>
       </c>
-      <c r="AL15" s="18">
+      <c r="AL15" s="15">
         <v>10.210000000000001</v>
       </c>
-      <c r="AM15" s="18">
+      <c r="AM15" s="15">
         <v>7.1081818181818184</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP15" s="17" cm="1">
+        <v>19</v>
+      </c>
+      <c r="AP15" s="14" cm="1">
         <f t="array" ref="AP15">SUM(IF(($B$7:$B$13=$AO15)*($F$7:$F$13=AP$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-6.9573459715639944E-3</v>
       </c>
-      <c r="AQ15" s="17" cm="1">
+      <c r="AQ15" s="14" cm="1">
         <f t="array" ref="AQ15">SUM(IF(($B$7:$B$13=$AO15)*($F$7:$F$13=AQ$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-1.0320666062154824E-2</v>
       </c>
-      <c r="AR15" s="17" cm="1">
+      <c r="AR15" s="14" cm="1">
         <f t="array" ref="AR15">SUM(IF(($B$7:$B$13=$AO15)*($F$7:$F$13=AR$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-6.5611057650249291E-3</v>
       </c>
-      <c r="AS15" s="17" cm="1">
+      <c r="AS15" s="14" cm="1">
         <f t="array" ref="AS15">SUM(IF($B$7:$B$13=$AO15,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-2.3839117798743748E-2</v>
       </c>
-      <c r="AT15" s="17" cm="1">
+      <c r="AT15" s="14" cm="1">
         <f t="array" ref="AT15:AW17">AP15:AS17/AB15:AE17</f>
         <v>-3.478672985781997E-2</v>
       </c>
-      <c r="AU15" s="17">
+      <c r="AU15" s="14">
         <v>-5.1603330310774118E-2</v>
       </c>
-      <c r="AV15" s="17">
+      <c r="AV15" s="14">
         <v>-4.3740705100166193E-2</v>
       </c>
-      <c r="AW15" s="17">
+      <c r="AW15" s="14">
         <v>-4.3343850543170449E-2</v>
       </c>
-      <c r="CC15" s="1">
+      <c r="AY15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA15" s="17" cm="1">
+        <f t="array" ref="BA15">SUM(IF((($B$7:$B$13=$AZ15)+($AZ15="Total"))*(($F$7:$F$13=$AY15)+($AY15="Total")),$R$7:$R$13))</f>
+        <v>0.5</v>
+      </c>
+      <c r="BB15" s="17" cm="1">
+        <f t="array" ref="BB15">SUM(IF((($B$7:$B$13=$AZ15)+($AZ15="Total"))*(($F$7:$F$13=$AY15)+($AY15="Total")),$V$7:$V$13))</f>
+        <v>0.3</v>
+      </c>
+      <c r="BC15" s="14">
+        <v>-4.999582222766992E-2</v>
+      </c>
+      <c r="BD15" s="14">
+        <v>-5.116040220982189E-2</v>
+      </c>
+      <c r="BE15" s="61">
+        <v>10.120000000000001</v>
+      </c>
+      <c r="BF15" s="61">
+        <v>10.135000000000002</v>
+      </c>
+      <c r="BG15" s="60">
+        <f>($BD$16-0.15%)/$BF$16*$BE15+0.15%</f>
+        <v>-6.2344704469442833E-2</v>
+      </c>
+      <c r="BH15" s="60">
+        <f>($BD$16-0.15%)/$BF$16*$BF15+0.15%</f>
+        <v>-6.2439335948399524E-2</v>
+      </c>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL15" s="14">
+        <f>BA15*BG15-BB15*BH15</f>
+        <v>-1.2440551450201561E-2</v>
+      </c>
+      <c r="BM15" s="14">
+        <f>BN15-BL15</f>
+        <v>3.692410430168323E-3</v>
+      </c>
+      <c r="BN15" s="14">
+        <f>(BA15-BB15)*BD13</f>
+        <v>-8.7481410200332382E-3</v>
+      </c>
+      <c r="BO15" s="14"/>
+      <c r="BP15" s="14"/>
+      <c r="BQ15" s="14">
+        <v>-8.7481410200332382E-3</v>
+      </c>
+      <c r="CW15" s="1">
         <v>9</v>
       </c>
-      <c r="CD15" s="15">
+      <c r="CX15" s="12">
         <v>4.24E-2</v>
       </c>
-      <c r="CE15" s="32">
+      <c r="CY15" s="25">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="CF15" s="32">
+      <c r="CZ15" s="25">
         <v>5.7270000000000001E-2</v>
       </c>
-      <c r="CG15" s="32">
+      <c r="DA15" s="25">
         <v>5.9270000000000003E-2</v>
       </c>
-      <c r="CH15" s="32">
+      <c r="DB15" s="25">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="CJ15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="CL15" s="31">
-        <f>SUM(CL8:CL14)</f>
+      <c r="DD15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="DF15" s="24">
+        <f>SUM(DF8:DF14)</f>
         <v>-6.7670633004970143E-2</v>
       </c>
-      <c r="CN15" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="CO15" s="44">
-        <f>SUM(_xlfn.ANCHORARRAY(CO16))</f>
+      <c r="DH15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="DI15" s="35">
+        <f>SUM(_xlfn.ANCHORARRAY(DI16))</f>
         <v>-1.1230886482698575E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+    <row r="16" spans="1:135" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="AA16" s="1" t="str">
         <v>Corporate</v>
       </c>
-      <c r="AB16" s="20">
+      <c r="AB16" s="17">
         <v>0.15</v>
       </c>
-      <c r="AC16" s="20">
+      <c r="AC16" s="17">
         <v>0.15</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AD16" s="17">
         <v>0.15</v>
       </c>
-      <c r="AE16" s="20">
+      <c r="AE16" s="17">
         <v>0.44999999999999996</v>
       </c>
-      <c r="AF16" s="18" cm="1">
+      <c r="AF16" s="15" cm="1">
         <f t="array" ref="AF16">SUM(IF(($B$7:$B$13=$AA16)*($F$7:$F$13=AB$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>0.66</v>
       </c>
-      <c r="AG16" s="18" cm="1">
+      <c r="AG16" s="15" cm="1">
         <f t="array" ref="AG16">SUM(IF(($B$7:$B$13=$AA16)*($F$7:$F$13=AC$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="AH16" s="18" cm="1">
+      <c r="AH16" s="15" cm="1">
         <f t="array" ref="AH16">SUM(IF(($B$7:$B$13=$AA16)*($F$7:$F$13=AD$6),$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.5090000000000001</v>
       </c>
@@ -3529,195 +4803,338 @@
         <f t="array" ref="AI16">SUM(IF($B$7:$B$13=$AA16,$G$7:$G$13*$V$7:$V$13))</f>
         <v>3.2789999999999999</v>
       </c>
-      <c r="AJ16" s="18">
+      <c r="AJ16" s="15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AK16" s="18">
+      <c r="AK16" s="15">
         <v>7.4000000000000012</v>
       </c>
-      <c r="AL16" s="18">
+      <c r="AL16" s="15">
         <v>10.06</v>
       </c>
-      <c r="AM16" s="18">
+      <c r="AM16" s="15">
         <v>7.2866666666666671</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP16" s="17" cm="1">
+        <v>20</v>
+      </c>
+      <c r="AP16" s="14" cm="1">
         <f t="array" ref="AP16">SUM(IF(($B$7:$B$13=$AO16)*($F$7:$F$13=AP$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-6.4970930232558181E-3</v>
       </c>
-      <c r="AQ16" s="17" cm="1">
+      <c r="AQ16" s="14" cm="1">
         <f t="array" ref="AQ16">SUM(IF(($B$7:$B$13=$AO16)*($F$7:$F$13=AQ$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-9.2122145239928004E-3</v>
       </c>
-      <c r="AR16" s="17" cm="1">
+      <c r="AR16" s="14" cm="1">
         <f t="array" ref="AR16">SUM(IF(($B$7:$B$13=$AO16)*($F$7:$F$13=AR$6),_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-8.7870148979216373E-3</v>
       </c>
-      <c r="AS16" s="17" cm="1">
+      <c r="AS16" s="14" cm="1">
         <f t="array" ref="AS16">SUM(IF($B$7:$B$13=$AO16,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-2.4496322445170256E-2</v>
       </c>
-      <c r="AT16" s="17">
+      <c r="AT16" s="14">
         <v>-4.3313953488372123E-2</v>
       </c>
-      <c r="AU16" s="17">
+      <c r="AU16" s="14">
         <v>-6.141476349328534E-2</v>
       </c>
-      <c r="AV16" s="17">
+      <c r="AV16" s="14">
         <v>-5.8580099319477587E-2</v>
       </c>
-      <c r="AW16" s="17">
+      <c r="AW16" s="14">
         <v>-5.4436272100378352E-2</v>
       </c>
-      <c r="CC16" s="1">
+      <c r="AY16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA16" s="17" cm="1">
+        <f t="array" ref="BA16">SUM(IF((($B$7:$B$13=$AZ16)+($AZ16="Total"))*(($F$7:$F$13=$AY16)+($AY16="Total")),$R$7:$R$13))</f>
+        <v>0.4</v>
+      </c>
+      <c r="BB16" s="17" cm="1">
+        <f t="array" ref="BB16">SUM(IF((($B$7:$B$13=$AZ16)+($AZ16="Total"))*(($F$7:$F$13=$AY16)+($AY16="Total")),$V$7:$V$13))</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BC16" s="14">
+        <v>-4.3467867592231618E-2</v>
+      </c>
+      <c r="BD16" s="14">
+        <v>-4.3343850543170449E-2</v>
+      </c>
+      <c r="BE16" s="61">
+        <v>8.0775000000000006</v>
+      </c>
+      <c r="BF16" s="56">
+        <v>7.1081818181818184</v>
+      </c>
+      <c r="BJ16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK16" s="24"/>
+      <c r="BL16" s="24" cm="1">
+        <f t="array" ref="BL16:BQ16">_xlfn.BYCOL(BL7:BQ15,_xleta.SUM)</f>
+        <v>-6.1857443411352485E-3</v>
+      </c>
+      <c r="BM16" s="24">
+        <v>5.2357793153137069E-3</v>
+      </c>
+      <c r="BN16" s="24">
+        <v>-9.4996502582154162E-4</v>
+      </c>
+      <c r="BO16" s="24">
+        <v>-2.2901196104946628E-3</v>
+      </c>
+      <c r="BP16" s="24">
+        <v>1.3242597020415546E-3</v>
+      </c>
+      <c r="BQ16" s="62">
+        <v>-1.915824934274649E-3</v>
+      </c>
+      <c r="CL16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="CW16" s="1">
         <v>10</v>
       </c>
-      <c r="CD16" s="15">
+      <c r="CX16" s="12">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="CE16" s="42"/>
-      <c r="CF16" s="42"/>
-      <c r="CG16" s="42"/>
-      <c r="CJ16" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="CL16" s="31">
-        <f>$M$10*100/CK7</f>
+      <c r="CY16" s="33"/>
+      <c r="CZ16" s="33"/>
+      <c r="DA16" s="33"/>
+      <c r="DD16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="DF16" s="24">
+        <f>$M$10*100/DE7</f>
         <v>2.4224866886810338E-2</v>
       </c>
-      <c r="CN16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CO16" s="17" cm="1">
-        <f t="array" ref="CO16:CO17">CL13:CL14</f>
+      <c r="DH16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DI16" s="14" cm="1">
+        <f t="array" ref="DI16:DI17">DF13:DF14</f>
         <v>-7.4393531005974879E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA17" s="19" t="str">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="16" t="str">
         <v>Total</v>
       </c>
-      <c r="AB17" s="28">
+      <c r="AB17" s="22">
         <v>0.35</v>
       </c>
-      <c r="AC17" s="28">
+      <c r="AC17" s="22">
         <v>0.35</v>
       </c>
-      <c r="AD17" s="28">
+      <c r="AD17" s="22">
         <v>0.3</v>
       </c>
-      <c r="AE17" s="28">
+      <c r="AE17" s="22">
         <v>1</v>
       </c>
-      <c r="AF17" s="27" cm="1">
+      <c r="AF17" s="19" cm="1">
         <f t="array" ref="AF17">SUM(IF($F$7:$F$13=AF$6,$G$7:$G$13*$V$7:$V$13))</f>
         <v>1.544</v>
       </c>
-      <c r="AG17" s="27" cm="1">
+      <c r="AG17" s="19" cm="1">
         <f t="array" ref="AG17">SUM(IF($F$7:$F$13=AG$6,$G$7:$G$13*$V$7:$V$13))</f>
         <v>2.6040000000000001</v>
       </c>
-      <c r="AH17" s="27" cm="1">
+      <c r="AH17" s="19" cm="1">
         <f t="array" ref="AH17">SUM(IF($F$7:$F$13=AH$6,$G$7:$G$13*$V$7:$V$13))</f>
         <v>3.0405000000000002</v>
       </c>
-      <c r="AI17" s="27">
+      <c r="AI17" s="19">
         <f>SUMPRODUCT($G$7:$G$13,$V$7:$V$13)</f>
         <v>7.1885000000000012</v>
       </c>
-      <c r="AJ17" s="27">
+      <c r="AJ17" s="19">
         <v>4.4114285714285719</v>
       </c>
-      <c r="AK17" s="27">
+      <c r="AK17" s="19">
         <v>7.44</v>
       </c>
-      <c r="AL17" s="27">
+      <c r="AL17" s="19">
         <v>10.135000000000002</v>
       </c>
-      <c r="AM17" s="27">
+      <c r="AM17" s="19">
         <v>7.1885000000000012</v>
       </c>
-      <c r="AO17" s="19" t="s">
+      <c r="AO17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AP17" s="31" cm="1">
+      <c r="AP17" s="24" cm="1">
         <f t="array" ref="AP17">SUM(IF($F$7:$F$13=AP$6,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-1.3454438994819812E-2</v>
       </c>
-      <c r="AQ17" s="31" cm="1">
+      <c r="AQ17" s="24" cm="1">
         <f t="array" ref="AQ17">SUM(IF($F$7:$F$13=AQ$6,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-1.9532880586147626E-2</v>
       </c>
-      <c r="AR17" s="31" cm="1">
+      <c r="AR17" s="24" cm="1">
         <f t="array" ref="AR17">SUM(IF($F$7:$F$13=AR$6,_xlfn.ANCHORARRAY($P$7)*$V$7:$V$13))</f>
         <v>-1.5348120662946566E-2</v>
       </c>
-      <c r="AS17" s="31">
+      <c r="AS17" s="24">
         <f>SUMPRODUCT(_xlfn.ANCHORARRAY($P$7),$V$7:$V$13)</f>
         <v>-4.8335440243914007E-2</v>
       </c>
-      <c r="AT17" s="31">
+      <c r="AT17" s="24">
         <v>-3.8441254270913751E-2</v>
       </c>
-      <c r="AU17" s="31">
+      <c r="AU17" s="24">
         <v>-5.5808230246136077E-2</v>
       </c>
-      <c r="AV17" s="31">
+      <c r="AV17" s="24">
         <v>-5.116040220982189E-2</v>
       </c>
-      <c r="AW17" s="31">
+      <c r="AW17" s="24">
         <v>-4.8335440243914007E-2</v>
       </c>
-      <c r="CJ17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="CL17" s="31">
-        <f>SUM(CL15:CL16)</f>
+      <c r="AY17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA17" s="17" cm="1">
+        <f t="array" ref="BA17">SUM(IF((($B$7:$B$13=$AZ17)+($AZ17="Total"))*(($F$7:$F$13=$AY17)+($AY17="Total")),$R$7:$R$13))</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="BB17" s="17" cm="1">
+        <f t="array" ref="BB17">SUM(IF((($B$7:$B$13=$AZ17)+($AZ17="Total"))*(($F$7:$F$13=$AY17)+($AY17="Total")),$V$7:$V$13))</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="BC17" s="14">
+        <v>-5.4773530235493327E-2</v>
+      </c>
+      <c r="BD17" s="14">
+        <v>-5.4436272100378352E-2</v>
+      </c>
+      <c r="BE17" s="61">
+        <v>8.23</v>
+      </c>
+      <c r="BF17" s="61">
+        <v>7.2866666666666671</v>
+      </c>
+      <c r="BJ17" s="24"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="24"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="24"/>
+      <c r="BO17" s="24"/>
+      <c r="BP17" s="24"/>
+      <c r="BQ17" s="24"/>
+      <c r="CL17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="DD17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="DF17" s="24">
+        <f>SUM(DF15:DF16)</f>
         <v>-4.3445766118159805E-2</v>
       </c>
-      <c r="CN17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="CO17" s="17">
+      <c r="DH17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI17" s="14">
         <v>-3.7915333821010862E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="CN18" s="19" t="s">
+    <row r="18" spans="1:113" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AY18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="CO18" s="31">
-        <f>SUM(CO7,CO11,CO15)</f>
+      <c r="AZ18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA18" s="17" cm="1">
+        <f t="array" ref="BA18">SUM(IF((($B$7:$B$13=$AZ18)+($AZ18="Total"))*(($F$7:$F$13=$AY18)+($AY18="Total")),$R$7:$R$13))</f>
+        <v>1</v>
+      </c>
+      <c r="BB18" s="17" cm="1">
+        <f t="array" ref="BB18">SUM(IF((($B$7:$B$13=$AZ18)+($AZ18="Total"))*(($F$7:$F$13=$AY18)+($AY18="Total")),$V$7:$V$13))</f>
+        <v>1</v>
+      </c>
+      <c r="BC18" s="14">
+        <v>-5.0251265178188648E-2</v>
+      </c>
+      <c r="BD18" s="14">
+        <v>-4.8335440243914007E-2</v>
+      </c>
+      <c r="BE18" s="61">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="BF18" s="61">
+        <v>7.1885000000000012</v>
+      </c>
+      <c r="BP18" s="33"/>
+      <c r="CL18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="DH18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="DI18" s="24">
+        <f>SUM(DI7,DI11,DI15)</f>
         <v>-4.3445766118159812E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:113" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BC19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD19" s="62">
+        <f>BC18-BD18</f>
+        <v>-1.9158249342746403E-3</v>
+      </c>
+      <c r="CL19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="CL20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="CL21" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="CC1:CW1"/>
-    <mergeCell ref="CD5:CH5"/>
-    <mergeCell ref="CN3:CO4"/>
-    <mergeCell ref="CJ3:CL4"/>
-    <mergeCell ref="CC3:CH3"/>
-    <mergeCell ref="BS5:CA5"/>
-    <mergeCell ref="BG5:BP5"/>
-    <mergeCell ref="BR3:CA3"/>
-    <mergeCell ref="AY1:CA1"/>
-    <mergeCell ref="BG3:BP3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="AO11:AW11"/>
-    <mergeCell ref="AO3:AW3"/>
-    <mergeCell ref="A1:AW1"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="AA3:AM3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="AA11:AM11"/>
+  <mergeCells count="55">
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="DK3:DT3"/>
+    <mergeCell ref="DW3:EE3"/>
+    <mergeCell ref="CX5:DA5"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="W5:Y5"/>
     <mergeCell ref="AP13:AS13"/>
     <mergeCell ref="AT13:AW13"/>
     <mergeCell ref="AF5:AI5"/>
@@ -3726,15 +5143,32 @@
     <mergeCell ref="AJ13:AM13"/>
     <mergeCell ref="AT5:AW5"/>
     <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AO11:AW11"/>
+    <mergeCell ref="AO3:AW3"/>
+    <mergeCell ref="A1:AW1"/>
+    <mergeCell ref="BT5:BY5"/>
+    <mergeCell ref="AA3:AM3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="AA11:AM11"/>
     <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="AY1:BQ1"/>
+    <mergeCell ref="AY3:BF3"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="CM5:CU5"/>
+    <mergeCell ref="CA5:CJ5"/>
+    <mergeCell ref="CL3:CU3"/>
+    <mergeCell ref="BS1:CU1"/>
+    <mergeCell ref="CA3:CJ3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="CW1:DT1"/>
+    <mergeCell ref="DH3:DI4"/>
+    <mergeCell ref="DD3:DF4"/>
+    <mergeCell ref="CW3:DB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
